--- a/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
+++ b/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{080FDB42-E215-47AF-A7D3-3AACF5E8DDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3DEC1B-E343-4C64-824A-F22F9E41B8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1315">
   <si>
     <t>IN</t>
   </si>
@@ -1962,6 +1962,9 @@
     <t>0.75757575261708</t>
   </si>
   <si>
+    <t>Più o meno, va bene</t>
+  </si>
+  <si>
     <t>x is a for generate statement on variable i over CFG_NCPU-1 that generates CFG_NCPU component irqi(i).irl set to "0000"</t>
   </si>
   <si>
@@ -2046,6 +2049,9 @@
     <t>0.7708333333333334</t>
   </si>
   <si>
+    <t>Sbagliato</t>
+  </si>
+  <si>
     <t>clock_multiplier is a generic parameter of type integer with default 10000000</t>
   </si>
   <si>
@@ -2169,6 +2175,9 @@
     <t>0.3076923028106509</t>
   </si>
   <si>
+    <t>L'output del modello risponde meglio alla specifica</t>
+  </si>
+  <si>
     <t>assertion statement that checks whether sim_done_i is equal to '0' and reports a note with the message 'Simulation Complete for:' followed by the value of AXI_CHANNEL if sim_done_i equals '0'</t>
   </si>
   <si>
@@ -2199,6 +2208,9 @@
     <t>0.6999999950500001</t>
   </si>
   <si>
+    <t xml:space="preserve">L'idea ci sta </t>
+  </si>
+  <si>
     <t>Check if 'data_valid' is high only when 'parity_ok' and 'crc_ok' are both high</t>
   </si>
   <si>
@@ -2241,6 +2253,9 @@
     <t>0.15789473185595584</t>
   </si>
   <si>
+    <t>Ci può stare</t>
+  </si>
+  <si>
     <t>Define an instance of the entity mux_4_1 with four input signals and one output signal.</t>
   </si>
   <si>
@@ -2280,6 +2295,9 @@
     <t>0.5217391255198489</t>
   </si>
   <si>
+    <t>Ci sta</t>
+  </si>
+  <si>
     <t>FF_D is a process sensitive to clock signal that define the behaviour of a flip flop D</t>
   </si>
   <si>
@@ -2295,6 +2313,9 @@
     <t>0.4827586157431629</t>
   </si>
   <si>
+    <t>Non c'è il reset ma va bene</t>
+  </si>
+  <si>
     <t>define the entity adder with A as an input std_logic, B as an input std_logic, carryIn as an input std_logic, carryOut as an output std_logic, fnord as an output std_logic, baz as an output std_logic_vector of 8 bit, sum as an output std_logic</t>
   </si>
   <si>
@@ -2355,6 +2376,9 @@
     <t>0.4999999950781251</t>
   </si>
   <si>
+    <t xml:space="preserve">RIFERIMENTO ERRATO, Add dovrebbe aggiungere, invece concatena </t>
+  </si>
+  <si>
     <t>Perform a right shift operation by 1 bit on i_sr_data and add the value of i_data_1_out to the result.</t>
   </si>
   <si>
@@ -2463,6 +2487,9 @@
     <t>0.4516128988553591</t>
   </si>
   <si>
+    <t xml:space="preserve">Lo devo dare sbagliato </t>
+  </si>
+  <si>
     <t>Generate an up counter of N-bit with the signals Clk, Rst, and En as input and the signal count (N-bit) as output.</t>
   </si>
   <si>
@@ -2478,6 +2505,9 @@
     <t>0.28571428184807257</t>
   </si>
   <si>
+    <t xml:space="preserve">Equivalente </t>
+  </si>
+  <si>
     <t>Design a 4-bit barrel shifter</t>
   </si>
   <si>
@@ -2493,6 +2523,9 @@
     <t>0.6849315021204729</t>
   </si>
   <si>
+    <t>Non un PE</t>
+  </si>
+  <si>
     <t>Implement a basic priority encoder</t>
   </si>
   <si>
@@ -2514,6 +2547,9 @@
     <t>0.2772277185962161</t>
   </si>
   <si>
+    <t>Un buon tentativo, non perfetto</t>
+  </si>
+  <si>
     <t>Implement a 2-bit binary counter using a process.</t>
   </si>
   <si>
@@ -2574,6 +2610,9 @@
     <t>0.29213482810251235</t>
   </si>
   <si>
+    <t>Mi chiede solo di definirlo, non di implementarlo</t>
+  </si>
+  <si>
     <t>Implement a basic CRC-8 (Cyclic Redundancy Check) calculator</t>
   </si>
   <si>
@@ -2589,6 +2628,9 @@
     <t>0.11320754311142771</t>
   </si>
   <si>
+    <t>Mi chiede di implementarlo, ma non è implementato</t>
+  </si>
+  <si>
     <t>Implement a basic FIFO (First-In-First-Out) buffer</t>
   </si>
   <si>
@@ -2617,6 +2659,9 @@
   </si>
   <si>
     <t>0.33333332907297836</t>
+  </si>
+  <si>
+    <t>RIFERIMENTO ERRATO, non è un contatore di Johnson</t>
   </si>
   <si>
     <t>Create a simple ring oscillator</t>
@@ -3937,7 +3982,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3963,6 +4008,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4001,13 +4052,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4312,14 +4364,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B137" workbookViewId="0">
-      <selection activeCell="L164" sqref="L164"/>
+    <sheetView tabSelected="1" topLeftCell="C219" workbookViewId="0">
+      <selection activeCell="L236" sqref="L236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="98.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
     <col min="3" max="3" width="73.28515625" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
@@ -10279,7 +10331,7 @@
         <v>146</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -10524,18 +10576,21 @@
         <v>642</v>
       </c>
       <c r="K175">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L175" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B176" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C176" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -10562,15 +10617,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B177" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C177" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -10582,7 +10637,7 @@
         <v>0.99971064814814814</v>
       </c>
       <c r="G177" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -10591,21 +10646,21 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="K177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B178" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C178" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -10617,7 +10672,7 @@
         <v>0.99989822918786897</v>
       </c>
       <c r="G178" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -10629,18 +10684,18 @@
         <v>139</v>
       </c>
       <c r="K178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B179" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C179" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -10667,15 +10722,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B180" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C180" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -10687,7 +10742,7 @@
         <v>0.86601307189542487</v>
       </c>
       <c r="G180" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -10696,21 +10751,21 @@
         <v>0.93900000000000006</v>
       </c>
       <c r="J180" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B181" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C181" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -10737,15 +10792,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B182" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C182" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -10772,15 +10827,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B183" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C183" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -10807,15 +10862,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B184" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C184" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -10827,7 +10882,7 @@
         <v>0.93532986111111116</v>
       </c>
       <c r="G184" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H184">
         <v>0.49</v>
@@ -10841,16 +10896,19 @@
       <c r="K184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="L184" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B185" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C185" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -10876,16 +10934,19 @@
       <c r="K185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="L185" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B186" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C186" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -10912,15 +10973,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B187" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C187" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -10947,15 +11008,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B188" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C188" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -10982,15 +11043,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B189" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C189" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -11017,15 +11078,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B190" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C190" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -11052,15 +11113,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B191" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C191" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -11072,7 +11133,7 @@
         <v>0.9244156318480643</v>
       </c>
       <c r="G191" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H191">
         <v>0.64</v>
@@ -11084,18 +11145,18 @@
         <v>167</v>
       </c>
       <c r="K191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B192" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C192" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -11122,15 +11183,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B193" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C193" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -11157,15 +11218,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B194" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C194" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -11192,15 +11253,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B195" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C195" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -11227,15 +11288,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B196" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C196" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -11262,15 +11323,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B197" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C197" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -11297,15 +11358,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B198" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C198" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -11332,15 +11393,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B199" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C199" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -11352,7 +11413,7 @@
         <v>0.88554720133667497</v>
       </c>
       <c r="G199" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H199">
         <v>0.41</v>
@@ -11361,21 +11422,21 @@
         <v>0.59560000000000002</v>
       </c>
       <c r="J199" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B200" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C200" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -11387,7 +11448,7 @@
         <v>0.44856459330143528</v>
       </c>
       <c r="G200" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -11396,21 +11457,24 @@
         <v>0.82550000000000001</v>
       </c>
       <c r="J200" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="K200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B201" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C201" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -11422,7 +11486,7 @@
         <v>0.93829296424452135</v>
       </c>
       <c r="G201" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="H201">
         <v>0.68</v>
@@ -11431,21 +11495,21 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="K201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B202" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C202" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -11457,7 +11521,7 @@
         <v>0.76138561631791823</v>
       </c>
       <c r="G202" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H202">
         <v>0.28000000000000003</v>
@@ -11466,21 +11530,24 @@
         <v>0.51049999999999995</v>
       </c>
       <c r="J202" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="K202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L202" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B203" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C203" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -11492,7 +11559,7 @@
         <v>0.71009825633550128</v>
       </c>
       <c r="G203" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="H203">
         <v>0.3</v>
@@ -11501,21 +11568,21 @@
         <v>0.69379999999999997</v>
       </c>
       <c r="J203" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="K203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B204" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C204" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -11527,7 +11594,7 @@
         <v>0.91097560975609748</v>
       </c>
       <c r="G204" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H204">
         <v>0.74</v>
@@ -11536,21 +11603,21 @@
         <v>0.87780000000000002</v>
       </c>
       <c r="J204" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="K204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B205" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C205" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -11562,7 +11629,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="G205" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="H205">
         <v>0.08</v>
@@ -11571,21 +11638,24 @@
         <v>0.87819999999999998</v>
       </c>
       <c r="J205" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="K205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L205" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
+        <v>741</v>
+      </c>
+      <c r="B206" t="s">
         <v>736</v>
       </c>
-      <c r="B206" t="s">
-        <v>732</v>
-      </c>
       <c r="C206" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -11597,7 +11667,7 @@
         <v>6.6518847006651879E-2</v>
       </c>
       <c r="G206" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="H206">
         <v>0.08</v>
@@ -11606,21 +11676,21 @@
         <v>0.4642</v>
       </c>
       <c r="J206" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="K206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B207" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="C207" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -11632,7 +11702,7 @@
         <v>0.83604522267319026</v>
       </c>
       <c r="G207" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="H207">
         <v>0.68</v>
@@ -11641,21 +11711,21 @@
         <v>0.89659999999999995</v>
       </c>
       <c r="J207" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="K207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B208" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C208" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -11667,7 +11737,7 @@
         <v>0.40426361627453522</v>
       </c>
       <c r="G208" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="H208">
         <v>0.14000000000000001</v>
@@ -11676,21 +11746,24 @@
         <v>0.39850000000000002</v>
       </c>
       <c r="J208" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="K208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L208" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B209" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="C209" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -11702,7 +11775,7 @@
         <v>0.42501822157434388</v>
       </c>
       <c r="G209" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="H209">
         <v>0.13</v>
@@ -11711,21 +11784,24 @@
         <v>0.74309999999999998</v>
       </c>
       <c r="J209" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="K209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L209" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="B210" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="C210" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -11737,7 +11813,7 @@
         <v>0.76005746690954712</v>
       </c>
       <c r="G210" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="H210">
         <v>0.54</v>
@@ -11746,21 +11822,21 @@
         <v>0.88890000000000002</v>
       </c>
       <c r="J210" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="K210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="B211" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="C211" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -11787,15 +11863,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:12">
       <c r="A212" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="B212" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="C212" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -11822,15 +11898,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:12">
       <c r="A213" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="B213" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="C213" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -11857,15 +11933,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:12">
       <c r="A214" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="B214" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="C214" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -11877,7 +11953,7 @@
         <v>0.92688081149619617</v>
       </c>
       <c r="G214" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="H214">
         <v>0.69</v>
@@ -11889,18 +11965,18 @@
         <v>251</v>
       </c>
       <c r="K214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="B215" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="C215" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -11912,7 +11988,7 @@
         <v>0.6463768115942029</v>
       </c>
       <c r="G215" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="H215">
         <v>0.14000000000000001</v>
@@ -11921,21 +11997,24 @@
         <v>0.88170000000000004</v>
       </c>
       <c r="J215" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="K215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="L215" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="B216" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="C216" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -11947,7 +12026,7 @@
         <v>0.7947059528087197</v>
       </c>
       <c r="G216" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="H216">
         <v>0.69</v>
@@ -11956,21 +12035,24 @@
         <v>0.90959999999999996</v>
       </c>
       <c r="J216" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="K216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="L216" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="B217" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="C217" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -11982,7 +12064,7 @@
         <v>0.52686803357644141</v>
       </c>
       <c r="G217" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="H217">
         <v>0.33</v>
@@ -11991,21 +12073,24 @@
         <v>0.78839999999999999</v>
       </c>
       <c r="J217" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="K217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="L217" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="B218" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="C218" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -12017,7 +12102,7 @@
         <v>0.73827261087184259</v>
       </c>
       <c r="G218" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="H218">
         <v>0.45</v>
@@ -12026,21 +12111,24 @@
         <v>0.82950000000000002</v>
       </c>
       <c r="J218" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="K218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:11">
+      <c r="L218" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="B219" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="C219" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -12052,7 +12140,7 @@
         <v>0.73827261087184259</v>
       </c>
       <c r="G219" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="H219">
         <v>0.51</v>
@@ -12061,21 +12149,24 @@
         <v>0.73080000000000001</v>
       </c>
       <c r="J219" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="K219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:11">
+      <c r="L219" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="B220" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="C220" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -12087,7 +12178,7 @@
         <v>0.7947059528087197</v>
       </c>
       <c r="G220" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="H220">
         <v>0.69</v>
@@ -12096,21 +12187,24 @@
         <v>0.83939999999999992</v>
       </c>
       <c r="J220" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="K220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="L220" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="B221" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="C221" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -12137,15 +12231,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:12">
       <c r="A222" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="B222" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="C222" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -12157,7 +12251,7 @@
         <v>0.98148148148148151</v>
       </c>
       <c r="G222" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="H222">
         <v>0.59</v>
@@ -12169,18 +12263,18 @@
         <v>65</v>
       </c>
       <c r="K222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="B223" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="C223" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -12201,21 +12295,21 @@
         <v>0.95540000000000003</v>
       </c>
       <c r="J223" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="K223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="B224" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="C224" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -12227,7 +12321,7 @@
         <v>0.49097772930794348</v>
       </c>
       <c r="G224" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="H224">
         <v>0.2</v>
@@ -12236,21 +12330,24 @@
         <v>0.95180000000000009</v>
       </c>
       <c r="J224" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="K224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:11">
+      <c r="L224" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="B225" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="C225" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -12262,7 +12359,7 @@
         <v>0.27755604075691409</v>
       </c>
       <c r="G225" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="H225">
         <v>0.05</v>
@@ -12271,21 +12368,24 @@
         <v>0.87049999999999994</v>
       </c>
       <c r="J225" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="K225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L225" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="B226" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="C226" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -12297,7 +12397,7 @@
         <v>0.65867520412974945</v>
       </c>
       <c r="G226" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="H226">
         <v>0.37</v>
@@ -12306,21 +12406,24 @@
         <v>0.96889999999999998</v>
       </c>
       <c r="J226" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="K226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="L226" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="B227" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="C227" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -12347,15 +12450,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="B228" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="C228" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -12367,7 +12470,7 @@
         <v>0.16682546586852809</v>
       </c>
       <c r="G228" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="H228">
         <v>0.03</v>
@@ -12376,21 +12479,24 @@
         <v>0.71569999999999989</v>
       </c>
       <c r="J228" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="K228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L228" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="B229" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="C229" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -12402,7 +12508,7 @@
         <v>0.82096733176166536</v>
       </c>
       <c r="G229" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -12411,21 +12517,21 @@
         <v>0.93730000000000002</v>
       </c>
       <c r="J229" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
       <c r="K229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="B230" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="C230" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -12437,7 +12543,7 @@
         <v>0.27737352968664458</v>
       </c>
       <c r="G230" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -12446,21 +12552,21 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="J230" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="K230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="B231" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="C231" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -12472,7 +12578,7 @@
         <v>0.89534564636420666</v>
       </c>
       <c r="G231" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="H231">
         <v>0.51</v>
@@ -12481,21 +12587,21 @@
         <v>0.90599999999999992</v>
       </c>
       <c r="J231" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="K231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="B232" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="C232" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -12507,7 +12613,7 @@
         <v>0.16981635668396081</v>
       </c>
       <c r="G232" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="H232">
         <v>0.03</v>
@@ -12516,21 +12622,24 @@
         <v>0.83550000000000002</v>
       </c>
       <c r="J232" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="K232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L232" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="B233" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="C233" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -12542,7 +12651,7 @@
         <v>0.1004648975558651</v>
       </c>
       <c r="G233" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -12551,21 +12660,24 @@
         <v>0.92189999999999994</v>
       </c>
       <c r="J233" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="K233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:11">
+      <c r="L233" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="B234" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="C234" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -12577,7 +12689,7 @@
         <v>0.124827859121488</v>
       </c>
       <c r="G234" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="H234">
         <v>7.0000000000000007E-2</v>
@@ -12586,21 +12698,24 @@
         <v>0.83930000000000005</v>
       </c>
       <c r="J234" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="K234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="L234" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="B235" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="C235" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -12612,7 +12727,7 @@
         <v>0.298013533069102</v>
       </c>
       <c r="G235" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -12621,21 +12736,24 @@
         <v>0.74250000000000005</v>
       </c>
       <c r="J235" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="K235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L235" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="B236" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="C236" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -12647,7 +12765,7 @@
         <v>0.37996325255940638</v>
       </c>
       <c r="G236" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="H236">
         <v>0.2</v>
@@ -12656,21 +12774,21 @@
         <v>0.67830000000000001</v>
       </c>
       <c r="J236" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="K236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:12">
       <c r="A237" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="B237" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="C237" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -12682,7 +12800,7 @@
         <v>0.45569919741260889</v>
       </c>
       <c r="G237" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -12691,21 +12809,21 @@
         <v>0.70950000000000002</v>
       </c>
       <c r="J237" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="K237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:12">
       <c r="A238" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="B238" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="C238" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -12717,7 +12835,7 @@
         <v>0.70736905762791857</v>
       </c>
       <c r="G238" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="H238">
         <v>0.16</v>
@@ -12726,21 +12844,21 @@
         <v>0.7752</v>
       </c>
       <c r="J238" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="K238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:12">
       <c r="A239" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="B239" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="C239" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -12752,7 +12870,7 @@
         <v>0.27256789330652959</v>
       </c>
       <c r="G239" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -12761,21 +12879,21 @@
         <v>0.72129999999999994</v>
       </c>
       <c r="J239" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="K239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="B240" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="C240" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -12787,7 +12905,7 @@
         <v>0.27864545050301509</v>
       </c>
       <c r="G240" t="s">
-        <v>885</v>
+        <v>900</v>
       </c>
       <c r="H240">
         <v>0.03</v>
@@ -12796,7 +12914,7 @@
         <v>0.60870000000000002</v>
       </c>
       <c r="J240" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -12804,13 +12922,13 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="B241" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="C241" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -12822,7 +12940,7 @@
         <v>0.96651525483381362</v>
       </c>
       <c r="G241" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="H241">
         <v>0.86</v>
@@ -12831,7 +12949,7 @@
         <v>0.96950000000000003</v>
       </c>
       <c r="J241" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="K241">
         <v>0</v>
@@ -12839,13 +12957,13 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="B242" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="C242" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -12857,7 +12975,7 @@
         <v>8.9249754321524669E-2</v>
       </c>
       <c r="G242" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -12866,7 +12984,7 @@
         <v>0.73219999999999996</v>
       </c>
       <c r="J242" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
       <c r="K242">
         <v>0</v>
@@ -12874,13 +12992,13 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
       <c r="B243" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="C243" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -12892,7 +13010,7 @@
         <v>0.15237096840070249</v>
       </c>
       <c r="G243" t="s">
-        <v>900</v>
+        <v>915</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -12901,7 +13019,7 @@
         <v>0.70819999999999994</v>
       </c>
       <c r="J243" t="s">
-        <v>901</v>
+        <v>916</v>
       </c>
       <c r="K243">
         <v>0</v>
@@ -12909,13 +13027,13 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="B244" t="s">
-        <v>903</v>
+        <v>918</v>
       </c>
       <c r="C244" t="s">
-        <v>904</v>
+        <v>919</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -12927,7 +13045,7 @@
         <v>0.75117324462824775</v>
       </c>
       <c r="G244" t="s">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="H244">
         <v>0.28999999999999998</v>
@@ -12936,7 +13054,7 @@
         <v>0.81129999999999991</v>
       </c>
       <c r="J244" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
       <c r="K244">
         <v>0</v>
@@ -12944,13 +13062,13 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="B245" t="s">
-        <v>908</v>
+        <v>923</v>
       </c>
       <c r="C245" t="s">
-        <v>909</v>
+        <v>924</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -12962,7 +13080,7 @@
         <v>0.29680449441082968</v>
       </c>
       <c r="G245" t="s">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="H245">
         <v>0.04</v>
@@ -12971,7 +13089,7 @@
         <v>0.81669999999999998</v>
       </c>
       <c r="J245" t="s">
-        <v>911</v>
+        <v>926</v>
       </c>
       <c r="K245">
         <v>0</v>
@@ -12979,13 +13097,13 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" t="s">
-        <v>912</v>
+        <v>927</v>
       </c>
       <c r="B246" t="s">
-        <v>913</v>
+        <v>928</v>
       </c>
       <c r="C246" t="s">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -12997,7 +13115,7 @@
         <v>0.33845776719428478</v>
       </c>
       <c r="G246" t="s">
-        <v>915</v>
+        <v>930</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -13006,7 +13124,7 @@
         <v>0.69290000000000007</v>
       </c>
       <c r="J246" t="s">
-        <v>916</v>
+        <v>931</v>
       </c>
       <c r="K246">
         <v>0</v>
@@ -13014,13 +13132,13 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" t="s">
-        <v>917</v>
+        <v>932</v>
       </c>
       <c r="B247" t="s">
-        <v>918</v>
+        <v>933</v>
       </c>
       <c r="C247" t="s">
-        <v>919</v>
+        <v>934</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -13032,7 +13150,7 @@
         <v>8.6234675756186985E-2</v>
       </c>
       <c r="G247" t="s">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -13041,7 +13159,7 @@
         <v>0.8993000000000001</v>
       </c>
       <c r="J247" t="s">
-        <v>921</v>
+        <v>936</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -13049,13 +13167,13 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" t="s">
-        <v>922</v>
+        <v>937</v>
       </c>
       <c r="B248" t="s">
-        <v>923</v>
+        <v>938</v>
       </c>
       <c r="C248" t="s">
-        <v>924</v>
+        <v>939</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -13067,7 +13185,7 @@
         <v>5.639240512414085E-2</v>
       </c>
       <c r="G248" t="s">
-        <v>925</v>
+        <v>940</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -13076,7 +13194,7 @@
         <v>0.8498</v>
       </c>
       <c r="J248" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
       <c r="K248">
         <v>0</v>
@@ -13084,13 +13202,13 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" t="s">
-        <v>927</v>
+        <v>942</v>
       </c>
       <c r="B249" t="s">
-        <v>928</v>
+        <v>943</v>
       </c>
       <c r="C249" t="s">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -13102,7 +13220,7 @@
         <v>0.10007043108682449</v>
       </c>
       <c r="G249" t="s">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -13111,7 +13229,7 @@
         <v>0.70739999999999992</v>
       </c>
       <c r="J249" t="s">
-        <v>931</v>
+        <v>946</v>
       </c>
       <c r="K249">
         <v>0</v>
@@ -13119,13 +13237,13 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" t="s">
-        <v>932</v>
+        <v>947</v>
       </c>
       <c r="B250" t="s">
-        <v>933</v>
+        <v>948</v>
       </c>
       <c r="C250" t="s">
-        <v>934</v>
+        <v>949</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -13137,7 +13255,7 @@
         <v>0.83747428311028627</v>
       </c>
       <c r="G250" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="H250">
         <v>0.64</v>
@@ -13154,13 +13272,13 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="B251" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="C251" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -13172,7 +13290,7 @@
         <v>0.43239795918367352</v>
       </c>
       <c r="G251" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="H251">
         <v>0.24</v>
@@ -13181,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -13189,13 +13307,13 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" t="s">
-        <v>941</v>
+        <v>956</v>
       </c>
       <c r="B252" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
       <c r="C252" t="s">
-        <v>943</v>
+        <v>958</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -13207,7 +13325,7 @@
         <v>6.6207552980039747E-2</v>
       </c>
       <c r="G252" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -13216,7 +13334,7 @@
         <v>0.41860000000000003</v>
       </c>
       <c r="J252" t="s">
-        <v>945</v>
+        <v>960</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -13224,13 +13342,13 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" t="s">
-        <v>946</v>
+        <v>961</v>
       </c>
       <c r="B253" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="C253" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -13242,7 +13360,7 @@
         <v>0.18341659250582151</v>
       </c>
       <c r="G253" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="H253">
         <v>0.02</v>
@@ -13251,7 +13369,7 @@
         <v>0.69359999999999999</v>
       </c>
       <c r="J253" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="K253">
         <v>0</v>
@@ -13259,13 +13377,13 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="B254" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="C254" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -13277,7 +13395,7 @@
         <v>5.4456654456654457E-2</v>
       </c>
       <c r="G254" t="s">
-        <v>954</v>
+        <v>969</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -13286,7 +13404,7 @@
         <v>0.52459999999999996</v>
       </c>
       <c r="J254" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -13294,13 +13412,13 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" t="s">
-        <v>956</v>
+        <v>971</v>
       </c>
       <c r="B255" t="s">
-        <v>957</v>
+        <v>972</v>
       </c>
       <c r="C255" t="s">
-        <v>958</v>
+        <v>973</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -13312,7 +13430,7 @@
         <v>0.75857558139534875</v>
       </c>
       <c r="G255" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="H255">
         <v>0.69</v>
@@ -13321,7 +13439,7 @@
         <v>0.93180000000000007</v>
       </c>
       <c r="J255" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -13329,13 +13447,13 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" t="s">
-        <v>961</v>
+        <v>976</v>
       </c>
       <c r="B256" t="s">
-        <v>962</v>
+        <v>977</v>
       </c>
       <c r="C256" t="s">
-        <v>963</v>
+        <v>978</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -13347,7 +13465,7 @@
         <v>0.76666235488147982</v>
       </c>
       <c r="G256" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -13364,13 +13482,13 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="B257" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
       <c r="C257" t="s">
-        <v>967</v>
+        <v>982</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -13382,7 +13500,7 @@
         <v>0.62949517303113756</v>
       </c>
       <c r="G257" t="s">
-        <v>968</v>
+        <v>983</v>
       </c>
       <c r="H257">
         <v>0.43</v>
@@ -13391,7 +13509,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="J257" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K257">
         <v>0</v>
@@ -13399,13 +13517,13 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" t="s">
-        <v>970</v>
+        <v>985</v>
       </c>
       <c r="B258" t="s">
-        <v>971</v>
+        <v>986</v>
       </c>
       <c r="C258" t="s">
-        <v>972</v>
+        <v>987</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -13417,7 +13535,7 @@
         <v>0.43086150486664188</v>
       </c>
       <c r="G258" t="s">
-        <v>973</v>
+        <v>988</v>
       </c>
       <c r="H258">
         <v>7.0000000000000007E-2</v>
@@ -13426,7 +13544,7 @@
         <v>0.57320000000000004</v>
       </c>
       <c r="J258" t="s">
-        <v>974</v>
+        <v>989</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -13434,13 +13552,13 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="B259" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="C259" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -13452,7 +13570,7 @@
         <v>0.13508963739573679</v>
       </c>
       <c r="G259" t="s">
-        <v>978</v>
+        <v>993</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -13461,7 +13579,7 @@
         <v>0.5998</v>
       </c>
       <c r="J259" t="s">
-        <v>979</v>
+        <v>994</v>
       </c>
       <c r="K259">
         <v>0</v>
@@ -13469,13 +13587,13 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
       <c r="B260" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
       <c r="C260" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -13487,7 +13605,7 @@
         <v>0.18014527845036321</v>
       </c>
       <c r="G260" t="s">
-        <v>983</v>
+        <v>998</v>
       </c>
       <c r="H260">
         <v>0.01</v>
@@ -13496,7 +13614,7 @@
         <v>0.88129999999999997</v>
       </c>
       <c r="J260" t="s">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="K260">
         <v>0</v>
@@ -13504,13 +13622,13 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="B261" t="s">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="C261" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -13522,7 +13640,7 @@
         <v>0.36611125901660141</v>
       </c>
       <c r="G261" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
       <c r="H261">
         <v>0.2</v>
@@ -13531,7 +13649,7 @@
         <v>0.45760000000000001</v>
       </c>
       <c r="J261" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="K261">
         <v>0</v>
@@ -13539,13 +13657,13 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="B262" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
       <c r="C262" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -13557,7 +13675,7 @@
         <v>0.31861181972789121</v>
       </c>
       <c r="G262" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="H262">
         <v>0.1</v>
@@ -13566,7 +13684,7 @@
         <v>0.74560000000000004</v>
       </c>
       <c r="J262" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="K262">
         <v>0</v>
@@ -13574,13 +13692,13 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="B263" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="C263" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -13592,7 +13710,7 @@
         <v>0.2177152715732775</v>
       </c>
       <c r="G263" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="H263">
         <v>0.03</v>
@@ -13601,7 +13719,7 @@
         <v>0.63719999999999999</v>
       </c>
       <c r="J263" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="K263">
         <v>0</v>
@@ -13609,13 +13727,13 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="B264" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="C264" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -13627,7 +13745,7 @@
         <v>0.84416716690964189</v>
       </c>
       <c r="G264" t="s">
-        <v>1003</v>
+        <v>1018</v>
       </c>
       <c r="H264">
         <v>0.35</v>
@@ -13636,7 +13754,7 @@
         <v>0.90930000000000011</v>
       </c>
       <c r="J264" t="s">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="K264">
         <v>0</v>
@@ -13644,13 +13762,13 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" t="s">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="B265" t="s">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="C265" t="s">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -13662,7 +13780,7 @@
         <v>0.1251506024096386</v>
       </c>
       <c r="G265" t="s">
-        <v>1008</v>
+        <v>1023</v>
       </c>
       <c r="H265">
         <v>0.06</v>
@@ -13671,7 +13789,7 @@
         <v>0.76980000000000004</v>
       </c>
       <c r="J265" t="s">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="K265">
         <v>0</v>
@@ -13679,13 +13797,13 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="B266" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="C266" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -13697,7 +13815,7 @@
         <v>0.37008194888083268</v>
       </c>
       <c r="G266" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -13706,7 +13824,7 @@
         <v>0.63029999999999997</v>
       </c>
       <c r="J266" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="K266">
         <v>0</v>
@@ -13714,13 +13832,13 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" t="s">
-        <v>1015</v>
+        <v>1030</v>
       </c>
       <c r="B267" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="C267" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -13732,7 +13850,7 @@
         <v>0.34369246118287677</v>
       </c>
       <c r="G267" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -13741,7 +13859,7 @@
         <v>0.75950000000000006</v>
       </c>
       <c r="J267" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="K267">
         <v>0</v>
@@ -13749,13 +13867,13 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="B268" t="s">
-        <v>1021</v>
+        <v>1036</v>
       </c>
       <c r="C268" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -13767,7 +13885,7 @@
         <v>0.39675422756399409</v>
       </c>
       <c r="G268" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
       <c r="H268">
         <v>0.02</v>
@@ -13776,7 +13894,7 @@
         <v>0.77049999999999996</v>
       </c>
       <c r="J268" t="s">
-        <v>1024</v>
+        <v>1039</v>
       </c>
       <c r="K268">
         <v>0</v>
@@ -13784,13 +13902,13 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="B269" t="s">
-        <v>1026</v>
+        <v>1041</v>
       </c>
       <c r="C269" t="s">
-        <v>1027</v>
+        <v>1042</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -13802,7 +13920,7 @@
         <v>0.51819301340860968</v>
       </c>
       <c r="G269" t="s">
-        <v>1028</v>
+        <v>1043</v>
       </c>
       <c r="H269">
         <v>0.33</v>
@@ -13811,7 +13929,7 @@
         <v>0.75029999999999997</v>
       </c>
       <c r="J269" t="s">
-        <v>1029</v>
+        <v>1044</v>
       </c>
       <c r="K269">
         <v>0</v>
@@ -13819,13 +13937,13 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="B270" t="s">
-        <v>1031</v>
+        <v>1046</v>
       </c>
       <c r="C270" t="s">
-        <v>1032</v>
+        <v>1047</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -13837,7 +13955,7 @@
         <v>0.9534105229993699</v>
       </c>
       <c r="G270" t="s">
-        <v>1033</v>
+        <v>1048</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -13846,7 +13964,7 @@
         <v>0.77689999999999992</v>
       </c>
       <c r="J270" t="s">
-        <v>1034</v>
+        <v>1049</v>
       </c>
       <c r="K270">
         <v>0</v>
@@ -13854,13 +13972,13 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" t="s">
-        <v>1035</v>
+        <v>1050</v>
       </c>
       <c r="B271" t="s">
-        <v>1036</v>
+        <v>1051</v>
       </c>
       <c r="C271" t="s">
-        <v>1037</v>
+        <v>1052</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -13872,7 +13990,7 @@
         <v>0.24438254450451111</v>
       </c>
       <c r="G271" t="s">
-        <v>1038</v>
+        <v>1053</v>
       </c>
       <c r="H271">
         <v>0.02</v>
@@ -13881,7 +13999,7 @@
         <v>0.47339999999999999</v>
       </c>
       <c r="J271" t="s">
-        <v>1039</v>
+        <v>1054</v>
       </c>
       <c r="K271">
         <v>0</v>
@@ -13889,13 +14007,13 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" t="s">
-        <v>1040</v>
+        <v>1055</v>
       </c>
       <c r="B272" t="s">
-        <v>1041</v>
+        <v>1056</v>
       </c>
       <c r="C272" t="s">
-        <v>1042</v>
+        <v>1057</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -13907,7 +14025,7 @@
         <v>0.64418346204022925</v>
       </c>
       <c r="G272" t="s">
-        <v>1043</v>
+        <v>1058</v>
       </c>
       <c r="H272">
         <v>0.31</v>
@@ -13916,7 +14034,7 @@
         <v>0.8909999999999999</v>
       </c>
       <c r="J272" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
       <c r="K272">
         <v>0</v>
@@ -13924,13 +14042,13 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" t="s">
-        <v>1045</v>
+        <v>1060</v>
       </c>
       <c r="B273" t="s">
-        <v>1046</v>
+        <v>1061</v>
       </c>
       <c r="C273" t="s">
-        <v>1047</v>
+        <v>1062</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -13942,7 +14060,7 @@
         <v>6.5000763591936475E-2</v>
       </c>
       <c r="G273" t="s">
-        <v>1048</v>
+        <v>1063</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -13951,7 +14069,7 @@
         <v>0.74400000000000011</v>
       </c>
       <c r="J273" t="s">
-        <v>1049</v>
+        <v>1064</v>
       </c>
       <c r="K273">
         <v>0</v>
@@ -13959,13 +14077,13 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" t="s">
-        <v>1050</v>
+        <v>1065</v>
       </c>
       <c r="B274" t="s">
-        <v>1051</v>
+        <v>1066</v>
       </c>
       <c r="C274" t="s">
-        <v>1052</v>
+        <v>1067</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -13977,7 +14095,7 @@
         <v>0.33160074536381162</v>
       </c>
       <c r="G274" t="s">
-        <v>1053</v>
+        <v>1068</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -13986,7 +14104,7 @@
         <v>0.76439999999999997</v>
       </c>
       <c r="J274" t="s">
-        <v>1054</v>
+        <v>1069</v>
       </c>
       <c r="K274">
         <v>0</v>
@@ -13994,13 +14112,13 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" t="s">
-        <v>1055</v>
+        <v>1070</v>
       </c>
       <c r="B275" t="s">
-        <v>1056</v>
+        <v>1071</v>
       </c>
       <c r="C275" t="s">
-        <v>1057</v>
+        <v>1072</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -14012,7 +14130,7 @@
         <v>0.36656284712390819</v>
       </c>
       <c r="G275" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -14021,7 +14139,7 @@
         <v>0.77849999999999997</v>
       </c>
       <c r="J275" t="s">
-        <v>1059</v>
+        <v>1074</v>
       </c>
       <c r="K275">
         <v>0</v>
@@ -14029,13 +14147,13 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" t="s">
-        <v>1060</v>
+        <v>1075</v>
       </c>
       <c r="B276" t="s">
-        <v>1061</v>
+        <v>1076</v>
       </c>
       <c r="C276" t="s">
-        <v>1062</v>
+        <v>1077</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -14047,7 +14165,7 @@
         <v>0.26366390187782968</v>
       </c>
       <c r="G276" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -14056,7 +14174,7 @@
         <v>0.22750000000000001</v>
       </c>
       <c r="J276" t="s">
-        <v>1064</v>
+        <v>1079</v>
       </c>
       <c r="K276">
         <v>0</v>
@@ -14064,13 +14182,13 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" t="s">
-        <v>1065</v>
+        <v>1080</v>
       </c>
       <c r="B277" t="s">
-        <v>1066</v>
+        <v>1081</v>
       </c>
       <c r="C277" t="s">
-        <v>1067</v>
+        <v>1082</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -14082,7 +14200,7 @@
         <v>0.54521926556252653</v>
       </c>
       <c r="G277" t="s">
-        <v>1068</v>
+        <v>1083</v>
       </c>
       <c r="H277">
         <v>0.32</v>
@@ -14099,13 +14217,13 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" t="s">
-        <v>1069</v>
+        <v>1084</v>
       </c>
       <c r="B278" t="s">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="C278" t="s">
-        <v>1071</v>
+        <v>1086</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -14117,7 +14235,7 @@
         <v>0.98151497216733619</v>
       </c>
       <c r="G278" t="s">
-        <v>1072</v>
+        <v>1087</v>
       </c>
       <c r="H278">
         <v>0.88</v>
@@ -14126,7 +14244,7 @@
         <v>0.9456</v>
       </c>
       <c r="J278" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="K278">
         <v>0</v>
@@ -14134,13 +14252,13 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" t="s">
-        <v>1074</v>
+        <v>1089</v>
       </c>
       <c r="B279" t="s">
-        <v>1075</v>
+        <v>1090</v>
       </c>
       <c r="C279" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -14152,7 +14270,7 @@
         <v>0.71942500020697597</v>
       </c>
       <c r="G279" t="s">
-        <v>1077</v>
+        <v>1092</v>
       </c>
       <c r="H279">
         <v>0.64</v>
@@ -14161,7 +14279,7 @@
         <v>0.93290000000000006</v>
       </c>
       <c r="J279" t="s">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="K279">
         <v>0</v>
@@ -14169,13 +14287,13 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="B280" t="s">
-        <v>1080</v>
+        <v>1095</v>
       </c>
       <c r="C280" t="s">
-        <v>1081</v>
+        <v>1096</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -14187,7 +14305,7 @@
         <v>0.91697247706422014</v>
       </c>
       <c r="G280" t="s">
-        <v>1082</v>
+        <v>1097</v>
       </c>
       <c r="H280">
         <v>0.8</v>
@@ -14196,7 +14314,7 @@
         <v>0.95420000000000005</v>
       </c>
       <c r="J280" t="s">
-        <v>1083</v>
+        <v>1098</v>
       </c>
       <c r="K280">
         <v>0</v>
@@ -14204,13 +14322,13 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="B281" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="C281" t="s">
-        <v>1086</v>
+        <v>1101</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -14222,7 +14340,7 @@
         <v>0.95888877000712913</v>
       </c>
       <c r="G281" t="s">
-        <v>1087</v>
+        <v>1102</v>
       </c>
       <c r="H281">
         <v>0.94</v>
@@ -14231,7 +14349,7 @@
         <v>0.97930000000000006</v>
       </c>
       <c r="J281" t="s">
-        <v>1088</v>
+        <v>1103</v>
       </c>
       <c r="K281">
         <v>0</v>
@@ -14239,13 +14357,13 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" t="s">
-        <v>1089</v>
+        <v>1104</v>
       </c>
       <c r="B282" t="s">
-        <v>1090</v>
+        <v>1105</v>
       </c>
       <c r="C282" t="s">
-        <v>1091</v>
+        <v>1106</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -14257,7 +14375,7 @@
         <v>0.7648210692727796</v>
       </c>
       <c r="G282" t="s">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="H282">
         <v>0.45</v>
@@ -14266,7 +14384,7 @@
         <v>0.79579999999999995</v>
       </c>
       <c r="J282" t="s">
-        <v>1093</v>
+        <v>1108</v>
       </c>
       <c r="K282">
         <v>0</v>
@@ -14274,13 +14392,13 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" t="s">
-        <v>1094</v>
+        <v>1109</v>
       </c>
       <c r="B283" t="s">
-        <v>1095</v>
+        <v>1110</v>
       </c>
       <c r="C283" t="s">
-        <v>1096</v>
+        <v>1111</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -14292,7 +14410,7 @@
         <v>0.51308676160337541</v>
       </c>
       <c r="G283" t="s">
-        <v>1097</v>
+        <v>1112</v>
       </c>
       <c r="H283">
         <v>0.24</v>
@@ -14301,7 +14419,7 @@
         <v>0.80349999999999999</v>
       </c>
       <c r="J283" t="s">
-        <v>1098</v>
+        <v>1113</v>
       </c>
       <c r="K283">
         <v>0</v>
@@ -14309,13 +14427,13 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" t="s">
-        <v>1099</v>
+        <v>1114</v>
       </c>
       <c r="B284" t="s">
-        <v>1100</v>
+        <v>1115</v>
       </c>
       <c r="C284" t="s">
-        <v>1101</v>
+        <v>1116</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -14327,7 +14445,7 @@
         <v>0.7903310628307747</v>
       </c>
       <c r="G284" t="s">
-        <v>1102</v>
+        <v>1117</v>
       </c>
       <c r="H284">
         <v>0.63</v>
@@ -14336,7 +14454,7 @@
         <v>0.87690000000000001</v>
       </c>
       <c r="J284" t="s">
-        <v>1103</v>
+        <v>1118</v>
       </c>
       <c r="K284">
         <v>0</v>
@@ -14344,13 +14462,13 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" t="s">
-        <v>1104</v>
+        <v>1119</v>
       </c>
       <c r="B285" t="s">
-        <v>1105</v>
+        <v>1120</v>
       </c>
       <c r="C285" t="s">
-        <v>1106</v>
+        <v>1121</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -14379,13 +14497,13 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" t="s">
-        <v>1107</v>
+        <v>1122</v>
       </c>
       <c r="B286" t="s">
-        <v>1108</v>
+        <v>1123</v>
       </c>
       <c r="C286" t="s">
-        <v>1109</v>
+        <v>1124</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -14406,7 +14524,7 @@
         <v>0.92989999999999995</v>
       </c>
       <c r="J286" t="s">
-        <v>1110</v>
+        <v>1125</v>
       </c>
       <c r="K286">
         <v>0</v>
@@ -14414,13 +14532,13 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" t="s">
-        <v>1111</v>
+        <v>1126</v>
       </c>
       <c r="B287" t="s">
-        <v>1112</v>
+        <v>1127</v>
       </c>
       <c r="C287" t="s">
-        <v>1113</v>
+        <v>1128</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -14432,7 +14550,7 @@
         <v>0.99993750000000003</v>
       </c>
       <c r="G287" t="s">
-        <v>1114</v>
+        <v>1129</v>
       </c>
       <c r="H287">
         <v>0.91</v>
@@ -14441,7 +14559,7 @@
         <v>0.98349999999999993</v>
       </c>
       <c r="J287" t="s">
-        <v>1115</v>
+        <v>1130</v>
       </c>
       <c r="K287">
         <v>0</v>
@@ -14449,13 +14567,13 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" t="s">
-        <v>1116</v>
+        <v>1131</v>
       </c>
       <c r="B288" t="s">
-        <v>1117</v>
+        <v>1132</v>
       </c>
       <c r="C288" t="s">
-        <v>1118</v>
+        <v>1133</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -14467,7 +14585,7 @@
         <v>0.82735042735042752</v>
       </c>
       <c r="G288" t="s">
-        <v>1119</v>
+        <v>1134</v>
       </c>
       <c r="H288">
         <v>0.3</v>
@@ -14476,7 +14594,7 @@
         <v>0.63190000000000002</v>
       </c>
       <c r="J288" t="s">
-        <v>1120</v>
+        <v>1135</v>
       </c>
       <c r="K288">
         <v>0</v>
@@ -14484,13 +14602,13 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" t="s">
-        <v>1121</v>
+        <v>1136</v>
       </c>
       <c r="B289" t="s">
-        <v>1122</v>
+        <v>1137</v>
       </c>
       <c r="C289" t="s">
-        <v>1123</v>
+        <v>1138</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -14502,7 +14620,7 @@
         <v>0.97554878048780491</v>
       </c>
       <c r="G289" t="s">
-        <v>1124</v>
+        <v>1139</v>
       </c>
       <c r="H289">
         <v>0.89</v>
@@ -14511,7 +14629,7 @@
         <v>0.96530000000000005</v>
       </c>
       <c r="J289" t="s">
-        <v>1125</v>
+        <v>1140</v>
       </c>
       <c r="K289">
         <v>0</v>
@@ -14519,13 +14637,13 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" t="s">
-        <v>1126</v>
+        <v>1141</v>
       </c>
       <c r="B290" t="s">
-        <v>1127</v>
+        <v>1142</v>
       </c>
       <c r="C290" t="s">
-        <v>1128</v>
+        <v>1143</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -14537,7 +14655,7 @@
         <v>0.9003281771919136</v>
       </c>
       <c r="G290" t="s">
-        <v>1129</v>
+        <v>1144</v>
       </c>
       <c r="H290">
         <v>0.64</v>
@@ -14546,7 +14664,7 @@
         <v>0.8417</v>
       </c>
       <c r="J290" t="s">
-        <v>1130</v>
+        <v>1145</v>
       </c>
       <c r="K290">
         <v>0</v>
@@ -14554,13 +14672,13 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" t="s">
-        <v>1131</v>
+        <v>1146</v>
       </c>
       <c r="B291" t="s">
-        <v>1132</v>
+        <v>1147</v>
       </c>
       <c r="C291" t="s">
-        <v>1133</v>
+        <v>1148</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -14572,7 +14690,7 @@
         <v>0.93197278911564618</v>
       </c>
       <c r="G291" t="s">
-        <v>1134</v>
+        <v>1149</v>
       </c>
       <c r="H291">
         <v>0.69</v>
@@ -14589,13 +14707,13 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="B292" t="s">
-        <v>1136</v>
+        <v>1151</v>
       </c>
       <c r="C292" t="s">
-        <v>1137</v>
+        <v>1152</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -14607,7 +14725,7 @@
         <v>0.65260257994526893</v>
       </c>
       <c r="G292" t="s">
-        <v>1138</v>
+        <v>1153</v>
       </c>
       <c r="H292">
         <v>0.34</v>
@@ -14616,7 +14734,7 @@
         <v>0.74900000000000011</v>
       </c>
       <c r="J292" t="s">
-        <v>1139</v>
+        <v>1154</v>
       </c>
       <c r="K292">
         <v>0</v>
@@ -14624,13 +14742,13 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" t="s">
-        <v>1140</v>
+        <v>1155</v>
       </c>
       <c r="B293" t="s">
-        <v>1141</v>
+        <v>1156</v>
       </c>
       <c r="C293" t="s">
-        <v>1142</v>
+        <v>1157</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -14642,7 +14760,7 @@
         <v>0.91703661742883691</v>
       </c>
       <c r="G293" t="s">
-        <v>1143</v>
+        <v>1158</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -14651,7 +14769,7 @@
         <v>0.94</v>
       </c>
       <c r="J293" t="s">
-        <v>1144</v>
+        <v>1159</v>
       </c>
       <c r="K293">
         <v>0</v>
@@ -14659,13 +14777,13 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" t="s">
-        <v>1145</v>
+        <v>1160</v>
       </c>
       <c r="B294" t="s">
-        <v>1146</v>
+        <v>1161</v>
       </c>
       <c r="C294" t="s">
-        <v>1147</v>
+        <v>1162</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -14677,7 +14795,7 @@
         <v>0.73776919828678289</v>
       </c>
       <c r="G294" t="s">
-        <v>1148</v>
+        <v>1163</v>
       </c>
       <c r="H294">
         <v>0.62</v>
@@ -14686,7 +14804,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="J294" t="s">
-        <v>1149</v>
+        <v>1164</v>
       </c>
       <c r="K294">
         <v>0</v>
@@ -14694,13 +14812,13 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" t="s">
-        <v>1150</v>
+        <v>1165</v>
       </c>
       <c r="B295" t="s">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="C295" t="s">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -14712,7 +14830,7 @@
         <v>0.89711883308721962</v>
       </c>
       <c r="G295" t="s">
-        <v>1153</v>
+        <v>1168</v>
       </c>
       <c r="H295">
         <v>0.75</v>
@@ -14721,7 +14839,7 @@
         <v>0.93019999999999992</v>
       </c>
       <c r="J295" t="s">
-        <v>1154</v>
+        <v>1169</v>
       </c>
       <c r="K295">
         <v>0</v>
@@ -14729,13 +14847,13 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" t="s">
-        <v>1155</v>
+        <v>1170</v>
       </c>
       <c r="B296" t="s">
-        <v>1156</v>
+        <v>1171</v>
       </c>
       <c r="C296" t="s">
-        <v>1157</v>
+        <v>1172</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -14747,7 +14865,7 @@
         <v>0.79250589368334379</v>
       </c>
       <c r="G296" t="s">
-        <v>1158</v>
+        <v>1173</v>
       </c>
       <c r="H296">
         <v>0.71</v>
@@ -14756,7 +14874,7 @@
         <v>0.91689999999999994</v>
       </c>
       <c r="J296" t="s">
-        <v>1159</v>
+        <v>1174</v>
       </c>
       <c r="K296">
         <v>0</v>
@@ -14764,13 +14882,13 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" t="s">
-        <v>1160</v>
+        <v>1175</v>
       </c>
       <c r="B297" t="s">
-        <v>1161</v>
+        <v>1176</v>
       </c>
       <c r="C297" t="s">
-        <v>1161</v>
+        <v>1176</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -14799,13 +14917,13 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" t="s">
-        <v>1162</v>
+        <v>1177</v>
       </c>
       <c r="B298" t="s">
-        <v>1163</v>
+        <v>1178</v>
       </c>
       <c r="C298" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -14817,7 +14935,7 @@
         <v>0.99735703251328245</v>
       </c>
       <c r="G298" t="s">
-        <v>1165</v>
+        <v>1180</v>
       </c>
       <c r="H298">
         <v>0.9</v>
@@ -14826,7 +14944,7 @@
         <v>0.95909999999999995</v>
       </c>
       <c r="J298" t="s">
-        <v>1166</v>
+        <v>1181</v>
       </c>
       <c r="K298">
         <v>0</v>
@@ -14834,13 +14952,13 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" t="s">
-        <v>1167</v>
+        <v>1182</v>
       </c>
       <c r="B299" t="s">
-        <v>1168</v>
+        <v>1183</v>
       </c>
       <c r="C299" t="s">
-        <v>1169</v>
+        <v>1184</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -14852,7 +14970,7 @@
         <v>0.85687569193583235</v>
       </c>
       <c r="G299" t="s">
-        <v>1170</v>
+        <v>1185</v>
       </c>
       <c r="H299">
         <v>0.79</v>
@@ -14861,7 +14979,7 @@
         <v>0.98640000000000005</v>
       </c>
       <c r="J299" t="s">
-        <v>1171</v>
+        <v>1186</v>
       </c>
       <c r="K299">
         <v>0</v>
@@ -14869,13 +14987,13 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" t="s">
-        <v>1172</v>
+        <v>1187</v>
       </c>
       <c r="B300" t="s">
-        <v>1173</v>
+        <v>1188</v>
       </c>
       <c r="C300" t="s">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -14887,7 +15005,7 @@
         <v>0.86221105326895342</v>
       </c>
       <c r="G300" t="s">
-        <v>1175</v>
+        <v>1190</v>
       </c>
       <c r="H300">
         <v>0.71</v>
@@ -14896,7 +15014,7 @@
         <v>0.93730000000000002</v>
       </c>
       <c r="J300" t="s">
-        <v>1176</v>
+        <v>1191</v>
       </c>
       <c r="K300">
         <v>0</v>
@@ -14904,13 +15022,13 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" t="s">
-        <v>1177</v>
+        <v>1192</v>
       </c>
       <c r="B301" t="s">
-        <v>1178</v>
+        <v>1193</v>
       </c>
       <c r="C301" t="s">
-        <v>1179</v>
+        <v>1194</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -14922,7 +15040,7 @@
         <v>0.99610749193911696</v>
       </c>
       <c r="G301" t="s">
-        <v>1180</v>
+        <v>1195</v>
       </c>
       <c r="H301">
         <v>0.85</v>
@@ -14931,7 +15049,7 @@
         <v>0.96879999999999999</v>
       </c>
       <c r="J301" t="s">
-        <v>1181</v>
+        <v>1196</v>
       </c>
       <c r="K301">
         <v>0</v>
@@ -14939,13 +15057,13 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" t="s">
-        <v>1182</v>
+        <v>1197</v>
       </c>
       <c r="B302" t="s">
-        <v>1183</v>
+        <v>1198</v>
       </c>
       <c r="C302" t="s">
-        <v>1184</v>
+        <v>1199</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -14957,7 +15075,7 @@
         <v>0.78805201069249298</v>
       </c>
       <c r="G302" t="s">
-        <v>1185</v>
+        <v>1200</v>
       </c>
       <c r="H302">
         <v>0.7</v>
@@ -14966,7 +15084,7 @@
         <v>0.93129999999999991</v>
       </c>
       <c r="J302" t="s">
-        <v>1186</v>
+        <v>1201</v>
       </c>
       <c r="K302">
         <v>0</v>
@@ -14974,13 +15092,13 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" t="s">
-        <v>1187</v>
+        <v>1202</v>
       </c>
       <c r="B303" t="s">
-        <v>1188</v>
+        <v>1203</v>
       </c>
       <c r="C303" t="s">
-        <v>1189</v>
+        <v>1204</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -14992,7 +15110,7 @@
         <v>0.96943863981762923</v>
       </c>
       <c r="G303" t="s">
-        <v>1190</v>
+        <v>1205</v>
       </c>
       <c r="H303">
         <v>0.39</v>
@@ -15001,7 +15119,7 @@
         <v>0.8</v>
       </c>
       <c r="J303" t="s">
-        <v>1191</v>
+        <v>1206</v>
       </c>
       <c r="K303">
         <v>0</v>
@@ -15009,13 +15127,13 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" t="s">
-        <v>1192</v>
+        <v>1207</v>
       </c>
       <c r="B304" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
       <c r="C304" t="s">
-        <v>1194</v>
+        <v>1209</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -15027,7 +15145,7 @@
         <v>0.93118385612182153</v>
       </c>
       <c r="G304" t="s">
-        <v>1195</v>
+        <v>1210</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -15036,7 +15154,7 @@
         <v>0.97329999999999994</v>
       </c>
       <c r="J304" t="s">
-        <v>1196</v>
+        <v>1211</v>
       </c>
       <c r="K304">
         <v>0</v>
@@ -15044,13 +15162,13 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305" t="s">
-        <v>1197</v>
+        <v>1212</v>
       </c>
       <c r="B305" t="s">
-        <v>1198</v>
+        <v>1213</v>
       </c>
       <c r="C305" t="s">
-        <v>1199</v>
+        <v>1214</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -15062,7 +15180,7 @@
         <v>0.92150987268919982</v>
       </c>
       <c r="G305" t="s">
-        <v>1200</v>
+        <v>1215</v>
       </c>
       <c r="H305">
         <v>0.73</v>
@@ -15071,7 +15189,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J305" t="s">
-        <v>1201</v>
+        <v>1216</v>
       </c>
       <c r="K305">
         <v>0</v>
@@ -15079,13 +15197,13 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" t="s">
-        <v>1202</v>
+        <v>1217</v>
       </c>
       <c r="B306" t="s">
-        <v>1203</v>
+        <v>1218</v>
       </c>
       <c r="C306" t="s">
-        <v>1203</v>
+        <v>1218</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -15114,13 +15232,13 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307" t="s">
-        <v>1204</v>
+        <v>1219</v>
       </c>
       <c r="B307" t="s">
-        <v>1205</v>
+        <v>1220</v>
       </c>
       <c r="C307" t="s">
-        <v>1206</v>
+        <v>1221</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -15132,7 +15250,7 @@
         <v>0.84459459459459441</v>
       </c>
       <c r="G307" t="s">
-        <v>1207</v>
+        <v>1222</v>
       </c>
       <c r="H307">
         <v>0.62</v>
@@ -15141,7 +15259,7 @@
         <v>0.95609999999999995</v>
       </c>
       <c r="J307" t="s">
-        <v>1208</v>
+        <v>1223</v>
       </c>
       <c r="K307">
         <v>0</v>
@@ -15149,13 +15267,13 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" t="s">
-        <v>1209</v>
+        <v>1224</v>
       </c>
       <c r="B308" t="s">
-        <v>1210</v>
+        <v>1225</v>
       </c>
       <c r="C308" t="s">
-        <v>1211</v>
+        <v>1226</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -15167,7 +15285,7 @@
         <v>0.88969017094017089</v>
       </c>
       <c r="G308" t="s">
-        <v>1212</v>
+        <v>1227</v>
       </c>
       <c r="H308">
         <v>0.52</v>
@@ -15176,7 +15294,7 @@
         <v>0.79569999999999996</v>
       </c>
       <c r="J308" t="s">
-        <v>1213</v>
+        <v>1228</v>
       </c>
       <c r="K308">
         <v>0</v>
@@ -15184,13 +15302,13 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" t="s">
-        <v>1214</v>
+        <v>1229</v>
       </c>
       <c r="B309" t="s">
-        <v>1215</v>
+        <v>1230</v>
       </c>
       <c r="C309" t="s">
-        <v>1216</v>
+        <v>1231</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -15202,7 +15320,7 @@
         <v>0.91395863315515335</v>
       </c>
       <c r="G309" t="s">
-        <v>1217</v>
+        <v>1232</v>
       </c>
       <c r="H309">
         <v>0.71</v>
@@ -15211,7 +15329,7 @@
         <v>0.9173</v>
       </c>
       <c r="J309" t="s">
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="K309">
         <v>0</v>
@@ -15219,13 +15337,13 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" t="s">
-        <v>1219</v>
+        <v>1234</v>
       </c>
       <c r="B310" t="s">
-        <v>1220</v>
+        <v>1235</v>
       </c>
       <c r="C310" t="s">
-        <v>1220</v>
+        <v>1235</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -15254,13 +15372,13 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" t="s">
-        <v>1221</v>
+        <v>1236</v>
       </c>
       <c r="B311" t="s">
-        <v>1222</v>
+        <v>1237</v>
       </c>
       <c r="C311" t="s">
-        <v>1223</v>
+        <v>1238</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -15272,7 +15390,7 @@
         <v>0.58455728246307592</v>
       </c>
       <c r="G311" t="s">
-        <v>1224</v>
+        <v>1239</v>
       </c>
       <c r="H311">
         <v>0.22</v>
@@ -15281,7 +15399,7 @@
         <v>0.86419999999999997</v>
       </c>
       <c r="J311" t="s">
-        <v>1225</v>
+        <v>1240</v>
       </c>
       <c r="K311">
         <v>0</v>
@@ -15289,13 +15407,13 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312" t="s">
-        <v>1226</v>
+        <v>1241</v>
       </c>
       <c r="B312" t="s">
-        <v>1227</v>
+        <v>1242</v>
       </c>
       <c r="C312" t="s">
-        <v>1228</v>
+        <v>1243</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -15307,7 +15425,7 @@
         <v>0.96341746046674104</v>
       </c>
       <c r="G312" t="s">
-        <v>1229</v>
+        <v>1244</v>
       </c>
       <c r="H312">
         <v>0.82</v>
@@ -15316,7 +15434,7 @@
         <v>0.9375</v>
       </c>
       <c r="J312" t="s">
-        <v>1230</v>
+        <v>1245</v>
       </c>
       <c r="K312">
         <v>0</v>
@@ -15324,13 +15442,13 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313" t="s">
-        <v>1231</v>
+        <v>1246</v>
       </c>
       <c r="B313" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="C313" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -15342,7 +15460,7 @@
         <v>0.78049017672603971</v>
       </c>
       <c r="G313" t="s">
-        <v>1234</v>
+        <v>1249</v>
       </c>
       <c r="H313">
         <v>0.84</v>
@@ -15351,7 +15469,7 @@
         <v>0.94830000000000003</v>
       </c>
       <c r="J313" t="s">
-        <v>1235</v>
+        <v>1250</v>
       </c>
       <c r="K313">
         <v>0</v>
@@ -15359,13 +15477,13 @@
     </row>
     <row r="314" spans="1:11">
       <c r="A314" t="s">
-        <v>1236</v>
+        <v>1251</v>
       </c>
       <c r="B314" t="s">
-        <v>1237</v>
+        <v>1252</v>
       </c>
       <c r="C314" t="s">
-        <v>1238</v>
+        <v>1253</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -15377,7 +15495,7 @@
         <v>0.90394202898550713</v>
       </c>
       <c r="G314" t="s">
-        <v>1239</v>
+        <v>1254</v>
       </c>
       <c r="H314">
         <v>0.92</v>
@@ -15386,7 +15504,7 @@
         <v>0.96870000000000001</v>
       </c>
       <c r="J314" t="s">
-        <v>1240</v>
+        <v>1255</v>
       </c>
       <c r="K314">
         <v>0</v>
@@ -15394,13 +15512,13 @@
     </row>
     <row r="315" spans="1:11">
       <c r="A315" t="s">
-        <v>1241</v>
+        <v>1256</v>
       </c>
       <c r="B315" t="s">
-        <v>1242</v>
+        <v>1257</v>
       </c>
       <c r="C315" t="s">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -15412,7 +15530,7 @@
         <v>0.87517556179775269</v>
       </c>
       <c r="G315" t="s">
-        <v>1244</v>
+        <v>1259</v>
       </c>
       <c r="H315">
         <v>0.5</v>
@@ -15429,13 +15547,13 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316" t="s">
-        <v>1245</v>
+        <v>1260</v>
       </c>
       <c r="B316" t="s">
-        <v>1246</v>
+        <v>1261</v>
       </c>
       <c r="C316" t="s">
-        <v>1247</v>
+        <v>1262</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -15447,7 +15565,7 @@
         <v>0.77401692384270782</v>
       </c>
       <c r="G316" t="s">
-        <v>1248</v>
+        <v>1263</v>
       </c>
       <c r="H316">
         <v>0.49</v>
@@ -15456,7 +15574,7 @@
         <v>0.88280000000000003</v>
       </c>
       <c r="J316" t="s">
-        <v>1249</v>
+        <v>1264</v>
       </c>
       <c r="K316">
         <v>0</v>
@@ -15464,13 +15582,13 @@
     </row>
     <row r="317" spans="1:11">
       <c r="A317" t="s">
-        <v>1250</v>
+        <v>1265</v>
       </c>
       <c r="B317" t="s">
-        <v>1251</v>
+        <v>1266</v>
       </c>
       <c r="C317" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -15482,7 +15600,7 @@
         <v>0.70448824816204658</v>
       </c>
       <c r="G317" t="s">
-        <v>1253</v>
+        <v>1268</v>
       </c>
       <c r="H317">
         <v>0.53</v>
@@ -15491,7 +15609,7 @@
         <v>0.9103</v>
       </c>
       <c r="J317" t="s">
-        <v>1254</v>
+        <v>1269</v>
       </c>
       <c r="K317">
         <v>0</v>
@@ -15499,13 +15617,13 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="B318" t="s">
-        <v>1256</v>
+        <v>1271</v>
       </c>
       <c r="C318" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -15517,7 +15635,7 @@
         <v>0.8578868267449582</v>
       </c>
       <c r="G318" t="s">
-        <v>1258</v>
+        <v>1273</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -15526,7 +15644,7 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="J318" t="s">
-        <v>1259</v>
+        <v>1274</v>
       </c>
       <c r="K318">
         <v>0</v>
@@ -15534,13 +15652,13 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" t="s">
-        <v>1260</v>
+        <v>1275</v>
       </c>
       <c r="B319" t="s">
-        <v>1261</v>
+        <v>1276</v>
       </c>
       <c r="C319" t="s">
-        <v>1262</v>
+        <v>1277</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -15552,7 +15670,7 @@
         <v>0.98576950809165209</v>
       </c>
       <c r="G319" t="s">
-        <v>1263</v>
+        <v>1278</v>
       </c>
       <c r="H319">
         <v>0.91</v>
@@ -15561,7 +15679,7 @@
         <v>0.96109999999999995</v>
       </c>
       <c r="J319" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="K319">
         <v>0</v>
@@ -15569,13 +15687,13 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>1265</v>
+        <v>1280</v>
       </c>
       <c r="B320" t="s">
-        <v>1266</v>
+        <v>1281</v>
       </c>
       <c r="C320" t="s">
-        <v>1267</v>
+        <v>1282</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -15587,7 +15705,7 @@
         <v>0.99142030393168623</v>
       </c>
       <c r="G320" t="s">
-        <v>1268</v>
+        <v>1283</v>
       </c>
       <c r="H320">
         <v>0.84</v>
@@ -15604,13 +15722,13 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" t="s">
-        <v>1269</v>
+        <v>1284</v>
       </c>
       <c r="B321" t="s">
-        <v>1270</v>
+        <v>1285</v>
       </c>
       <c r="C321" t="s">
-        <v>1270</v>
+        <v>1285</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -15639,13 +15757,13 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322" t="s">
-        <v>1271</v>
+        <v>1286</v>
       </c>
       <c r="B322" t="s">
-        <v>1272</v>
+        <v>1287</v>
       </c>
       <c r="C322" t="s">
-        <v>1273</v>
+        <v>1288</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -15657,7 +15775,7 @@
         <v>0.95990232827825017</v>
       </c>
       <c r="G322" t="s">
-        <v>1274</v>
+        <v>1289</v>
       </c>
       <c r="H322">
         <v>0.59</v>
@@ -15666,7 +15784,7 @@
         <v>0.8427</v>
       </c>
       <c r="J322" t="s">
-        <v>1275</v>
+        <v>1290</v>
       </c>
       <c r="K322">
         <v>0</v>
@@ -15674,13 +15792,13 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323" t="s">
-        <v>1276</v>
+        <v>1291</v>
       </c>
       <c r="B323" t="s">
-        <v>1277</v>
+        <v>1292</v>
       </c>
       <c r="C323" t="s">
-        <v>1278</v>
+        <v>1293</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -15692,7 +15810,7 @@
         <v>0.91487850396871861</v>
       </c>
       <c r="G323" t="s">
-        <v>1279</v>
+        <v>1294</v>
       </c>
       <c r="H323">
         <v>0.88</v>
@@ -15701,7 +15819,7 @@
         <v>0.95950000000000002</v>
       </c>
       <c r="J323" t="s">
-        <v>1280</v>
+        <v>1295</v>
       </c>
       <c r="K323">
         <v>0</v>
@@ -15709,13 +15827,13 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" t="s">
-        <v>1281</v>
+        <v>1296</v>
       </c>
       <c r="B324" t="s">
-        <v>1282</v>
+        <v>1297</v>
       </c>
       <c r="C324" t="s">
-        <v>1283</v>
+        <v>1298</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -15727,7 +15845,7 @@
         <v>0.84168421052631581</v>
       </c>
       <c r="G324" t="s">
-        <v>1284</v>
+        <v>1299</v>
       </c>
       <c r="H324">
         <v>0.62</v>
@@ -15736,7 +15854,7 @@
         <v>0.92590000000000006</v>
       </c>
       <c r="J324" t="s">
-        <v>1230</v>
+        <v>1245</v>
       </c>
       <c r="K324">
         <v>0</v>
@@ -15744,13 +15862,13 @@
     </row>
     <row r="325" spans="1:11">
       <c r="A325" t="s">
-        <v>1285</v>
+        <v>1300</v>
       </c>
       <c r="B325" t="s">
-        <v>1286</v>
+        <v>1301</v>
       </c>
       <c r="C325" t="s">
-        <v>1287</v>
+        <v>1302</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -15762,7 +15880,7 @@
         <v>0.89947226617328602</v>
       </c>
       <c r="G325" t="s">
-        <v>1288</v>
+        <v>1303</v>
       </c>
       <c r="H325">
         <v>0.74</v>
@@ -15771,21 +15889,21 @@
         <v>0.93849999999999989</v>
       </c>
       <c r="J325" t="s">
-        <v>1289</v>
+        <v>1304</v>
       </c>
       <c r="K325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" t="s">
-        <v>1290</v>
+        <v>1305</v>
       </c>
       <c r="B326" t="s">
-        <v>1291</v>
+        <v>1306</v>
       </c>
       <c r="C326" t="s">
-        <v>1292</v>
+        <v>1307</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -15797,7 +15915,7 @@
         <v>0.98131106566689386</v>
       </c>
       <c r="G326" t="s">
-        <v>1293</v>
+        <v>1308</v>
       </c>
       <c r="H326">
         <v>0.92</v>
@@ -15806,21 +15924,21 @@
         <v>0.98769999999999991</v>
       </c>
       <c r="J326" t="s">
-        <v>1294</v>
+        <v>1309</v>
       </c>
       <c r="K326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" t="s">
-        <v>1295</v>
+        <v>1310</v>
       </c>
       <c r="B327" t="s">
-        <v>1296</v>
+        <v>1311</v>
       </c>
       <c r="C327" t="s">
-        <v>1297</v>
+        <v>1312</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -15832,7 +15950,7 @@
         <v>0.78317639673571882</v>
       </c>
       <c r="G327" t="s">
-        <v>1298</v>
+        <v>1313</v>
       </c>
       <c r="H327">
         <v>0.6</v>
@@ -15841,10 +15959,10 @@
         <v>0.7742</v>
       </c>
       <c r="J327" t="s">
-        <v>1299</v>
+        <v>1314</v>
       </c>
       <c r="K327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
+++ b/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C3DEC1B-E343-4C64-824A-F22F9E41B8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D435324F-ABE0-4549-BDA1-53BF2DD82313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="1331">
   <si>
     <t>IN</t>
   </si>
@@ -2679,6 +2679,9 @@
     <t>0.18749999507812512</t>
   </si>
   <si>
+    <t>Non è nemmeno un process</t>
+  </si>
+  <si>
     <t>Implement a debouncer for a noisy input signal using a process.</t>
   </si>
   <si>
@@ -2709,6 +2712,9 @@
     <t>0.3076923029585799</t>
   </si>
   <si>
+    <t>In linea di massima fa la detection</t>
+  </si>
+  <si>
     <t>Define a digital integrator of N-bit with the signals clock, reset, and data_in (N-bit) as input and the signal integrated_output (N-bit) as output.</t>
   </si>
   <si>
@@ -2754,6 +2760,9 @@
     <t>0.9499999950125001</t>
   </si>
   <si>
+    <t>E' un pulse generator</t>
+  </si>
+  <si>
     <t>Define a decoder of 2-to-4 with the signals A and B as input and the signals D0, D1, D2, and D3 as output.</t>
   </si>
   <si>
@@ -2769,6 +2778,9 @@
     <t>0.30136985944079564</t>
   </si>
   <si>
+    <t>Chiede solo di definilo</t>
+  </si>
+  <si>
     <t>Define a pseudo-random number generator of N-bit with the signals clock and seed (N-bit) as input and the signal random_number (N-bit) as output.</t>
   </si>
   <si>
@@ -2784,6 +2796,9 @@
     <t>0.15789473336911364</t>
   </si>
   <si>
+    <t xml:space="preserve">Manca la gestione del seme </t>
+  </si>
+  <si>
     <t>Define a process to implement a 4-bit Johnson counter</t>
   </si>
   <si>
@@ -2799,6 +2814,9 @@
     <t>0.18181817737373748</t>
   </si>
   <si>
+    <t>Non implementa un contatore di johnson</t>
+  </si>
+  <si>
     <t>Write a floating-point multiplier of N-bit with the signals A (N-bit) and B (N-bit) as input and the signal product (N-bit) as output.</t>
   </si>
   <si>
@@ -2814,6 +2832,9 @@
     <t>0.3636363595107438</t>
   </si>
   <si>
+    <t>Non lo implementa</t>
+  </si>
+  <si>
     <t>Define a glitch filter circuit with the signal noisy_in as input and the signal filtered_out as output.</t>
   </si>
   <si>
@@ -2844,6 +2865,9 @@
     <t>0.14545454132892574</t>
   </si>
   <si>
+    <t>Non implementa, definisce solo</t>
+  </si>
+  <si>
     <t>Write a Hamming decoder of 7-bit with the signal encoded (7-bit) as input and the signals data_out (4-bit) and error_detected as output.</t>
   </si>
   <si>
@@ -2874,6 +2898,9 @@
     <t>0.2933333298275556</t>
   </si>
   <si>
+    <t>La specifica mi dice di definire</t>
+  </si>
+  <si>
     <t>Implement a 4-bit counter with synchronous reset</t>
   </si>
   <si>
@@ -2886,6 +2913,9 @@
     <t>0.7664233576642335</t>
   </si>
   <si>
+    <t>Non c'è il reset sincrono</t>
+  </si>
+  <si>
     <t>Implement a basic clock gating circuit</t>
   </si>
   <si>
@@ -2901,6 +2931,9 @@
     <t>0.6666666622222223</t>
   </si>
   <si>
+    <t>Non fa il gating</t>
+  </si>
+  <si>
     <t>Implement a parity checker that verifies an even parity bit</t>
   </si>
   <si>
@@ -2916,6 +2949,9 @@
     <t>0.041666663368055815</t>
   </si>
   <si>
+    <t>Non definisce la entity</t>
+  </si>
+  <si>
     <t>Write an edge detector circuit with the signal signal_in as input and the signals rising_edge and falling_edge as output.</t>
   </si>
   <si>
@@ -2931,6 +2967,9 @@
     <t>0.21538461152189353</t>
   </si>
   <si>
+    <t>Più o meno</t>
+  </si>
+  <si>
     <t>Define an excess-3 to BCD converter of 4-bit with the signal excess3_value (4-bit) as input and the signal BCD_value (4-bit) as output.</t>
   </si>
   <si>
@@ -2961,6 +3000,9 @@
     <t>0.12499999695312508</t>
   </si>
   <si>
+    <t>Ci potrebbe anche stare</t>
+  </si>
+  <si>
     <t>Implement a gated D latch with a process</t>
   </si>
   <si>
@@ -2988,6 +3030,9 @@
     <t>0.6122448929612662</t>
   </si>
   <si>
+    <t>Lo do buono perchè si avvicina molto</t>
+  </si>
+  <si>
     <t>Define a bidirectional shift register of P-bit with the signals clk, clear, ser_in, shift_en, and shift_dir as input and the signals par_out (P-bit) and ser_out as output.</t>
   </si>
   <si>
@@ -3031,6 +3076,9 @@
   </si>
   <si>
     <t>0.22988505405733917</t>
+  </si>
+  <si>
+    <t>Ha definito</t>
   </si>
   <si>
     <t>Define a 4-bit barrel shifter with the signals In3, In2, In1, In0, shift_left, shift_right, and shift_amount as input and the signals Out3, Out2, Out1, and Out0 as output.</t>
@@ -4364,8 +4412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C219" workbookViewId="0">
-      <selection activeCell="L236" sqref="L236"/>
+    <sheetView tabSelected="1" topLeftCell="C243" workbookViewId="0">
+      <selection activeCell="K261" sqref="K261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12779,16 +12827,19 @@
       <c r="K236">
         <v>0</v>
       </c>
+      <c r="L236" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="237" spans="1:12">
       <c r="A237" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B237" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C237" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -12800,7 +12851,7 @@
         <v>0.45569919741260889</v>
       </c>
       <c r="G237" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -12809,21 +12860,21 @@
         <v>0.70950000000000002</v>
       </c>
       <c r="J237" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:12">
       <c r="A238" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B238" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C238" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -12835,7 +12886,7 @@
         <v>0.70736905762791857</v>
       </c>
       <c r="G238" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H238">
         <v>0.16</v>
@@ -12844,21 +12895,24 @@
         <v>0.7752</v>
       </c>
       <c r="J238" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="K238">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L238" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="239" spans="1:12">
       <c r="A239" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B239" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C239" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -12870,7 +12924,7 @@
         <v>0.27256789330652959</v>
       </c>
       <c r="G239" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -12879,21 +12933,21 @@
         <v>0.72129999999999994</v>
       </c>
       <c r="J239" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="K239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:12">
       <c r="A240" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B240" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C240" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -12905,7 +12959,7 @@
         <v>0.27864545050301509</v>
       </c>
       <c r="G240" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H240">
         <v>0.03</v>
@@ -12914,21 +12968,21 @@
         <v>0.60870000000000002</v>
       </c>
       <c r="J240" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="K240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B241" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C241" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -12940,7 +12994,7 @@
         <v>0.96651525483381362</v>
       </c>
       <c r="G241" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H241">
         <v>0.86</v>
@@ -12949,21 +13003,24 @@
         <v>0.96950000000000003</v>
       </c>
       <c r="J241" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="K241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L241" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B242" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C242" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -12975,7 +13032,7 @@
         <v>8.9249754321524669E-2</v>
       </c>
       <c r="G242" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -12984,21 +13041,24 @@
         <v>0.73219999999999996</v>
       </c>
       <c r="J242" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="K242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L242" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B243" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C243" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -13010,7 +13070,7 @@
         <v>0.15237096840070249</v>
       </c>
       <c r="G243" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -13019,21 +13079,24 @@
         <v>0.70819999999999994</v>
       </c>
       <c r="J243" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:11">
+      <c r="L243" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="B244" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C244" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -13045,7 +13108,7 @@
         <v>0.75117324462824775</v>
       </c>
       <c r="G244" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="H244">
         <v>0.28999999999999998</v>
@@ -13054,21 +13117,24 @@
         <v>0.81129999999999991</v>
       </c>
       <c r="J244" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="K244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:11">
+      <c r="L244" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="B245" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="C245" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -13080,7 +13146,7 @@
         <v>0.29680449441082968</v>
       </c>
       <c r="G245" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="H245">
         <v>0.04</v>
@@ -13089,21 +13155,24 @@
         <v>0.81669999999999998</v>
       </c>
       <c r="J245" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="K245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:11">
+      <c r="L245" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="B246" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="C246" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -13115,7 +13184,7 @@
         <v>0.33845776719428478</v>
       </c>
       <c r="G246" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -13124,21 +13193,21 @@
         <v>0.69290000000000007</v>
       </c>
       <c r="J246" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="K246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="B247" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="C247" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -13150,7 +13219,7 @@
         <v>8.6234675756186985E-2</v>
       </c>
       <c r="G247" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -13159,21 +13228,24 @@
         <v>0.8993000000000001</v>
       </c>
       <c r="J247" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="K247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:11">
+      <c r="L247" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="B248" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="C248" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -13185,7 +13257,7 @@
         <v>5.639240512414085E-2</v>
       </c>
       <c r="G248" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -13194,21 +13266,24 @@
         <v>0.8498</v>
       </c>
       <c r="J248" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="K248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:11">
+      <c r="L248" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="B249" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="C249" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -13220,7 +13295,7 @@
         <v>0.10007043108682449</v>
       </c>
       <c r="G249" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -13229,21 +13304,24 @@
         <v>0.70739999999999992</v>
       </c>
       <c r="J249" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="K249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L249" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="B250" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="C250" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -13255,7 +13333,7 @@
         <v>0.83747428311028627</v>
       </c>
       <c r="G250" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="H250">
         <v>0.64</v>
@@ -13269,16 +13347,19 @@
       <c r="K250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:11">
+      <c r="L250" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="B251" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="C251" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -13290,7 +13371,7 @@
         <v>0.43239795918367352</v>
       </c>
       <c r="G251" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="H251">
         <v>0.24</v>
@@ -13299,21 +13380,24 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="K251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:11">
+      <c r="L251" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" t="s">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="B252" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
       <c r="C252" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -13325,7 +13409,7 @@
         <v>6.6207552980039747E-2</v>
       </c>
       <c r="G252" t="s">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -13334,21 +13418,24 @@
         <v>0.41860000000000003</v>
       </c>
       <c r="J252" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="K252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:11">
+      <c r="L252" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="B253" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="C253" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -13360,7 +13447,7 @@
         <v>0.18341659250582151</v>
       </c>
       <c r="G253" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="H253">
         <v>0.02</v>
@@ -13369,21 +13456,24 @@
         <v>0.69359999999999999</v>
       </c>
       <c r="J253" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="K253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L253" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
       <c r="B254" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="C254" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -13395,7 +13485,7 @@
         <v>5.4456654456654457E-2</v>
       </c>
       <c r="G254" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -13404,21 +13494,24 @@
         <v>0.52459999999999996</v>
       </c>
       <c r="J254" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
       <c r="K254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:11">
+      <c r="L254" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
       <c r="B255" t="s">
-        <v>972</v>
+        <v>985</v>
       </c>
       <c r="C255" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -13430,7 +13523,7 @@
         <v>0.75857558139534875</v>
       </c>
       <c r="G255" t="s">
-        <v>974</v>
+        <v>987</v>
       </c>
       <c r="H255">
         <v>0.69</v>
@@ -13439,21 +13532,24 @@
         <v>0.93180000000000007</v>
       </c>
       <c r="J255" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
       <c r="K255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L255" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256" t="s">
-        <v>976</v>
+        <v>990</v>
       </c>
       <c r="B256" t="s">
-        <v>977</v>
+        <v>991</v>
       </c>
       <c r="C256" t="s">
-        <v>978</v>
+        <v>992</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -13465,7 +13561,7 @@
         <v>0.76666235488147982</v>
       </c>
       <c r="G256" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -13477,18 +13573,18 @@
         <v>256</v>
       </c>
       <c r="K256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257" t="s">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="B257" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="C257" t="s">
-        <v>982</v>
+        <v>996</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -13500,7 +13596,7 @@
         <v>0.62949517303113756</v>
       </c>
       <c r="G257" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="H257">
         <v>0.43</v>
@@ -13509,21 +13605,24 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="J257" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="K257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L257" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="B258" t="s">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="C258" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -13535,7 +13634,7 @@
         <v>0.43086150486664188</v>
       </c>
       <c r="G258" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
       <c r="H258">
         <v>7.0000000000000007E-2</v>
@@ -13544,21 +13643,21 @@
         <v>0.57320000000000004</v>
       </c>
       <c r="J258" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="K258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="B259" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
       <c r="C259" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -13570,7 +13669,7 @@
         <v>0.13508963739573679</v>
       </c>
       <c r="G259" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -13579,21 +13678,24 @@
         <v>0.5998</v>
       </c>
       <c r="J259" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="K259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:11">
+      <c r="L259" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="B260" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="C260" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -13605,7 +13707,7 @@
         <v>0.18014527845036321</v>
       </c>
       <c r="G260" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="H260">
         <v>0.01</v>
@@ -13614,21 +13716,24 @@
         <v>0.88129999999999997</v>
       </c>
       <c r="J260" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="K260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L260" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261" t="s">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="B261" t="s">
-        <v>1001</v>
+        <v>1017</v>
       </c>
       <c r="C261" t="s">
-        <v>1002</v>
+        <v>1018</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -13640,7 +13745,7 @@
         <v>0.36611125901660141</v>
       </c>
       <c r="G261" t="s">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="H261">
         <v>0.2</v>
@@ -13649,21 +13754,21 @@
         <v>0.45760000000000001</v>
       </c>
       <c r="J261" t="s">
-        <v>1004</v>
+        <v>1020</v>
       </c>
       <c r="K261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:12">
       <c r="A262" t="s">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="B262" t="s">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="C262" t="s">
-        <v>1007</v>
+        <v>1023</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -13675,7 +13780,7 @@
         <v>0.31861181972789121</v>
       </c>
       <c r="G262" t="s">
-        <v>1008</v>
+        <v>1024</v>
       </c>
       <c r="H262">
         <v>0.1</v>
@@ -13684,21 +13789,21 @@
         <v>0.74560000000000004</v>
       </c>
       <c r="J262" t="s">
-        <v>1009</v>
+        <v>1025</v>
       </c>
       <c r="K262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:12">
       <c r="A263" t="s">
-        <v>1010</v>
+        <v>1026</v>
       </c>
       <c r="B263" t="s">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="C263" t="s">
-        <v>1012</v>
+        <v>1028</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -13710,7 +13815,7 @@
         <v>0.2177152715732775</v>
       </c>
       <c r="G263" t="s">
-        <v>1013</v>
+        <v>1029</v>
       </c>
       <c r="H263">
         <v>0.03</v>
@@ -13719,21 +13824,21 @@
         <v>0.63719999999999999</v>
       </c>
       <c r="J263" t="s">
-        <v>1014</v>
+        <v>1030</v>
       </c>
       <c r="K263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
-        <v>1015</v>
+        <v>1031</v>
       </c>
       <c r="B264" t="s">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="C264" t="s">
-        <v>1017</v>
+        <v>1033</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -13745,7 +13850,7 @@
         <v>0.84416716690964189</v>
       </c>
       <c r="G264" t="s">
-        <v>1018</v>
+        <v>1034</v>
       </c>
       <c r="H264">
         <v>0.35</v>
@@ -13754,21 +13859,21 @@
         <v>0.90930000000000011</v>
       </c>
       <c r="J264" t="s">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="K264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:12">
       <c r="A265" t="s">
-        <v>1020</v>
+        <v>1036</v>
       </c>
       <c r="B265" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="C265" t="s">
-        <v>1022</v>
+        <v>1038</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -13780,7 +13885,7 @@
         <v>0.1251506024096386</v>
       </c>
       <c r="G265" t="s">
-        <v>1023</v>
+        <v>1039</v>
       </c>
       <c r="H265">
         <v>0.06</v>
@@ -13789,21 +13894,21 @@
         <v>0.76980000000000004</v>
       </c>
       <c r="J265" t="s">
-        <v>1024</v>
+        <v>1040</v>
       </c>
       <c r="K265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:12">
       <c r="A266" t="s">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="B266" t="s">
-        <v>1026</v>
+        <v>1042</v>
       </c>
       <c r="C266" t="s">
-        <v>1027</v>
+        <v>1043</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -13815,7 +13920,7 @@
         <v>0.37008194888083268</v>
       </c>
       <c r="G266" t="s">
-        <v>1028</v>
+        <v>1044</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -13824,21 +13929,21 @@
         <v>0.63029999999999997</v>
       </c>
       <c r="J266" t="s">
-        <v>1029</v>
+        <v>1045</v>
       </c>
       <c r="K266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:12">
       <c r="A267" t="s">
-        <v>1030</v>
+        <v>1046</v>
       </c>
       <c r="B267" t="s">
-        <v>1031</v>
+        <v>1047</v>
       </c>
       <c r="C267" t="s">
-        <v>1032</v>
+        <v>1048</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -13850,7 +13955,7 @@
         <v>0.34369246118287677</v>
       </c>
       <c r="G267" t="s">
-        <v>1033</v>
+        <v>1049</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -13859,21 +13964,21 @@
         <v>0.75950000000000006</v>
       </c>
       <c r="J267" t="s">
-        <v>1034</v>
+        <v>1050</v>
       </c>
       <c r="K267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:12">
       <c r="A268" t="s">
-        <v>1035</v>
+        <v>1051</v>
       </c>
       <c r="B268" t="s">
-        <v>1036</v>
+        <v>1052</v>
       </c>
       <c r="C268" t="s">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -13885,7 +13990,7 @@
         <v>0.39675422756399409</v>
       </c>
       <c r="G268" t="s">
-        <v>1038</v>
+        <v>1054</v>
       </c>
       <c r="H268">
         <v>0.02</v>
@@ -13894,21 +13999,21 @@
         <v>0.77049999999999996</v>
       </c>
       <c r="J268" t="s">
-        <v>1039</v>
+        <v>1055</v>
       </c>
       <c r="K268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:12">
       <c r="A269" t="s">
-        <v>1040</v>
+        <v>1056</v>
       </c>
       <c r="B269" t="s">
-        <v>1041</v>
+        <v>1057</v>
       </c>
       <c r="C269" t="s">
-        <v>1042</v>
+        <v>1058</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -13920,7 +14025,7 @@
         <v>0.51819301340860968</v>
       </c>
       <c r="G269" t="s">
-        <v>1043</v>
+        <v>1059</v>
       </c>
       <c r="H269">
         <v>0.33</v>
@@ -13929,21 +14034,21 @@
         <v>0.75029999999999997</v>
       </c>
       <c r="J269" t="s">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="K269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:12">
       <c r="A270" t="s">
-        <v>1045</v>
+        <v>1061</v>
       </c>
       <c r="B270" t="s">
-        <v>1046</v>
+        <v>1062</v>
       </c>
       <c r="C270" t="s">
-        <v>1047</v>
+        <v>1063</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -13955,7 +14060,7 @@
         <v>0.9534105229993699</v>
       </c>
       <c r="G270" t="s">
-        <v>1048</v>
+        <v>1064</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -13964,21 +14069,21 @@
         <v>0.77689999999999992</v>
       </c>
       <c r="J270" t="s">
-        <v>1049</v>
+        <v>1065</v>
       </c>
       <c r="K270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:12">
       <c r="A271" t="s">
-        <v>1050</v>
+        <v>1066</v>
       </c>
       <c r="B271" t="s">
-        <v>1051</v>
+        <v>1067</v>
       </c>
       <c r="C271" t="s">
-        <v>1052</v>
+        <v>1068</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -13990,7 +14095,7 @@
         <v>0.24438254450451111</v>
       </c>
       <c r="G271" t="s">
-        <v>1053</v>
+        <v>1069</v>
       </c>
       <c r="H271">
         <v>0.02</v>
@@ -13999,21 +14104,21 @@
         <v>0.47339999999999999</v>
       </c>
       <c r="J271" t="s">
-        <v>1054</v>
+        <v>1070</v>
       </c>
       <c r="K271">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:12">
       <c r="A272" t="s">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="B272" t="s">
-        <v>1056</v>
+        <v>1072</v>
       </c>
       <c r="C272" t="s">
-        <v>1057</v>
+        <v>1073</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -14025,7 +14130,7 @@
         <v>0.64418346204022925</v>
       </c>
       <c r="G272" t="s">
-        <v>1058</v>
+        <v>1074</v>
       </c>
       <c r="H272">
         <v>0.31</v>
@@ -14034,7 +14139,7 @@
         <v>0.8909999999999999</v>
       </c>
       <c r="J272" t="s">
-        <v>1059</v>
+        <v>1075</v>
       </c>
       <c r="K272">
         <v>0</v>
@@ -14042,13 +14147,13 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" t="s">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="B273" t="s">
-        <v>1061</v>
+        <v>1077</v>
       </c>
       <c r="C273" t="s">
-        <v>1062</v>
+        <v>1078</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -14060,7 +14165,7 @@
         <v>6.5000763591936475E-2</v>
       </c>
       <c r="G273" t="s">
-        <v>1063</v>
+        <v>1079</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -14069,7 +14174,7 @@
         <v>0.74400000000000011</v>
       </c>
       <c r="J273" t="s">
-        <v>1064</v>
+        <v>1080</v>
       </c>
       <c r="K273">
         <v>0</v>
@@ -14077,13 +14182,13 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" t="s">
-        <v>1065</v>
+        <v>1081</v>
       </c>
       <c r="B274" t="s">
-        <v>1066</v>
+        <v>1082</v>
       </c>
       <c r="C274" t="s">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -14095,7 +14200,7 @@
         <v>0.33160074536381162</v>
       </c>
       <c r="G274" t="s">
-        <v>1068</v>
+        <v>1084</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -14104,7 +14209,7 @@
         <v>0.76439999999999997</v>
       </c>
       <c r="J274" t="s">
-        <v>1069</v>
+        <v>1085</v>
       </c>
       <c r="K274">
         <v>0</v>
@@ -14112,13 +14217,13 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" t="s">
-        <v>1070</v>
+        <v>1086</v>
       </c>
       <c r="B275" t="s">
-        <v>1071</v>
+        <v>1087</v>
       </c>
       <c r="C275" t="s">
-        <v>1072</v>
+        <v>1088</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -14130,7 +14235,7 @@
         <v>0.36656284712390819</v>
       </c>
       <c r="G275" t="s">
-        <v>1073</v>
+        <v>1089</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -14139,7 +14244,7 @@
         <v>0.77849999999999997</v>
       </c>
       <c r="J275" t="s">
-        <v>1074</v>
+        <v>1090</v>
       </c>
       <c r="K275">
         <v>0</v>
@@ -14147,13 +14252,13 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" t="s">
-        <v>1075</v>
+        <v>1091</v>
       </c>
       <c r="B276" t="s">
-        <v>1076</v>
+        <v>1092</v>
       </c>
       <c r="C276" t="s">
-        <v>1077</v>
+        <v>1093</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -14165,7 +14270,7 @@
         <v>0.26366390187782968</v>
       </c>
       <c r="G276" t="s">
-        <v>1078</v>
+        <v>1094</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -14174,7 +14279,7 @@
         <v>0.22750000000000001</v>
       </c>
       <c r="J276" t="s">
-        <v>1079</v>
+        <v>1095</v>
       </c>
       <c r="K276">
         <v>0</v>
@@ -14182,13 +14287,13 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" t="s">
-        <v>1080</v>
+        <v>1096</v>
       </c>
       <c r="B277" t="s">
-        <v>1081</v>
+        <v>1097</v>
       </c>
       <c r="C277" t="s">
-        <v>1082</v>
+        <v>1098</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -14200,7 +14305,7 @@
         <v>0.54521926556252653</v>
       </c>
       <c r="G277" t="s">
-        <v>1083</v>
+        <v>1099</v>
       </c>
       <c r="H277">
         <v>0.32</v>
@@ -14217,13 +14322,13 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" t="s">
-        <v>1084</v>
+        <v>1100</v>
       </c>
       <c r="B278" t="s">
-        <v>1085</v>
+        <v>1101</v>
       </c>
       <c r="C278" t="s">
-        <v>1086</v>
+        <v>1102</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -14235,7 +14340,7 @@
         <v>0.98151497216733619</v>
       </c>
       <c r="G278" t="s">
-        <v>1087</v>
+        <v>1103</v>
       </c>
       <c r="H278">
         <v>0.88</v>
@@ -14244,7 +14349,7 @@
         <v>0.9456</v>
       </c>
       <c r="J278" t="s">
-        <v>1088</v>
+        <v>1104</v>
       </c>
       <c r="K278">
         <v>0</v>
@@ -14252,13 +14357,13 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" t="s">
-        <v>1089</v>
+        <v>1105</v>
       </c>
       <c r="B279" t="s">
-        <v>1090</v>
+        <v>1106</v>
       </c>
       <c r="C279" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -14270,7 +14375,7 @@
         <v>0.71942500020697597</v>
       </c>
       <c r="G279" t="s">
-        <v>1092</v>
+        <v>1108</v>
       </c>
       <c r="H279">
         <v>0.64</v>
@@ -14279,7 +14384,7 @@
         <v>0.93290000000000006</v>
       </c>
       <c r="J279" t="s">
-        <v>1093</v>
+        <v>1109</v>
       </c>
       <c r="K279">
         <v>0</v>
@@ -14287,13 +14392,13 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="B280" t="s">
-        <v>1095</v>
+        <v>1111</v>
       </c>
       <c r="C280" t="s">
-        <v>1096</v>
+        <v>1112</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -14305,7 +14410,7 @@
         <v>0.91697247706422014</v>
       </c>
       <c r="G280" t="s">
-        <v>1097</v>
+        <v>1113</v>
       </c>
       <c r="H280">
         <v>0.8</v>
@@ -14314,7 +14419,7 @@
         <v>0.95420000000000005</v>
       </c>
       <c r="J280" t="s">
-        <v>1098</v>
+        <v>1114</v>
       </c>
       <c r="K280">
         <v>0</v>
@@ -14322,13 +14427,13 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" t="s">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="B281" t="s">
-        <v>1100</v>
+        <v>1116</v>
       </c>
       <c r="C281" t="s">
-        <v>1101</v>
+        <v>1117</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -14340,7 +14445,7 @@
         <v>0.95888877000712913</v>
       </c>
       <c r="G281" t="s">
-        <v>1102</v>
+        <v>1118</v>
       </c>
       <c r="H281">
         <v>0.94</v>
@@ -14349,7 +14454,7 @@
         <v>0.97930000000000006</v>
       </c>
       <c r="J281" t="s">
-        <v>1103</v>
+        <v>1119</v>
       </c>
       <c r="K281">
         <v>0</v>
@@ -14357,13 +14462,13 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" t="s">
-        <v>1104</v>
+        <v>1120</v>
       </c>
       <c r="B282" t="s">
-        <v>1105</v>
+        <v>1121</v>
       </c>
       <c r="C282" t="s">
-        <v>1106</v>
+        <v>1122</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -14375,7 +14480,7 @@
         <v>0.7648210692727796</v>
       </c>
       <c r="G282" t="s">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="H282">
         <v>0.45</v>
@@ -14384,7 +14489,7 @@
         <v>0.79579999999999995</v>
       </c>
       <c r="J282" t="s">
-        <v>1108</v>
+        <v>1124</v>
       </c>
       <c r="K282">
         <v>0</v>
@@ -14392,13 +14497,13 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" t="s">
-        <v>1109</v>
+        <v>1125</v>
       </c>
       <c r="B283" t="s">
-        <v>1110</v>
+        <v>1126</v>
       </c>
       <c r="C283" t="s">
-        <v>1111</v>
+        <v>1127</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -14410,7 +14515,7 @@
         <v>0.51308676160337541</v>
       </c>
       <c r="G283" t="s">
-        <v>1112</v>
+        <v>1128</v>
       </c>
       <c r="H283">
         <v>0.24</v>
@@ -14419,7 +14524,7 @@
         <v>0.80349999999999999</v>
       </c>
       <c r="J283" t="s">
-        <v>1113</v>
+        <v>1129</v>
       </c>
       <c r="K283">
         <v>0</v>
@@ -14427,13 +14532,13 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" t="s">
-        <v>1114</v>
+        <v>1130</v>
       </c>
       <c r="B284" t="s">
-        <v>1115</v>
+        <v>1131</v>
       </c>
       <c r="C284" t="s">
-        <v>1116</v>
+        <v>1132</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -14445,7 +14550,7 @@
         <v>0.7903310628307747</v>
       </c>
       <c r="G284" t="s">
-        <v>1117</v>
+        <v>1133</v>
       </c>
       <c r="H284">
         <v>0.63</v>
@@ -14454,7 +14559,7 @@
         <v>0.87690000000000001</v>
       </c>
       <c r="J284" t="s">
-        <v>1118</v>
+        <v>1134</v>
       </c>
       <c r="K284">
         <v>0</v>
@@ -14462,13 +14567,13 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" t="s">
-        <v>1119</v>
+        <v>1135</v>
       </c>
       <c r="B285" t="s">
-        <v>1120</v>
+        <v>1136</v>
       </c>
       <c r="C285" t="s">
-        <v>1121</v>
+        <v>1137</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -14497,13 +14602,13 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" t="s">
-        <v>1122</v>
+        <v>1138</v>
       </c>
       <c r="B286" t="s">
-        <v>1123</v>
+        <v>1139</v>
       </c>
       <c r="C286" t="s">
-        <v>1124</v>
+        <v>1140</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -14524,7 +14629,7 @@
         <v>0.92989999999999995</v>
       </c>
       <c r="J286" t="s">
-        <v>1125</v>
+        <v>1141</v>
       </c>
       <c r="K286">
         <v>0</v>
@@ -14532,13 +14637,13 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" t="s">
-        <v>1126</v>
+        <v>1142</v>
       </c>
       <c r="B287" t="s">
-        <v>1127</v>
+        <v>1143</v>
       </c>
       <c r="C287" t="s">
-        <v>1128</v>
+        <v>1144</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -14550,7 +14655,7 @@
         <v>0.99993750000000003</v>
       </c>
       <c r="G287" t="s">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="H287">
         <v>0.91</v>
@@ -14559,7 +14664,7 @@
         <v>0.98349999999999993</v>
       </c>
       <c r="J287" t="s">
-        <v>1130</v>
+        <v>1146</v>
       </c>
       <c r="K287">
         <v>0</v>
@@ -14567,13 +14672,13 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" t="s">
-        <v>1131</v>
+        <v>1147</v>
       </c>
       <c r="B288" t="s">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="C288" t="s">
-        <v>1133</v>
+        <v>1149</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -14585,7 +14690,7 @@
         <v>0.82735042735042752</v>
       </c>
       <c r="G288" t="s">
-        <v>1134</v>
+        <v>1150</v>
       </c>
       <c r="H288">
         <v>0.3</v>
@@ -14594,7 +14699,7 @@
         <v>0.63190000000000002</v>
       </c>
       <c r="J288" t="s">
-        <v>1135</v>
+        <v>1151</v>
       </c>
       <c r="K288">
         <v>0</v>
@@ -14602,13 +14707,13 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" t="s">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="B289" t="s">
-        <v>1137</v>
+        <v>1153</v>
       </c>
       <c r="C289" t="s">
-        <v>1138</v>
+        <v>1154</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -14620,7 +14725,7 @@
         <v>0.97554878048780491</v>
       </c>
       <c r="G289" t="s">
-        <v>1139</v>
+        <v>1155</v>
       </c>
       <c r="H289">
         <v>0.89</v>
@@ -14629,7 +14734,7 @@
         <v>0.96530000000000005</v>
       </c>
       <c r="J289" t="s">
-        <v>1140</v>
+        <v>1156</v>
       </c>
       <c r="K289">
         <v>0</v>
@@ -14637,13 +14742,13 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" t="s">
-        <v>1141</v>
+        <v>1157</v>
       </c>
       <c r="B290" t="s">
-        <v>1142</v>
+        <v>1158</v>
       </c>
       <c r="C290" t="s">
-        <v>1143</v>
+        <v>1159</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -14655,7 +14760,7 @@
         <v>0.9003281771919136</v>
       </c>
       <c r="G290" t="s">
-        <v>1144</v>
+        <v>1160</v>
       </c>
       <c r="H290">
         <v>0.64</v>
@@ -14664,7 +14769,7 @@
         <v>0.8417</v>
       </c>
       <c r="J290" t="s">
-        <v>1145</v>
+        <v>1161</v>
       </c>
       <c r="K290">
         <v>0</v>
@@ -14672,13 +14777,13 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" t="s">
-        <v>1146</v>
+        <v>1162</v>
       </c>
       <c r="B291" t="s">
-        <v>1147</v>
+        <v>1163</v>
       </c>
       <c r="C291" t="s">
-        <v>1148</v>
+        <v>1164</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -14690,7 +14795,7 @@
         <v>0.93197278911564618</v>
       </c>
       <c r="G291" t="s">
-        <v>1149</v>
+        <v>1165</v>
       </c>
       <c r="H291">
         <v>0.69</v>
@@ -14707,13 +14812,13 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" t="s">
-        <v>1150</v>
+        <v>1166</v>
       </c>
       <c r="B292" t="s">
-        <v>1151</v>
+        <v>1167</v>
       </c>
       <c r="C292" t="s">
-        <v>1152</v>
+        <v>1168</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -14725,7 +14830,7 @@
         <v>0.65260257994526893</v>
       </c>
       <c r="G292" t="s">
-        <v>1153</v>
+        <v>1169</v>
       </c>
       <c r="H292">
         <v>0.34</v>
@@ -14734,7 +14839,7 @@
         <v>0.74900000000000011</v>
       </c>
       <c r="J292" t="s">
-        <v>1154</v>
+        <v>1170</v>
       </c>
       <c r="K292">
         <v>0</v>
@@ -14742,13 +14847,13 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" t="s">
-        <v>1155</v>
+        <v>1171</v>
       </c>
       <c r="B293" t="s">
-        <v>1156</v>
+        <v>1172</v>
       </c>
       <c r="C293" t="s">
-        <v>1157</v>
+        <v>1173</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -14760,7 +14865,7 @@
         <v>0.91703661742883691</v>
       </c>
       <c r="G293" t="s">
-        <v>1158</v>
+        <v>1174</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -14769,7 +14874,7 @@
         <v>0.94</v>
       </c>
       <c r="J293" t="s">
-        <v>1159</v>
+        <v>1175</v>
       </c>
       <c r="K293">
         <v>0</v>
@@ -14777,13 +14882,13 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" t="s">
-        <v>1160</v>
+        <v>1176</v>
       </c>
       <c r="B294" t="s">
-        <v>1161</v>
+        <v>1177</v>
       </c>
       <c r="C294" t="s">
-        <v>1162</v>
+        <v>1178</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -14795,7 +14900,7 @@
         <v>0.73776919828678289</v>
       </c>
       <c r="G294" t="s">
-        <v>1163</v>
+        <v>1179</v>
       </c>
       <c r="H294">
         <v>0.62</v>
@@ -14804,7 +14909,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="J294" t="s">
-        <v>1164</v>
+        <v>1180</v>
       </c>
       <c r="K294">
         <v>0</v>
@@ -14812,13 +14917,13 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" t="s">
-        <v>1165</v>
+        <v>1181</v>
       </c>
       <c r="B295" t="s">
-        <v>1166</v>
+        <v>1182</v>
       </c>
       <c r="C295" t="s">
-        <v>1167</v>
+        <v>1183</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -14830,7 +14935,7 @@
         <v>0.89711883308721962</v>
       </c>
       <c r="G295" t="s">
-        <v>1168</v>
+        <v>1184</v>
       </c>
       <c r="H295">
         <v>0.75</v>
@@ -14839,7 +14944,7 @@
         <v>0.93019999999999992</v>
       </c>
       <c r="J295" t="s">
-        <v>1169</v>
+        <v>1185</v>
       </c>
       <c r="K295">
         <v>0</v>
@@ -14847,13 +14952,13 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" t="s">
-        <v>1170</v>
+        <v>1186</v>
       </c>
       <c r="B296" t="s">
-        <v>1171</v>
+        <v>1187</v>
       </c>
       <c r="C296" t="s">
-        <v>1172</v>
+        <v>1188</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -14865,7 +14970,7 @@
         <v>0.79250589368334379</v>
       </c>
       <c r="G296" t="s">
-        <v>1173</v>
+        <v>1189</v>
       </c>
       <c r="H296">
         <v>0.71</v>
@@ -14874,7 +14979,7 @@
         <v>0.91689999999999994</v>
       </c>
       <c r="J296" t="s">
-        <v>1174</v>
+        <v>1190</v>
       </c>
       <c r="K296">
         <v>0</v>
@@ -14882,13 +14987,13 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" t="s">
-        <v>1175</v>
+        <v>1191</v>
       </c>
       <c r="B297" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="C297" t="s">
-        <v>1176</v>
+        <v>1192</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -14917,13 +15022,13 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" t="s">
-        <v>1177</v>
+        <v>1193</v>
       </c>
       <c r="B298" t="s">
-        <v>1178</v>
+        <v>1194</v>
       </c>
       <c r="C298" t="s">
-        <v>1179</v>
+        <v>1195</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -14935,7 +15040,7 @@
         <v>0.99735703251328245</v>
       </c>
       <c r="G298" t="s">
-        <v>1180</v>
+        <v>1196</v>
       </c>
       <c r="H298">
         <v>0.9</v>
@@ -14944,7 +15049,7 @@
         <v>0.95909999999999995</v>
       </c>
       <c r="J298" t="s">
-        <v>1181</v>
+        <v>1197</v>
       </c>
       <c r="K298">
         <v>0</v>
@@ -14952,13 +15057,13 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" t="s">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="B299" t="s">
-        <v>1183</v>
+        <v>1199</v>
       </c>
       <c r="C299" t="s">
-        <v>1184</v>
+        <v>1200</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -14970,7 +15075,7 @@
         <v>0.85687569193583235</v>
       </c>
       <c r="G299" t="s">
-        <v>1185</v>
+        <v>1201</v>
       </c>
       <c r="H299">
         <v>0.79</v>
@@ -14979,7 +15084,7 @@
         <v>0.98640000000000005</v>
       </c>
       <c r="J299" t="s">
-        <v>1186</v>
+        <v>1202</v>
       </c>
       <c r="K299">
         <v>0</v>
@@ -14987,13 +15092,13 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" t="s">
-        <v>1187</v>
+        <v>1203</v>
       </c>
       <c r="B300" t="s">
-        <v>1188</v>
+        <v>1204</v>
       </c>
       <c r="C300" t="s">
-        <v>1189</v>
+        <v>1205</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -15005,7 +15110,7 @@
         <v>0.86221105326895342</v>
       </c>
       <c r="G300" t="s">
-        <v>1190</v>
+        <v>1206</v>
       </c>
       <c r="H300">
         <v>0.71</v>
@@ -15014,7 +15119,7 @@
         <v>0.93730000000000002</v>
       </c>
       <c r="J300" t="s">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="K300">
         <v>0</v>
@@ -15022,13 +15127,13 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
       <c r="B301" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
       <c r="C301" t="s">
-        <v>1194</v>
+        <v>1210</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -15040,7 +15145,7 @@
         <v>0.99610749193911696</v>
       </c>
       <c r="G301" t="s">
-        <v>1195</v>
+        <v>1211</v>
       </c>
       <c r="H301">
         <v>0.85</v>
@@ -15049,7 +15154,7 @@
         <v>0.96879999999999999</v>
       </c>
       <c r="J301" t="s">
-        <v>1196</v>
+        <v>1212</v>
       </c>
       <c r="K301">
         <v>0</v>
@@ -15057,13 +15162,13 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" t="s">
-        <v>1197</v>
+        <v>1213</v>
       </c>
       <c r="B302" t="s">
-        <v>1198</v>
+        <v>1214</v>
       </c>
       <c r="C302" t="s">
-        <v>1199</v>
+        <v>1215</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -15075,7 +15180,7 @@
         <v>0.78805201069249298</v>
       </c>
       <c r="G302" t="s">
-        <v>1200</v>
+        <v>1216</v>
       </c>
       <c r="H302">
         <v>0.7</v>
@@ -15084,7 +15189,7 @@
         <v>0.93129999999999991</v>
       </c>
       <c r="J302" t="s">
-        <v>1201</v>
+        <v>1217</v>
       </c>
       <c r="K302">
         <v>0</v>
@@ -15092,13 +15197,13 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" t="s">
-        <v>1202</v>
+        <v>1218</v>
       </c>
       <c r="B303" t="s">
-        <v>1203</v>
+        <v>1219</v>
       </c>
       <c r="C303" t="s">
-        <v>1204</v>
+        <v>1220</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -15110,7 +15215,7 @@
         <v>0.96943863981762923</v>
       </c>
       <c r="G303" t="s">
-        <v>1205</v>
+        <v>1221</v>
       </c>
       <c r="H303">
         <v>0.39</v>
@@ -15119,7 +15224,7 @@
         <v>0.8</v>
       </c>
       <c r="J303" t="s">
-        <v>1206</v>
+        <v>1222</v>
       </c>
       <c r="K303">
         <v>0</v>
@@ -15127,13 +15232,13 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" t="s">
-        <v>1207</v>
+        <v>1223</v>
       </c>
       <c r="B304" t="s">
-        <v>1208</v>
+        <v>1224</v>
       </c>
       <c r="C304" t="s">
-        <v>1209</v>
+        <v>1225</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -15145,7 +15250,7 @@
         <v>0.93118385612182153</v>
       </c>
       <c r="G304" t="s">
-        <v>1210</v>
+        <v>1226</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -15154,7 +15259,7 @@
         <v>0.97329999999999994</v>
       </c>
       <c r="J304" t="s">
-        <v>1211</v>
+        <v>1227</v>
       </c>
       <c r="K304">
         <v>0</v>
@@ -15162,13 +15267,13 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305" t="s">
-        <v>1212</v>
+        <v>1228</v>
       </c>
       <c r="B305" t="s">
-        <v>1213</v>
+        <v>1229</v>
       </c>
       <c r="C305" t="s">
-        <v>1214</v>
+        <v>1230</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -15180,7 +15285,7 @@
         <v>0.92150987268919982</v>
       </c>
       <c r="G305" t="s">
-        <v>1215</v>
+        <v>1231</v>
       </c>
       <c r="H305">
         <v>0.73</v>
@@ -15189,7 +15294,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J305" t="s">
-        <v>1216</v>
+        <v>1232</v>
       </c>
       <c r="K305">
         <v>0</v>
@@ -15197,13 +15302,13 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" t="s">
-        <v>1217</v>
+        <v>1233</v>
       </c>
       <c r="B306" t="s">
-        <v>1218</v>
+        <v>1234</v>
       </c>
       <c r="C306" t="s">
-        <v>1218</v>
+        <v>1234</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -15232,13 +15337,13 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307" t="s">
-        <v>1219</v>
+        <v>1235</v>
       </c>
       <c r="B307" t="s">
-        <v>1220</v>
+        <v>1236</v>
       </c>
       <c r="C307" t="s">
-        <v>1221</v>
+        <v>1237</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -15250,7 +15355,7 @@
         <v>0.84459459459459441</v>
       </c>
       <c r="G307" t="s">
-        <v>1222</v>
+        <v>1238</v>
       </c>
       <c r="H307">
         <v>0.62</v>
@@ -15259,7 +15364,7 @@
         <v>0.95609999999999995</v>
       </c>
       <c r="J307" t="s">
-        <v>1223</v>
+        <v>1239</v>
       </c>
       <c r="K307">
         <v>0</v>
@@ -15267,13 +15372,13 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" t="s">
-        <v>1224</v>
+        <v>1240</v>
       </c>
       <c r="B308" t="s">
-        <v>1225</v>
+        <v>1241</v>
       </c>
       <c r="C308" t="s">
-        <v>1226</v>
+        <v>1242</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -15285,7 +15390,7 @@
         <v>0.88969017094017089</v>
       </c>
       <c r="G308" t="s">
-        <v>1227</v>
+        <v>1243</v>
       </c>
       <c r="H308">
         <v>0.52</v>
@@ -15294,7 +15399,7 @@
         <v>0.79569999999999996</v>
       </c>
       <c r="J308" t="s">
-        <v>1228</v>
+        <v>1244</v>
       </c>
       <c r="K308">
         <v>0</v>
@@ -15302,13 +15407,13 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" t="s">
-        <v>1229</v>
+        <v>1245</v>
       </c>
       <c r="B309" t="s">
-        <v>1230</v>
+        <v>1246</v>
       </c>
       <c r="C309" t="s">
-        <v>1231</v>
+        <v>1247</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -15320,7 +15425,7 @@
         <v>0.91395863315515335</v>
       </c>
       <c r="G309" t="s">
-        <v>1232</v>
+        <v>1248</v>
       </c>
       <c r="H309">
         <v>0.71</v>
@@ -15329,7 +15434,7 @@
         <v>0.9173</v>
       </c>
       <c r="J309" t="s">
-        <v>1233</v>
+        <v>1249</v>
       </c>
       <c r="K309">
         <v>0</v>
@@ -15337,13 +15442,13 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" t="s">
-        <v>1234</v>
+        <v>1250</v>
       </c>
       <c r="B310" t="s">
-        <v>1235</v>
+        <v>1251</v>
       </c>
       <c r="C310" t="s">
-        <v>1235</v>
+        <v>1251</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -15372,13 +15477,13 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" t="s">
-        <v>1236</v>
+        <v>1252</v>
       </c>
       <c r="B311" t="s">
-        <v>1237</v>
+        <v>1253</v>
       </c>
       <c r="C311" t="s">
-        <v>1238</v>
+        <v>1254</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -15390,7 +15495,7 @@
         <v>0.58455728246307592</v>
       </c>
       <c r="G311" t="s">
-        <v>1239</v>
+        <v>1255</v>
       </c>
       <c r="H311">
         <v>0.22</v>
@@ -15399,7 +15504,7 @@
         <v>0.86419999999999997</v>
       </c>
       <c r="J311" t="s">
-        <v>1240</v>
+        <v>1256</v>
       </c>
       <c r="K311">
         <v>0</v>
@@ -15407,13 +15512,13 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312" t="s">
-        <v>1241</v>
+        <v>1257</v>
       </c>
       <c r="B312" t="s">
-        <v>1242</v>
+        <v>1258</v>
       </c>
       <c r="C312" t="s">
-        <v>1243</v>
+        <v>1259</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -15425,7 +15530,7 @@
         <v>0.96341746046674104</v>
       </c>
       <c r="G312" t="s">
-        <v>1244</v>
+        <v>1260</v>
       </c>
       <c r="H312">
         <v>0.82</v>
@@ -15434,7 +15539,7 @@
         <v>0.9375</v>
       </c>
       <c r="J312" t="s">
-        <v>1245</v>
+        <v>1261</v>
       </c>
       <c r="K312">
         <v>0</v>
@@ -15442,13 +15547,13 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313" t="s">
-        <v>1246</v>
+        <v>1262</v>
       </c>
       <c r="B313" t="s">
-        <v>1247</v>
+        <v>1263</v>
       </c>
       <c r="C313" t="s">
-        <v>1248</v>
+        <v>1264</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -15460,7 +15565,7 @@
         <v>0.78049017672603971</v>
       </c>
       <c r="G313" t="s">
-        <v>1249</v>
+        <v>1265</v>
       </c>
       <c r="H313">
         <v>0.84</v>
@@ -15469,7 +15574,7 @@
         <v>0.94830000000000003</v>
       </c>
       <c r="J313" t="s">
-        <v>1250</v>
+        <v>1266</v>
       </c>
       <c r="K313">
         <v>0</v>
@@ -15477,13 +15582,13 @@
     </row>
     <row r="314" spans="1:11">
       <c r="A314" t="s">
-        <v>1251</v>
+        <v>1267</v>
       </c>
       <c r="B314" t="s">
-        <v>1252</v>
+        <v>1268</v>
       </c>
       <c r="C314" t="s">
-        <v>1253</v>
+        <v>1269</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -15495,7 +15600,7 @@
         <v>0.90394202898550713</v>
       </c>
       <c r="G314" t="s">
-        <v>1254</v>
+        <v>1270</v>
       </c>
       <c r="H314">
         <v>0.92</v>
@@ -15504,7 +15609,7 @@
         <v>0.96870000000000001</v>
       </c>
       <c r="J314" t="s">
-        <v>1255</v>
+        <v>1271</v>
       </c>
       <c r="K314">
         <v>0</v>
@@ -15512,13 +15617,13 @@
     </row>
     <row r="315" spans="1:11">
       <c r="A315" t="s">
-        <v>1256</v>
+        <v>1272</v>
       </c>
       <c r="B315" t="s">
-        <v>1257</v>
+        <v>1273</v>
       </c>
       <c r="C315" t="s">
-        <v>1258</v>
+        <v>1274</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -15530,7 +15635,7 @@
         <v>0.87517556179775269</v>
       </c>
       <c r="G315" t="s">
-        <v>1259</v>
+        <v>1275</v>
       </c>
       <c r="H315">
         <v>0.5</v>
@@ -15547,13 +15652,13 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316" t="s">
-        <v>1260</v>
+        <v>1276</v>
       </c>
       <c r="B316" t="s">
-        <v>1261</v>
+        <v>1277</v>
       </c>
       <c r="C316" t="s">
-        <v>1262</v>
+        <v>1278</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -15565,7 +15670,7 @@
         <v>0.77401692384270782</v>
       </c>
       <c r="G316" t="s">
-        <v>1263</v>
+        <v>1279</v>
       </c>
       <c r="H316">
         <v>0.49</v>
@@ -15574,7 +15679,7 @@
         <v>0.88280000000000003</v>
       </c>
       <c r="J316" t="s">
-        <v>1264</v>
+        <v>1280</v>
       </c>
       <c r="K316">
         <v>0</v>
@@ -15582,13 +15687,13 @@
     </row>
     <row r="317" spans="1:11">
       <c r="A317" t="s">
-        <v>1265</v>
+        <v>1281</v>
       </c>
       <c r="B317" t="s">
-        <v>1266</v>
+        <v>1282</v>
       </c>
       <c r="C317" t="s">
-        <v>1267</v>
+        <v>1283</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -15600,7 +15705,7 @@
         <v>0.70448824816204658</v>
       </c>
       <c r="G317" t="s">
-        <v>1268</v>
+        <v>1284</v>
       </c>
       <c r="H317">
         <v>0.53</v>
@@ -15609,7 +15714,7 @@
         <v>0.9103</v>
       </c>
       <c r="J317" t="s">
-        <v>1269</v>
+        <v>1285</v>
       </c>
       <c r="K317">
         <v>0</v>
@@ -15617,13 +15722,13 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318" t="s">
-        <v>1270</v>
+        <v>1286</v>
       </c>
       <c r="B318" t="s">
-        <v>1271</v>
+        <v>1287</v>
       </c>
       <c r="C318" t="s">
-        <v>1272</v>
+        <v>1288</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -15635,7 +15740,7 @@
         <v>0.8578868267449582</v>
       </c>
       <c r="G318" t="s">
-        <v>1273</v>
+        <v>1289</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -15644,7 +15749,7 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="J318" t="s">
-        <v>1274</v>
+        <v>1290</v>
       </c>
       <c r="K318">
         <v>0</v>
@@ -15652,13 +15757,13 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" t="s">
-        <v>1275</v>
+        <v>1291</v>
       </c>
       <c r="B319" t="s">
-        <v>1276</v>
+        <v>1292</v>
       </c>
       <c r="C319" t="s">
-        <v>1277</v>
+        <v>1293</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -15670,7 +15775,7 @@
         <v>0.98576950809165209</v>
       </c>
       <c r="G319" t="s">
-        <v>1278</v>
+        <v>1294</v>
       </c>
       <c r="H319">
         <v>0.91</v>
@@ -15679,7 +15784,7 @@
         <v>0.96109999999999995</v>
       </c>
       <c r="J319" t="s">
-        <v>1279</v>
+        <v>1295</v>
       </c>
       <c r="K319">
         <v>0</v>
@@ -15687,13 +15792,13 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>1280</v>
+        <v>1296</v>
       </c>
       <c r="B320" t="s">
-        <v>1281</v>
+        <v>1297</v>
       </c>
       <c r="C320" t="s">
-        <v>1282</v>
+        <v>1298</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -15705,7 +15810,7 @@
         <v>0.99142030393168623</v>
       </c>
       <c r="G320" t="s">
-        <v>1283</v>
+        <v>1299</v>
       </c>
       <c r="H320">
         <v>0.84</v>
@@ -15722,13 +15827,13 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" t="s">
-        <v>1284</v>
+        <v>1300</v>
       </c>
       <c r="B321" t="s">
-        <v>1285</v>
+        <v>1301</v>
       </c>
       <c r="C321" t="s">
-        <v>1285</v>
+        <v>1301</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -15757,13 +15862,13 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322" t="s">
-        <v>1286</v>
+        <v>1302</v>
       </c>
       <c r="B322" t="s">
-        <v>1287</v>
+        <v>1303</v>
       </c>
       <c r="C322" t="s">
-        <v>1288</v>
+        <v>1304</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -15775,7 +15880,7 @@
         <v>0.95990232827825017</v>
       </c>
       <c r="G322" t="s">
-        <v>1289</v>
+        <v>1305</v>
       </c>
       <c r="H322">
         <v>0.59</v>
@@ -15784,7 +15889,7 @@
         <v>0.8427</v>
       </c>
       <c r="J322" t="s">
-        <v>1290</v>
+        <v>1306</v>
       </c>
       <c r="K322">
         <v>0</v>
@@ -15792,13 +15897,13 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323" t="s">
-        <v>1291</v>
+        <v>1307</v>
       </c>
       <c r="B323" t="s">
-        <v>1292</v>
+        <v>1308</v>
       </c>
       <c r="C323" t="s">
-        <v>1293</v>
+        <v>1309</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -15810,7 +15915,7 @@
         <v>0.91487850396871861</v>
       </c>
       <c r="G323" t="s">
-        <v>1294</v>
+        <v>1310</v>
       </c>
       <c r="H323">
         <v>0.88</v>
@@ -15819,7 +15924,7 @@
         <v>0.95950000000000002</v>
       </c>
       <c r="J323" t="s">
-        <v>1295</v>
+        <v>1311</v>
       </c>
       <c r="K323">
         <v>0</v>
@@ -15827,13 +15932,13 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" t="s">
-        <v>1296</v>
+        <v>1312</v>
       </c>
       <c r="B324" t="s">
-        <v>1297</v>
+        <v>1313</v>
       </c>
       <c r="C324" t="s">
-        <v>1298</v>
+        <v>1314</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -15845,7 +15950,7 @@
         <v>0.84168421052631581</v>
       </c>
       <c r="G324" t="s">
-        <v>1299</v>
+        <v>1315</v>
       </c>
       <c r="H324">
         <v>0.62</v>
@@ -15854,7 +15959,7 @@
         <v>0.92590000000000006</v>
       </c>
       <c r="J324" t="s">
-        <v>1245</v>
+        <v>1261</v>
       </c>
       <c r="K324">
         <v>0</v>
@@ -15862,13 +15967,13 @@
     </row>
     <row r="325" spans="1:11">
       <c r="A325" t="s">
-        <v>1300</v>
+        <v>1316</v>
       </c>
       <c r="B325" t="s">
-        <v>1301</v>
+        <v>1317</v>
       </c>
       <c r="C325" t="s">
-        <v>1302</v>
+        <v>1318</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -15880,7 +15985,7 @@
         <v>0.89947226617328602</v>
       </c>
       <c r="G325" t="s">
-        <v>1303</v>
+        <v>1319</v>
       </c>
       <c r="H325">
         <v>0.74</v>
@@ -15889,7 +15994,7 @@
         <v>0.93849999999999989</v>
       </c>
       <c r="J325" t="s">
-        <v>1304</v>
+        <v>1320</v>
       </c>
       <c r="K325">
         <v>1</v>
@@ -15897,13 +16002,13 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326" t="s">
-        <v>1305</v>
+        <v>1321</v>
       </c>
       <c r="B326" t="s">
-        <v>1306</v>
+        <v>1322</v>
       </c>
       <c r="C326" t="s">
-        <v>1307</v>
+        <v>1323</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -15915,7 +16020,7 @@
         <v>0.98131106566689386</v>
       </c>
       <c r="G326" t="s">
-        <v>1308</v>
+        <v>1324</v>
       </c>
       <c r="H326">
         <v>0.92</v>
@@ -15924,7 +16029,7 @@
         <v>0.98769999999999991</v>
       </c>
       <c r="J326" t="s">
-        <v>1309</v>
+        <v>1325</v>
       </c>
       <c r="K326">
         <v>1</v>
@@ -15932,13 +16037,13 @@
     </row>
     <row r="327" spans="1:11">
       <c r="A327" t="s">
-        <v>1310</v>
+        <v>1326</v>
       </c>
       <c r="B327" t="s">
-        <v>1311</v>
+        <v>1327</v>
       </c>
       <c r="C327" t="s">
-        <v>1312</v>
+        <v>1328</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -15950,7 +16055,7 @@
         <v>0.78317639673571882</v>
       </c>
       <c r="G327" t="s">
-        <v>1313</v>
+        <v>1329</v>
       </c>
       <c r="H327">
         <v>0.6</v>
@@ -15959,7 +16064,7 @@
         <v>0.7742</v>
       </c>
       <c r="J327" t="s">
-        <v>1314</v>
+        <v>1330</v>
       </c>
       <c r="K327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
+++ b/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D435324F-ABE0-4549-BDA1-53BF2DD82313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{681E22F3-AB23-493F-9BEA-38F3C4F9F21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1341">
   <si>
     <t>IN</t>
   </si>
@@ -3126,6 +3126,9 @@
     <t>0.4657534208069057</t>
   </si>
   <si>
+    <t>Effettivamente non mi chiede di inizializzare u entity</t>
+  </si>
+  <si>
     <t>Create a configurable clock divider</t>
   </si>
   <si>
@@ -3156,6 +3159,9 @@
     <t>0.15999999503200013</t>
   </si>
   <si>
+    <t>La definisce solo, non implementa</t>
+  </si>
+  <si>
     <t>Define a barrel shifter of N-bit with the signals data_in (N-bit), shift_left, shift_right, and shift_amount as input and the signal data_out (N-bit) as output.</t>
   </si>
   <si>
@@ -3231,6 +3237,9 @@
     <t>0.7407407358024692</t>
   </si>
   <si>
+    <t>Prevede anche un toggle, ma va bene</t>
+  </si>
+  <si>
     <t>Create a BCD to 7-segment display decoder</t>
   </si>
   <si>
@@ -3246,6 +3255,9 @@
     <t>0.049999995450000424</t>
   </si>
   <si>
+    <t>Va bene, anche se naive</t>
+  </si>
+  <si>
     <t>Generate a single clock pulse using a process.</t>
   </si>
   <si>
@@ -3261,6 +3273,9 @@
     <t>0.12903225369406884</t>
   </si>
   <si>
+    <t>Piccoli problemi, ma va bene nel nostro caso</t>
+  </si>
+  <si>
     <t>Implement a basic UART (Universal Asynchronous Receiver/Transmitter) transmitter</t>
   </si>
   <si>
@@ -3276,6 +3291,9 @@
     <t>0.13333332888888905</t>
   </si>
   <si>
+    <t>Non implementa,definisce solo</t>
+  </si>
+  <si>
     <t>Define a parallel in parallel out shift register of N-bit with the signals clock, load_enable, shift_enable, shift_direction, and data_in (N-bit) as input and the signal data_out (N-bit) as output.</t>
   </si>
   <si>
@@ -3321,6 +3339,9 @@
     <t>0.15384615029585808</t>
   </si>
   <si>
+    <t>La condizione è buona, ma non scrive un comparaore</t>
+  </si>
+  <si>
     <t>core_type is an array of 1024 bits of std_logic_vector of 16 bits; use of real math functions; set req signal to '0' when the current state is ASPETTA and if ack signal is low, set next state to FINITO otherwise set next state to ASPETTA</t>
   </si>
   <si>
@@ -3333,6 +3354,9 @@
     <t>0.620253164556962</t>
   </si>
   <si>
+    <t>Manca una condizione</t>
+  </si>
+  <si>
     <t>on the rising edge of clk_in, if clear_sig signal is high set idx variable to 5, set stop_sig signal to '0', increment the variable idx by three; mux0 is an instance of mux_2_1 component with signal a0 mapped to b0, a1 mapped to b1, s mapped to s0, y mapped to u0</t>
   </si>
   <si>
@@ -3408,6 +3432,9 @@
     <t>0.5641025591058515</t>
   </si>
   <si>
+    <t>Non risponde al un sottoprompt (p_arst is an istance of arst)</t>
+  </si>
+  <si>
     <t>map strobe_i to t_stb; This is a component named FullAdderSub with 4 input std_logic signals C_in, A, B, Add_Sub and 2 output std_logic signals Sum; half_adder is the entity for the half adder</t>
   </si>
   <si>
@@ -3487,6 +3514,9 @@
   </si>
   <si>
     <t>0.5161290272632676</t>
+  </si>
+  <si>
+    <t>Altra cosa proprio</t>
   </si>
   <si>
     <t>COUT_RCA gets assigned the N-1-th element from cout_int; d is a constant of type std_logic_vector of 7 bit initialized to '0100001'; define the signal TbClockB whose state changes after TbPeriodB when TbSimEnded is different from '1', otherwise it is '0'</t>
@@ -4412,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C243" workbookViewId="0">
-      <selection activeCell="K261" sqref="K261"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="K291" sqref="K291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13757,7 +13787,7 @@
         <v>1020</v>
       </c>
       <c r="K261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -13792,7 +13822,7 @@
         <v>1025</v>
       </c>
       <c r="K262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -13827,18 +13857,21 @@
         <v>1030</v>
       </c>
       <c r="K263">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L263" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="264" spans="1:12">
       <c r="A264" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B264" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C264" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -13850,7 +13883,7 @@
         <v>0.84416716690964189</v>
       </c>
       <c r="G264" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H264">
         <v>0.35</v>
@@ -13859,21 +13892,21 @@
         <v>0.90930000000000011</v>
       </c>
       <c r="J264" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="K264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:12">
       <c r="A265" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B265" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C265" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -13885,7 +13918,7 @@
         <v>0.1251506024096386</v>
       </c>
       <c r="G265" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H265">
         <v>0.06</v>
@@ -13894,21 +13927,24 @@
         <v>0.76980000000000004</v>
       </c>
       <c r="J265" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="K265">
         <v>0</v>
+      </c>
+      <c r="L265" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="266" spans="1:12">
       <c r="A266" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B266" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C266" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -13920,7 +13956,7 @@
         <v>0.37008194888083268</v>
       </c>
       <c r="G266" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -13929,21 +13965,21 @@
         <v>0.63029999999999997</v>
       </c>
       <c r="J266" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="K266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:12">
       <c r="A267" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B267" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C267" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -13955,7 +13991,7 @@
         <v>0.34369246118287677</v>
       </c>
       <c r="G267" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -13964,21 +14000,21 @@
         <v>0.75950000000000006</v>
       </c>
       <c r="J267" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="K267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:12">
       <c r="A268" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B268" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C268" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -13990,7 +14026,7 @@
         <v>0.39675422756399409</v>
       </c>
       <c r="G268" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="H268">
         <v>0.02</v>
@@ -13999,21 +14035,21 @@
         <v>0.77049999999999996</v>
       </c>
       <c r="J268" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="K268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:12">
       <c r="A269" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B269" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C269" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -14025,7 +14061,7 @@
         <v>0.51819301340860968</v>
       </c>
       <c r="G269" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="H269">
         <v>0.33</v>
@@ -14034,21 +14070,21 @@
         <v>0.75029999999999997</v>
       </c>
       <c r="J269" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="K269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:12">
       <c r="A270" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B270" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C270" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -14060,7 +14096,7 @@
         <v>0.9534105229993699</v>
       </c>
       <c r="G270" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -14069,21 +14105,24 @@
         <v>0.77689999999999992</v>
       </c>
       <c r="J270" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="K270">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L270" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="271" spans="1:12">
       <c r="A271" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B271" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C271" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -14095,7 +14134,7 @@
         <v>0.24438254450451111</v>
       </c>
       <c r="G271" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="H271">
         <v>0.02</v>
@@ -14104,21 +14143,24 @@
         <v>0.47339999999999999</v>
       </c>
       <c r="J271" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="K271">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L271" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="272" spans="1:12">
       <c r="A272" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="B272" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="C272" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -14130,7 +14172,7 @@
         <v>0.64418346204022925</v>
       </c>
       <c r="G272" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="H272">
         <v>0.31</v>
@@ -14139,21 +14181,24 @@
         <v>0.8909999999999999</v>
       </c>
       <c r="J272" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="K272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L272" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="B273" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="C273" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -14165,7 +14210,7 @@
         <v>6.5000763591936475E-2</v>
       </c>
       <c r="G273" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -14174,21 +14219,24 @@
         <v>0.74400000000000011</v>
       </c>
       <c r="J273" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="K273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:11">
+      <c r="L273" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="B274" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="C274" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -14200,7 +14248,7 @@
         <v>0.33160074536381162</v>
       </c>
       <c r="G274" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -14209,21 +14257,21 @@
         <v>0.76439999999999997</v>
       </c>
       <c r="J274" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="K274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="B275" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="C275" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -14235,7 +14283,7 @@
         <v>0.36656284712390819</v>
       </c>
       <c r="G275" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -14244,21 +14292,21 @@
         <v>0.77849999999999997</v>
       </c>
       <c r="J275" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="K275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="B276" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="C276" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -14270,7 +14318,7 @@
         <v>0.26366390187782968</v>
       </c>
       <c r="G276" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -14279,21 +14327,24 @@
         <v>0.22750000000000001</v>
       </c>
       <c r="J276" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="K276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:11">
+      <c r="L276" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="B277" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="C277" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -14305,7 +14356,7 @@
         <v>0.54521926556252653</v>
       </c>
       <c r="G277" t="s">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="H277">
         <v>0.32</v>
@@ -14319,16 +14370,19 @@
       <c r="K277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:11">
+      <c r="L277" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="B278" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="C278" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -14340,7 +14394,7 @@
         <v>0.98151497216733619</v>
       </c>
       <c r="G278" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="H278">
         <v>0.88</v>
@@ -14349,21 +14403,24 @@
         <v>0.9456</v>
       </c>
       <c r="J278" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="K278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L278" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="B279" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="C279" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -14375,7 +14432,7 @@
         <v>0.71942500020697597</v>
       </c>
       <c r="G279" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="H279">
         <v>0.64</v>
@@ -14384,21 +14441,21 @@
         <v>0.93290000000000006</v>
       </c>
       <c r="J279" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="K279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="B280" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="C280" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -14410,7 +14467,7 @@
         <v>0.91697247706422014</v>
       </c>
       <c r="G280" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="H280">
         <v>0.8</v>
@@ -14419,21 +14476,21 @@
         <v>0.95420000000000005</v>
       </c>
       <c r="J280" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="K280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="B281" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="C281" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -14445,7 +14502,7 @@
         <v>0.95888877000712913</v>
       </c>
       <c r="G281" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="H281">
         <v>0.94</v>
@@ -14454,21 +14511,21 @@
         <v>0.97930000000000006</v>
       </c>
       <c r="J281" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="K281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="B282" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="C282" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -14480,7 +14537,7 @@
         <v>0.7648210692727796</v>
       </c>
       <c r="G282" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="H282">
         <v>0.45</v>
@@ -14489,21 +14546,24 @@
         <v>0.79579999999999995</v>
       </c>
       <c r="J282" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="K282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:11">
+      <c r="L282" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283" t="s">
-        <v>1125</v>
+        <v>1134</v>
       </c>
       <c r="B283" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="C283" t="s">
-        <v>1127</v>
+        <v>1136</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -14515,7 +14575,7 @@
         <v>0.51308676160337541</v>
       </c>
       <c r="G283" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="H283">
         <v>0.24</v>
@@ -14524,21 +14584,21 @@
         <v>0.80349999999999999</v>
       </c>
       <c r="J283" t="s">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="K283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284" t="s">
-        <v>1130</v>
+        <v>1139</v>
       </c>
       <c r="B284" t="s">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="C284" t="s">
-        <v>1132</v>
+        <v>1141</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -14550,7 +14610,7 @@
         <v>0.7903310628307747</v>
       </c>
       <c r="G284" t="s">
-        <v>1133</v>
+        <v>1142</v>
       </c>
       <c r="H284">
         <v>0.63</v>
@@ -14559,21 +14619,21 @@
         <v>0.87690000000000001</v>
       </c>
       <c r="J284" t="s">
-        <v>1134</v>
+        <v>1143</v>
       </c>
       <c r="K284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285" t="s">
-        <v>1135</v>
+        <v>1144</v>
       </c>
       <c r="B285" t="s">
-        <v>1136</v>
+        <v>1145</v>
       </c>
       <c r="C285" t="s">
-        <v>1137</v>
+        <v>1146</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -14597,18 +14657,18 @@
         <v>132</v>
       </c>
       <c r="K285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286" t="s">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="B286" t="s">
-        <v>1139</v>
+        <v>1148</v>
       </c>
       <c r="C286" t="s">
-        <v>1140</v>
+        <v>1149</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -14629,21 +14689,21 @@
         <v>0.92989999999999995</v>
       </c>
       <c r="J286" t="s">
-        <v>1141</v>
+        <v>1150</v>
       </c>
       <c r="K286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287" t="s">
-        <v>1142</v>
+        <v>1151</v>
       </c>
       <c r="B287" t="s">
-        <v>1143</v>
+        <v>1152</v>
       </c>
       <c r="C287" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -14655,7 +14715,7 @@
         <v>0.99993750000000003</v>
       </c>
       <c r="G287" t="s">
-        <v>1145</v>
+        <v>1154</v>
       </c>
       <c r="H287">
         <v>0.91</v>
@@ -14664,21 +14724,21 @@
         <v>0.98349999999999993</v>
       </c>
       <c r="J287" t="s">
-        <v>1146</v>
+        <v>1155</v>
       </c>
       <c r="K287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288" t="s">
-        <v>1147</v>
+        <v>1156</v>
       </c>
       <c r="B288" t="s">
-        <v>1148</v>
+        <v>1157</v>
       </c>
       <c r="C288" t="s">
-        <v>1149</v>
+        <v>1158</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -14690,7 +14750,7 @@
         <v>0.82735042735042752</v>
       </c>
       <c r="G288" t="s">
-        <v>1150</v>
+        <v>1159</v>
       </c>
       <c r="H288">
         <v>0.3</v>
@@ -14699,21 +14759,24 @@
         <v>0.63190000000000002</v>
       </c>
       <c r="J288" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
       <c r="K288">
         <v>0</v>
+      </c>
+      <c r="L288" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="B289" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="C289" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -14725,7 +14788,7 @@
         <v>0.97554878048780491</v>
       </c>
       <c r="G289" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
       <c r="H289">
         <v>0.89</v>
@@ -14734,21 +14797,21 @@
         <v>0.96530000000000005</v>
       </c>
       <c r="J289" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="K289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" t="s">
-        <v>1157</v>
+        <v>1167</v>
       </c>
       <c r="B290" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="C290" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -14760,7 +14823,7 @@
         <v>0.9003281771919136</v>
       </c>
       <c r="G290" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="H290">
         <v>0.64</v>
@@ -14769,21 +14832,21 @@
         <v>0.8417</v>
       </c>
       <c r="J290" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
       <c r="K290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="B291" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
       <c r="C291" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -14795,7 +14858,7 @@
         <v>0.93197278911564618</v>
       </c>
       <c r="G291" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
       <c r="H291">
         <v>0.69</v>
@@ -14812,13 +14875,13 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="B292" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="C292" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -14830,7 +14893,7 @@
         <v>0.65260257994526893</v>
       </c>
       <c r="G292" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="H292">
         <v>0.34</v>
@@ -14839,7 +14902,7 @@
         <v>0.74900000000000011</v>
       </c>
       <c r="J292" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="K292">
         <v>0</v>
@@ -14847,13 +14910,13 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="B293" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="C293" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -14865,7 +14928,7 @@
         <v>0.91703661742883691</v>
       </c>
       <c r="G293" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -14874,7 +14937,7 @@
         <v>0.94</v>
       </c>
       <c r="J293" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
       <c r="K293">
         <v>0</v>
@@ -14882,13 +14945,13 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="B294" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
       <c r="C294" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -14900,7 +14963,7 @@
         <v>0.73776919828678289</v>
       </c>
       <c r="G294" t="s">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="H294">
         <v>0.62</v>
@@ -14909,7 +14972,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="J294" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="K294">
         <v>0</v>
@@ -14917,13 +14980,13 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
       <c r="B295" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="C295" t="s">
-        <v>1183</v>
+        <v>1193</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -14935,7 +14998,7 @@
         <v>0.89711883308721962</v>
       </c>
       <c r="G295" t="s">
-        <v>1184</v>
+        <v>1194</v>
       </c>
       <c r="H295">
         <v>0.75</v>
@@ -14944,7 +15007,7 @@
         <v>0.93019999999999992</v>
       </c>
       <c r="J295" t="s">
-        <v>1185</v>
+        <v>1195</v>
       </c>
       <c r="K295">
         <v>0</v>
@@ -14952,13 +15015,13 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="B296" t="s">
-        <v>1187</v>
+        <v>1197</v>
       </c>
       <c r="C296" t="s">
-        <v>1188</v>
+        <v>1198</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -14970,7 +15033,7 @@
         <v>0.79250589368334379</v>
       </c>
       <c r="G296" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
       <c r="H296">
         <v>0.71</v>
@@ -14979,7 +15042,7 @@
         <v>0.91689999999999994</v>
       </c>
       <c r="J296" t="s">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="K296">
         <v>0</v>
@@ -14987,13 +15050,13 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" t="s">
-        <v>1191</v>
+        <v>1201</v>
       </c>
       <c r="B297" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="C297" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -15022,13 +15085,13 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" t="s">
-        <v>1193</v>
+        <v>1203</v>
       </c>
       <c r="B298" t="s">
-        <v>1194</v>
+        <v>1204</v>
       </c>
       <c r="C298" t="s">
-        <v>1195</v>
+        <v>1205</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -15040,7 +15103,7 @@
         <v>0.99735703251328245</v>
       </c>
       <c r="G298" t="s">
-        <v>1196</v>
+        <v>1206</v>
       </c>
       <c r="H298">
         <v>0.9</v>
@@ -15049,7 +15112,7 @@
         <v>0.95909999999999995</v>
       </c>
       <c r="J298" t="s">
-        <v>1197</v>
+        <v>1207</v>
       </c>
       <c r="K298">
         <v>0</v>
@@ -15057,13 +15120,13 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" t="s">
-        <v>1198</v>
+        <v>1208</v>
       </c>
       <c r="B299" t="s">
-        <v>1199</v>
+        <v>1209</v>
       </c>
       <c r="C299" t="s">
-        <v>1200</v>
+        <v>1210</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -15075,7 +15138,7 @@
         <v>0.85687569193583235</v>
       </c>
       <c r="G299" t="s">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="H299">
         <v>0.79</v>
@@ -15084,7 +15147,7 @@
         <v>0.98640000000000005</v>
       </c>
       <c r="J299" t="s">
-        <v>1202</v>
+        <v>1212</v>
       </c>
       <c r="K299">
         <v>0</v>
@@ -15092,13 +15155,13 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" t="s">
-        <v>1203</v>
+        <v>1213</v>
       </c>
       <c r="B300" t="s">
-        <v>1204</v>
+        <v>1214</v>
       </c>
       <c r="C300" t="s">
-        <v>1205</v>
+        <v>1215</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -15110,7 +15173,7 @@
         <v>0.86221105326895342</v>
       </c>
       <c r="G300" t="s">
-        <v>1206</v>
+        <v>1216</v>
       </c>
       <c r="H300">
         <v>0.71</v>
@@ -15119,7 +15182,7 @@
         <v>0.93730000000000002</v>
       </c>
       <c r="J300" t="s">
-        <v>1207</v>
+        <v>1217</v>
       </c>
       <c r="K300">
         <v>0</v>
@@ -15127,13 +15190,13 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" t="s">
-        <v>1208</v>
+        <v>1218</v>
       </c>
       <c r="B301" t="s">
-        <v>1209</v>
+        <v>1219</v>
       </c>
       <c r="C301" t="s">
-        <v>1210</v>
+        <v>1220</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -15145,7 +15208,7 @@
         <v>0.99610749193911696</v>
       </c>
       <c r="G301" t="s">
-        <v>1211</v>
+        <v>1221</v>
       </c>
       <c r="H301">
         <v>0.85</v>
@@ -15154,7 +15217,7 @@
         <v>0.96879999999999999</v>
       </c>
       <c r="J301" t="s">
-        <v>1212</v>
+        <v>1222</v>
       </c>
       <c r="K301">
         <v>0</v>
@@ -15162,13 +15225,13 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" t="s">
-        <v>1213</v>
+        <v>1223</v>
       </c>
       <c r="B302" t="s">
-        <v>1214</v>
+        <v>1224</v>
       </c>
       <c r="C302" t="s">
-        <v>1215</v>
+        <v>1225</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -15180,7 +15243,7 @@
         <v>0.78805201069249298</v>
       </c>
       <c r="G302" t="s">
-        <v>1216</v>
+        <v>1226</v>
       </c>
       <c r="H302">
         <v>0.7</v>
@@ -15189,7 +15252,7 @@
         <v>0.93129999999999991</v>
       </c>
       <c r="J302" t="s">
-        <v>1217</v>
+        <v>1227</v>
       </c>
       <c r="K302">
         <v>0</v>
@@ -15197,13 +15260,13 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" t="s">
-        <v>1218</v>
+        <v>1228</v>
       </c>
       <c r="B303" t="s">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="C303" t="s">
-        <v>1220</v>
+        <v>1230</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -15215,7 +15278,7 @@
         <v>0.96943863981762923</v>
       </c>
       <c r="G303" t="s">
-        <v>1221</v>
+        <v>1231</v>
       </c>
       <c r="H303">
         <v>0.39</v>
@@ -15224,7 +15287,7 @@
         <v>0.8</v>
       </c>
       <c r="J303" t="s">
-        <v>1222</v>
+        <v>1232</v>
       </c>
       <c r="K303">
         <v>0</v>
@@ -15232,13 +15295,13 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" t="s">
-        <v>1223</v>
+        <v>1233</v>
       </c>
       <c r="B304" t="s">
-        <v>1224</v>
+        <v>1234</v>
       </c>
       <c r="C304" t="s">
-        <v>1225</v>
+        <v>1235</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -15250,7 +15313,7 @@
         <v>0.93118385612182153</v>
       </c>
       <c r="G304" t="s">
-        <v>1226</v>
+        <v>1236</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -15259,7 +15322,7 @@
         <v>0.97329999999999994</v>
       </c>
       <c r="J304" t="s">
-        <v>1227</v>
+        <v>1237</v>
       </c>
       <c r="K304">
         <v>0</v>
@@ -15267,13 +15330,13 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305" t="s">
-        <v>1228</v>
+        <v>1238</v>
       </c>
       <c r="B305" t="s">
-        <v>1229</v>
+        <v>1239</v>
       </c>
       <c r="C305" t="s">
-        <v>1230</v>
+        <v>1240</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -15285,7 +15348,7 @@
         <v>0.92150987268919982</v>
       </c>
       <c r="G305" t="s">
-        <v>1231</v>
+        <v>1241</v>
       </c>
       <c r="H305">
         <v>0.73</v>
@@ -15294,7 +15357,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J305" t="s">
-        <v>1232</v>
+        <v>1242</v>
       </c>
       <c r="K305">
         <v>0</v>
@@ -15302,13 +15365,13 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" t="s">
-        <v>1233</v>
+        <v>1243</v>
       </c>
       <c r="B306" t="s">
-        <v>1234</v>
+        <v>1244</v>
       </c>
       <c r="C306" t="s">
-        <v>1234</v>
+        <v>1244</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -15337,13 +15400,13 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307" t="s">
-        <v>1235</v>
+        <v>1245</v>
       </c>
       <c r="B307" t="s">
-        <v>1236</v>
+        <v>1246</v>
       </c>
       <c r="C307" t="s">
-        <v>1237</v>
+        <v>1247</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -15355,7 +15418,7 @@
         <v>0.84459459459459441</v>
       </c>
       <c r="G307" t="s">
-        <v>1238</v>
+        <v>1248</v>
       </c>
       <c r="H307">
         <v>0.62</v>
@@ -15364,7 +15427,7 @@
         <v>0.95609999999999995</v>
       </c>
       <c r="J307" t="s">
-        <v>1239</v>
+        <v>1249</v>
       </c>
       <c r="K307">
         <v>0</v>
@@ -15372,13 +15435,13 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" t="s">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="B308" t="s">
-        <v>1241</v>
+        <v>1251</v>
       </c>
       <c r="C308" t="s">
-        <v>1242</v>
+        <v>1252</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -15390,7 +15453,7 @@
         <v>0.88969017094017089</v>
       </c>
       <c r="G308" t="s">
-        <v>1243</v>
+        <v>1253</v>
       </c>
       <c r="H308">
         <v>0.52</v>
@@ -15399,7 +15462,7 @@
         <v>0.79569999999999996</v>
       </c>
       <c r="J308" t="s">
-        <v>1244</v>
+        <v>1254</v>
       </c>
       <c r="K308">
         <v>0</v>
@@ -15407,13 +15470,13 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" t="s">
-        <v>1245</v>
+        <v>1255</v>
       </c>
       <c r="B309" t="s">
-        <v>1246</v>
+        <v>1256</v>
       </c>
       <c r="C309" t="s">
-        <v>1247</v>
+        <v>1257</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -15425,7 +15488,7 @@
         <v>0.91395863315515335</v>
       </c>
       <c r="G309" t="s">
-        <v>1248</v>
+        <v>1258</v>
       </c>
       <c r="H309">
         <v>0.71</v>
@@ -15434,7 +15497,7 @@
         <v>0.9173</v>
       </c>
       <c r="J309" t="s">
-        <v>1249</v>
+        <v>1259</v>
       </c>
       <c r="K309">
         <v>0</v>
@@ -15442,13 +15505,13 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" t="s">
-        <v>1250</v>
+        <v>1260</v>
       </c>
       <c r="B310" t="s">
-        <v>1251</v>
+        <v>1261</v>
       </c>
       <c r="C310" t="s">
-        <v>1251</v>
+        <v>1261</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -15477,13 +15540,13 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" t="s">
-        <v>1252</v>
+        <v>1262</v>
       </c>
       <c r="B311" t="s">
-        <v>1253</v>
+        <v>1263</v>
       </c>
       <c r="C311" t="s">
-        <v>1254</v>
+        <v>1264</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -15495,7 +15558,7 @@
         <v>0.58455728246307592</v>
       </c>
       <c r="G311" t="s">
-        <v>1255</v>
+        <v>1265</v>
       </c>
       <c r="H311">
         <v>0.22</v>
@@ -15504,7 +15567,7 @@
         <v>0.86419999999999997</v>
       </c>
       <c r="J311" t="s">
-        <v>1256</v>
+        <v>1266</v>
       </c>
       <c r="K311">
         <v>0</v>
@@ -15512,13 +15575,13 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312" t="s">
-        <v>1257</v>
+        <v>1267</v>
       </c>
       <c r="B312" t="s">
-        <v>1258</v>
+        <v>1268</v>
       </c>
       <c r="C312" t="s">
-        <v>1259</v>
+        <v>1269</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -15530,7 +15593,7 @@
         <v>0.96341746046674104</v>
       </c>
       <c r="G312" t="s">
-        <v>1260</v>
+        <v>1270</v>
       </c>
       <c r="H312">
         <v>0.82</v>
@@ -15539,7 +15602,7 @@
         <v>0.9375</v>
       </c>
       <c r="J312" t="s">
-        <v>1261</v>
+        <v>1271</v>
       </c>
       <c r="K312">
         <v>0</v>
@@ -15547,13 +15610,13 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313" t="s">
-        <v>1262</v>
+        <v>1272</v>
       </c>
       <c r="B313" t="s">
-        <v>1263</v>
+        <v>1273</v>
       </c>
       <c r="C313" t="s">
-        <v>1264</v>
+        <v>1274</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -15565,7 +15628,7 @@
         <v>0.78049017672603971</v>
       </c>
       <c r="G313" t="s">
-        <v>1265</v>
+        <v>1275</v>
       </c>
       <c r="H313">
         <v>0.84</v>
@@ -15574,7 +15637,7 @@
         <v>0.94830000000000003</v>
       </c>
       <c r="J313" t="s">
-        <v>1266</v>
+        <v>1276</v>
       </c>
       <c r="K313">
         <v>0</v>
@@ -15582,13 +15645,13 @@
     </row>
     <row r="314" spans="1:11">
       <c r="A314" t="s">
-        <v>1267</v>
+        <v>1277</v>
       </c>
       <c r="B314" t="s">
-        <v>1268</v>
+        <v>1278</v>
       </c>
       <c r="C314" t="s">
-        <v>1269</v>
+        <v>1279</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -15600,7 +15663,7 @@
         <v>0.90394202898550713</v>
       </c>
       <c r="G314" t="s">
-        <v>1270</v>
+        <v>1280</v>
       </c>
       <c r="H314">
         <v>0.92</v>
@@ -15609,7 +15672,7 @@
         <v>0.96870000000000001</v>
       </c>
       <c r="J314" t="s">
-        <v>1271</v>
+        <v>1281</v>
       </c>
       <c r="K314">
         <v>0</v>
@@ -15617,13 +15680,13 @@
     </row>
     <row r="315" spans="1:11">
       <c r="A315" t="s">
-        <v>1272</v>
+        <v>1282</v>
       </c>
       <c r="B315" t="s">
-        <v>1273</v>
+        <v>1283</v>
       </c>
       <c r="C315" t="s">
-        <v>1274</v>
+        <v>1284</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -15635,7 +15698,7 @@
         <v>0.87517556179775269</v>
       </c>
       <c r="G315" t="s">
-        <v>1275</v>
+        <v>1285</v>
       </c>
       <c r="H315">
         <v>0.5</v>
@@ -15652,13 +15715,13 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316" t="s">
-        <v>1276</v>
+        <v>1286</v>
       </c>
       <c r="B316" t="s">
-        <v>1277</v>
+        <v>1287</v>
       </c>
       <c r="C316" t="s">
-        <v>1278</v>
+        <v>1288</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -15670,7 +15733,7 @@
         <v>0.77401692384270782</v>
       </c>
       <c r="G316" t="s">
-        <v>1279</v>
+        <v>1289</v>
       </c>
       <c r="H316">
         <v>0.49</v>
@@ -15679,7 +15742,7 @@
         <v>0.88280000000000003</v>
       </c>
       <c r="J316" t="s">
-        <v>1280</v>
+        <v>1290</v>
       </c>
       <c r="K316">
         <v>0</v>
@@ -15687,13 +15750,13 @@
     </row>
     <row r="317" spans="1:11">
       <c r="A317" t="s">
-        <v>1281</v>
+        <v>1291</v>
       </c>
       <c r="B317" t="s">
-        <v>1282</v>
+        <v>1292</v>
       </c>
       <c r="C317" t="s">
-        <v>1283</v>
+        <v>1293</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -15705,7 +15768,7 @@
         <v>0.70448824816204658</v>
       </c>
       <c r="G317" t="s">
-        <v>1284</v>
+        <v>1294</v>
       </c>
       <c r="H317">
         <v>0.53</v>
@@ -15714,7 +15777,7 @@
         <v>0.9103</v>
       </c>
       <c r="J317" t="s">
-        <v>1285</v>
+        <v>1295</v>
       </c>
       <c r="K317">
         <v>0</v>
@@ -15722,13 +15785,13 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318" t="s">
-        <v>1286</v>
+        <v>1296</v>
       </c>
       <c r="B318" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
       <c r="C318" t="s">
-        <v>1288</v>
+        <v>1298</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -15740,7 +15803,7 @@
         <v>0.8578868267449582</v>
       </c>
       <c r="G318" t="s">
-        <v>1289</v>
+        <v>1299</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -15749,7 +15812,7 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="J318" t="s">
-        <v>1290</v>
+        <v>1300</v>
       </c>
       <c r="K318">
         <v>0</v>
@@ -15757,13 +15820,13 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" t="s">
-        <v>1291</v>
+        <v>1301</v>
       </c>
       <c r="B319" t="s">
-        <v>1292</v>
+        <v>1302</v>
       </c>
       <c r="C319" t="s">
-        <v>1293</v>
+        <v>1303</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -15775,7 +15838,7 @@
         <v>0.98576950809165209</v>
       </c>
       <c r="G319" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="H319">
         <v>0.91</v>
@@ -15784,7 +15847,7 @@
         <v>0.96109999999999995</v>
       </c>
       <c r="J319" t="s">
-        <v>1295</v>
+        <v>1305</v>
       </c>
       <c r="K319">
         <v>0</v>
@@ -15792,13 +15855,13 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="B320" t="s">
-        <v>1297</v>
+        <v>1307</v>
       </c>
       <c r="C320" t="s">
-        <v>1298</v>
+        <v>1308</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -15810,7 +15873,7 @@
         <v>0.99142030393168623</v>
       </c>
       <c r="G320" t="s">
-        <v>1299</v>
+        <v>1309</v>
       </c>
       <c r="H320">
         <v>0.84</v>
@@ -15827,13 +15890,13 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" t="s">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="B321" t="s">
-        <v>1301</v>
+        <v>1311</v>
       </c>
       <c r="C321" t="s">
-        <v>1301</v>
+        <v>1311</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -15862,13 +15925,13 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322" t="s">
-        <v>1302</v>
+        <v>1312</v>
       </c>
       <c r="B322" t="s">
-        <v>1303</v>
+        <v>1313</v>
       </c>
       <c r="C322" t="s">
-        <v>1304</v>
+        <v>1314</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -15880,7 +15943,7 @@
         <v>0.95990232827825017</v>
       </c>
       <c r="G322" t="s">
-        <v>1305</v>
+        <v>1315</v>
       </c>
       <c r="H322">
         <v>0.59</v>
@@ -15889,7 +15952,7 @@
         <v>0.8427</v>
       </c>
       <c r="J322" t="s">
-        <v>1306</v>
+        <v>1316</v>
       </c>
       <c r="K322">
         <v>0</v>
@@ -15897,13 +15960,13 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323" t="s">
-        <v>1307</v>
+        <v>1317</v>
       </c>
       <c r="B323" t="s">
-        <v>1308</v>
+        <v>1318</v>
       </c>
       <c r="C323" t="s">
-        <v>1309</v>
+        <v>1319</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -15915,7 +15978,7 @@
         <v>0.91487850396871861</v>
       </c>
       <c r="G323" t="s">
-        <v>1310</v>
+        <v>1320</v>
       </c>
       <c r="H323">
         <v>0.88</v>
@@ -15924,7 +15987,7 @@
         <v>0.95950000000000002</v>
       </c>
       <c r="J323" t="s">
-        <v>1311</v>
+        <v>1321</v>
       </c>
       <c r="K323">
         <v>0</v>
@@ -15932,13 +15995,13 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" t="s">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="B324" t="s">
-        <v>1313</v>
+        <v>1323</v>
       </c>
       <c r="C324" t="s">
-        <v>1314</v>
+        <v>1324</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -15950,7 +16013,7 @@
         <v>0.84168421052631581</v>
       </c>
       <c r="G324" t="s">
-        <v>1315</v>
+        <v>1325</v>
       </c>
       <c r="H324">
         <v>0.62</v>
@@ -15959,7 +16022,7 @@
         <v>0.92590000000000006</v>
       </c>
       <c r="J324" t="s">
-        <v>1261</v>
+        <v>1271</v>
       </c>
       <c r="K324">
         <v>0</v>
@@ -15967,13 +16030,13 @@
     </row>
     <row r="325" spans="1:11">
       <c r="A325" t="s">
-        <v>1316</v>
+        <v>1326</v>
       </c>
       <c r="B325" t="s">
-        <v>1317</v>
+        <v>1327</v>
       </c>
       <c r="C325" t="s">
-        <v>1318</v>
+        <v>1328</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -15985,7 +16048,7 @@
         <v>0.89947226617328602</v>
       </c>
       <c r="G325" t="s">
-        <v>1319</v>
+        <v>1329</v>
       </c>
       <c r="H325">
         <v>0.74</v>
@@ -15994,7 +16057,7 @@
         <v>0.93849999999999989</v>
       </c>
       <c r="J325" t="s">
-        <v>1320</v>
+        <v>1330</v>
       </c>
       <c r="K325">
         <v>1</v>
@@ -16002,13 +16065,13 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326" t="s">
-        <v>1321</v>
+        <v>1331</v>
       </c>
       <c r="B326" t="s">
-        <v>1322</v>
+        <v>1332</v>
       </c>
       <c r="C326" t="s">
-        <v>1323</v>
+        <v>1333</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -16020,7 +16083,7 @@
         <v>0.98131106566689386</v>
       </c>
       <c r="G326" t="s">
-        <v>1324</v>
+        <v>1334</v>
       </c>
       <c r="H326">
         <v>0.92</v>
@@ -16029,7 +16092,7 @@
         <v>0.98769999999999991</v>
       </c>
       <c r="J326" t="s">
-        <v>1325</v>
+        <v>1335</v>
       </c>
       <c r="K326">
         <v>1</v>
@@ -16037,13 +16100,13 @@
     </row>
     <row r="327" spans="1:11">
       <c r="A327" t="s">
-        <v>1326</v>
+        <v>1336</v>
       </c>
       <c r="B327" t="s">
-        <v>1327</v>
+        <v>1337</v>
       </c>
       <c r="C327" t="s">
-        <v>1328</v>
+        <v>1338</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -16055,7 +16118,7 @@
         <v>0.78317639673571882</v>
       </c>
       <c r="G327" t="s">
-        <v>1329</v>
+        <v>1339</v>
       </c>
       <c r="H327">
         <v>0.6</v>
@@ -16064,7 +16127,7 @@
         <v>0.7742</v>
       </c>
       <c r="J327" t="s">
-        <v>1330</v>
+        <v>1340</v>
       </c>
       <c r="K327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
+++ b/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{681E22F3-AB23-493F-9BEA-38F3C4F9F21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9577A65-E8BD-4A6A-99BF-6F260F68123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1342">
   <si>
     <t>IN</t>
   </si>
@@ -3781,6 +3781,9 @@
   </si>
   <si>
     <t>0.5217391256710776</t>
+  </si>
+  <si>
+    <t>Non da il nome al processo, ma va bene</t>
   </si>
   <si>
     <t>REVISION is a constant of type integer initialized to 0; input_mag is an instance of inputmanager with signals clock, rst, value_in t_btn_plainText, plaintext64</t>
@@ -4442,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="K291" sqref="K291"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="L324" sqref="L324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14870,7 +14873,7 @@
         <v>543</v>
       </c>
       <c r="K291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -14905,7 +14908,7 @@
         <v>1180</v>
       </c>
       <c r="K292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -14940,7 +14943,7 @@
         <v>1185</v>
       </c>
       <c r="K293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -14975,7 +14978,7 @@
         <v>1190</v>
       </c>
       <c r="K294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -15010,7 +15013,7 @@
         <v>1195</v>
       </c>
       <c r="K295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -15045,7 +15048,7 @@
         <v>1200</v>
       </c>
       <c r="K296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -15115,7 +15118,7 @@
         <v>1207</v>
       </c>
       <c r="K298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -15150,7 +15153,7 @@
         <v>1212</v>
       </c>
       <c r="K299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -15185,7 +15188,7 @@
         <v>1217</v>
       </c>
       <c r="K300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -15220,7 +15223,7 @@
         <v>1222</v>
       </c>
       <c r="K301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -15255,7 +15258,7 @@
         <v>1227</v>
       </c>
       <c r="K302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -15290,7 +15293,7 @@
         <v>1232</v>
       </c>
       <c r="K303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -15325,10 +15328,10 @@
         <v>1237</v>
       </c>
       <c r="K304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12">
       <c r="A305" t="s">
         <v>1238</v>
       </c>
@@ -15360,10 +15363,10 @@
         <v>1242</v>
       </c>
       <c r="K305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12">
       <c r="A306" t="s">
         <v>1243</v>
       </c>
@@ -15398,7 +15401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:12">
       <c r="A307" t="s">
         <v>1245</v>
       </c>
@@ -15430,18 +15433,21 @@
         <v>1249</v>
       </c>
       <c r="K307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L307" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12">
       <c r="A308" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B308" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C308" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -15453,7 +15459,7 @@
         <v>0.88969017094017089</v>
       </c>
       <c r="G308" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H308">
         <v>0.52</v>
@@ -15462,21 +15468,21 @@
         <v>0.79569999999999996</v>
       </c>
       <c r="J308" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12">
       <c r="A309" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B309" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C309" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -15488,7 +15494,7 @@
         <v>0.91395863315515335</v>
       </c>
       <c r="G309" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H309">
         <v>0.71</v>
@@ -15497,21 +15503,21 @@
         <v>0.9173</v>
       </c>
       <c r="J309" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="K309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12">
       <c r="A310" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B310" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C310" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -15538,15 +15544,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:12">
       <c r="A311" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B311" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C311" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -15558,7 +15564,7 @@
         <v>0.58455728246307592</v>
       </c>
       <c r="G311" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H311">
         <v>0.22</v>
@@ -15567,21 +15573,21 @@
         <v>0.86419999999999997</v>
       </c>
       <c r="J311" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="K311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12">
       <c r="A312" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B312" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C312" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -15593,7 +15599,7 @@
         <v>0.96341746046674104</v>
       </c>
       <c r="G312" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H312">
         <v>0.82</v>
@@ -15602,21 +15608,21 @@
         <v>0.9375</v>
       </c>
       <c r="J312" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="K312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12">
       <c r="A313" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B313" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C313" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -15628,7 +15634,7 @@
         <v>0.78049017672603971</v>
       </c>
       <c r="G313" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H313">
         <v>0.84</v>
@@ -15637,21 +15643,21 @@
         <v>0.94830000000000003</v>
       </c>
       <c r="J313" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="K313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12">
       <c r="A314" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B314" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C314" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -15663,7 +15669,7 @@
         <v>0.90394202898550713</v>
       </c>
       <c r="G314" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H314">
         <v>0.92</v>
@@ -15672,21 +15678,21 @@
         <v>0.96870000000000001</v>
       </c>
       <c r="J314" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="K314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12">
       <c r="A315" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B315" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C315" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -15698,7 +15704,7 @@
         <v>0.87517556179775269</v>
       </c>
       <c r="G315" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H315">
         <v>0.5</v>
@@ -15710,18 +15716,21 @@
         <v>79</v>
       </c>
       <c r="K315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L315" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12">
       <c r="A316" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B316" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C316" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -15733,7 +15742,7 @@
         <v>0.77401692384270782</v>
       </c>
       <c r="G316" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H316">
         <v>0.49</v>
@@ -15742,21 +15751,21 @@
         <v>0.88280000000000003</v>
       </c>
       <c r="J316" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="K316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12">
       <c r="A317" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B317" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C317" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -15768,7 +15777,7 @@
         <v>0.70448824816204658</v>
       </c>
       <c r="G317" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H317">
         <v>0.53</v>
@@ -15777,21 +15786,21 @@
         <v>0.9103</v>
       </c>
       <c r="J317" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="K317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12">
       <c r="A318" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B318" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C318" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -15803,7 +15812,7 @@
         <v>0.8578868267449582</v>
       </c>
       <c r="G318" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -15812,21 +15821,21 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="J318" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="K318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12">
       <c r="A319" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B319" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C319" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -15838,7 +15847,7 @@
         <v>0.98576950809165209</v>
       </c>
       <c r="G319" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H319">
         <v>0.91</v>
@@ -15847,21 +15856,21 @@
         <v>0.96109999999999995</v>
       </c>
       <c r="J319" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="K319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12">
       <c r="A320" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B320" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C320" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -15873,7 +15882,7 @@
         <v>0.99142030393168623</v>
       </c>
       <c r="G320" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H320">
         <v>0.84</v>
@@ -15885,18 +15894,18 @@
         <v>15</v>
       </c>
       <c r="K320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B321" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C321" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -15925,13 +15934,13 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B322" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C322" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -15943,7 +15952,7 @@
         <v>0.95990232827825017</v>
       </c>
       <c r="G322" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H322">
         <v>0.59</v>
@@ -15952,21 +15961,21 @@
         <v>0.8427</v>
       </c>
       <c r="J322" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B323" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C323" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -15978,7 +15987,7 @@
         <v>0.91487850396871861</v>
       </c>
       <c r="G323" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H323">
         <v>0.88</v>
@@ -15987,21 +15996,21 @@
         <v>0.95950000000000002</v>
       </c>
       <c r="J323" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="K323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B324" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C324" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -16013,7 +16022,7 @@
         <v>0.84168421052631581</v>
       </c>
       <c r="G324" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H324">
         <v>0.62</v>
@@ -16022,21 +16031,21 @@
         <v>0.92590000000000006</v>
       </c>
       <c r="J324" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="K324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B325" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C325" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -16048,7 +16057,7 @@
         <v>0.89947226617328602</v>
       </c>
       <c r="G325" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H325">
         <v>0.74</v>
@@ -16057,7 +16066,7 @@
         <v>0.93849999999999989</v>
       </c>
       <c r="J325" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="K325">
         <v>1</v>
@@ -16065,13 +16074,13 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B326" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C326" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -16083,7 +16092,7 @@
         <v>0.98131106566689386</v>
       </c>
       <c r="G326" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H326">
         <v>0.92</v>
@@ -16092,7 +16101,7 @@
         <v>0.98769999999999991</v>
       </c>
       <c r="J326" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="K326">
         <v>1</v>
@@ -16100,13 +16109,13 @@
     </row>
     <row r="327" spans="1:11">
       <c r="A327" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B327" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C327" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -16118,7 +16127,7 @@
         <v>0.78317639673571882</v>
       </c>
       <c r="G327" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H327">
         <v>0.6</v>
@@ -16127,7 +16136,7 @@
         <v>0.7742</v>
       </c>
       <c r="J327" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="K327">
         <v>1</v>

--- a/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
+++ b/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9577A65-E8BD-4A6A-99BF-6F260F68123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D11A307-403C-4366-AE2A-4901798D000E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1343">
   <si>
     <t>IN</t>
   </si>
@@ -4057,13 +4062,16 @@
   </si>
   <si>
     <t>0.7450980342329875</t>
+  </si>
+  <si>
+    <t>SBERT_M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4143,7 +4151,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4443,27 +4451,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L327"/>
+  <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="L324" sqref="L324"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4495,13 +4503,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4533,10 +4544,13 @@
         <v>15</v>
       </c>
       <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4568,10 +4582,13 @@
         <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1181859970092773</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4603,10 +4620,13 @@
         <v>15</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.42357629537582397</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4638,13 +4658,16 @@
         <v>24</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
+        <v>0.86026525497436523</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4676,10 +4699,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1885644793510437</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4711,13 +4737,16 @@
         <v>31</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
+        <v>0.49385064840316772</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4749,10 +4778,13 @@
         <v>37</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.69874262809753418</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -4784,10 +4816,13 @@
         <v>41</v>
       </c>
       <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.50494146347045898</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -4819,10 +4854,13 @@
         <v>46</v>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.51531517505645752</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -4854,10 +4892,13 @@
         <v>51</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.39326810836791992</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -4889,10 +4930,13 @@
         <v>15</v>
       </c>
       <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.70763468742370605</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -4924,10 +4968,13 @@
         <v>58</v>
       </c>
       <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.53479260206222534</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4959,10 +5006,13 @@
         <v>15</v>
       </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.30467879772186279</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -4994,10 +5044,13 @@
         <v>65</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.35884374380111689</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -5029,10 +5082,13 @@
         <v>70</v>
       </c>
       <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.34743630886077881</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -5064,10 +5120,13 @@
         <v>51</v>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.69799304008483887</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -5099,10 +5158,13 @@
         <v>79</v>
       </c>
       <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.42065954208374018</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -5134,10 +5196,13 @@
         <v>70</v>
       </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.31924861669540411</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -5169,10 +5234,13 @@
         <v>65</v>
       </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.66000580787658691</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -5204,10 +5272,13 @@
         <v>15</v>
       </c>
       <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.38020309805870062</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -5239,13 +5310,16 @@
         <v>91</v>
       </c>
       <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3" t="s">
+        <v>0.2268117964267731</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -5277,10 +5351,13 @@
         <v>15</v>
       </c>
       <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.53821885585784912</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -5312,10 +5389,13 @@
         <v>79</v>
       </c>
       <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.29937303066253662</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -5347,10 +5427,13 @@
         <v>70</v>
       </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.33323538303375239</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -5382,10 +5465,13 @@
         <v>106</v>
       </c>
       <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.25814715027809138</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -5417,10 +5503,13 @@
         <v>111</v>
       </c>
       <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>6.9390140473842621E-2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -5452,10 +5541,13 @@
         <v>116</v>
       </c>
       <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.16151383519172671</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -5487,10 +5579,13 @@
         <v>121</v>
       </c>
       <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>0.22600704431533811</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -5522,10 +5617,13 @@
         <v>15</v>
       </c>
       <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>0.71074235439300537</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -5557,10 +5655,13 @@
         <v>15</v>
       </c>
       <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>0.59731650352478027</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>126</v>
       </c>
@@ -5592,10 +5693,13 @@
         <v>15</v>
       </c>
       <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0.26887422800064092</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -5627,10 +5731,13 @@
         <v>132</v>
       </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.2358594536781311</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -5662,10 +5769,13 @@
         <v>15</v>
       </c>
       <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0.80195629596710205</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -5697,10 +5807,13 @@
         <v>139</v>
       </c>
       <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>0.78690451383590698</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -5732,10 +5845,13 @@
         <v>15</v>
       </c>
       <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0.6789783239364624</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -5767,10 +5883,13 @@
         <v>146</v>
       </c>
       <c r="K37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0.65600407123565674</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -5802,10 +5921,13 @@
         <v>146</v>
       </c>
       <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>0.65503072738647461</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -5837,10 +5959,13 @@
         <v>15</v>
       </c>
       <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>0.77248358726501465</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -5872,10 +5997,13 @@
         <v>157</v>
       </c>
       <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>0.60316026210784912</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -5907,10 +6035,13 @@
         <v>15</v>
       </c>
       <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>0.63804352283477783</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -5942,10 +6073,13 @@
         <v>146</v>
       </c>
       <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>0.50734990835189819</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -5977,10 +6111,13 @@
         <v>167</v>
       </c>
       <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>0.81044650077819824</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -6012,10 +6149,13 @@
         <v>146</v>
       </c>
       <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>0.4824526309967041</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -6047,10 +6187,13 @@
         <v>15</v>
       </c>
       <c r="K45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0.28054040670394897</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -6082,10 +6225,13 @@
         <v>178</v>
       </c>
       <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>0.30169868469238281</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -6117,10 +6263,13 @@
         <v>15</v>
       </c>
       <c r="K47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>0.71100533008575439</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -6152,10 +6301,13 @@
         <v>15</v>
       </c>
       <c r="K48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>0.63612484931945801</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -6187,10 +6339,13 @@
         <v>15</v>
       </c>
       <c r="K49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>0.68943256139755249</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -6222,10 +6377,13 @@
         <v>106</v>
       </c>
       <c r="K50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>0.32929986715316772</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -6257,10 +6415,13 @@
         <v>146</v>
       </c>
       <c r="K51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>0.93475127220153809</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -6292,10 +6453,13 @@
         <v>195</v>
       </c>
       <c r="K52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>0.55182969570159912</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>196</v>
       </c>
@@ -6327,10 +6491,13 @@
         <v>79</v>
       </c>
       <c r="K53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>0.76998317241668701</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -6362,10 +6529,13 @@
         <v>204</v>
       </c>
       <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>0.38482099771499628</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>205</v>
       </c>
@@ -6397,10 +6567,13 @@
         <v>15</v>
       </c>
       <c r="K55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>0.79122781753540039</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>207</v>
       </c>
@@ -6432,10 +6605,13 @@
         <v>15</v>
       </c>
       <c r="K56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>0.37121278047561651</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>209</v>
       </c>
@@ -6467,10 +6643,13 @@
         <v>146</v>
       </c>
       <c r="K57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>0.73168468475341797</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -6502,10 +6681,13 @@
         <v>15</v>
       </c>
       <c r="K58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>0.67653965950012207</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>214</v>
       </c>
@@ -6537,13 +6719,16 @@
         <v>218</v>
       </c>
       <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59" t="s">
+        <v>0.72577261924743652</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>220</v>
       </c>
@@ -6575,13 +6760,16 @@
         <v>218</v>
       </c>
       <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
+        <v>0.71193772554397583</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>225</v>
       </c>
@@ -6613,10 +6801,13 @@
         <v>15</v>
       </c>
       <c r="K61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>0.41661351919174189</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>226</v>
       </c>
@@ -6648,10 +6839,13 @@
         <v>15</v>
       </c>
       <c r="K62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>0.61373180150985718</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>228</v>
       </c>
@@ -6683,10 +6877,13 @@
         <v>15</v>
       </c>
       <c r="K63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>0.45664516091346741</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>230</v>
       </c>
@@ -6718,10 +6915,13 @@
         <v>79</v>
       </c>
       <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>0.73823696374893188</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>234</v>
       </c>
@@ -6753,10 +6953,13 @@
         <v>106</v>
       </c>
       <c r="K65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>0.42069056630134583</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>238</v>
       </c>
@@ -6788,10 +6991,13 @@
         <v>15</v>
       </c>
       <c r="K66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>0.43698084354400629</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>240</v>
       </c>
@@ -6823,10 +7029,13 @@
         <v>15</v>
       </c>
       <c r="K67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>0.31880208849906921</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>242</v>
       </c>
@@ -6858,10 +7067,13 @@
         <v>246</v>
       </c>
       <c r="K68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>0.3268342912197113</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>247</v>
       </c>
@@ -6893,10 +7105,13 @@
         <v>251</v>
       </c>
       <c r="K69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>0.25564795732498169</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>252</v>
       </c>
@@ -6928,10 +7143,13 @@
         <v>256</v>
       </c>
       <c r="K70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>0.13597995042800901</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>257</v>
       </c>
@@ -6963,13 +7181,16 @@
         <v>91</v>
       </c>
       <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
+        <v>0.42722398042678827</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -7001,10 +7222,13 @@
         <v>106</v>
       </c>
       <c r="K72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>0.35542672872543329</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>266</v>
       </c>
@@ -7036,10 +7260,13 @@
         <v>15</v>
       </c>
       <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>0.49297827482223511</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>268</v>
       </c>
@@ -7071,10 +7298,13 @@
         <v>272</v>
       </c>
       <c r="K74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>0.30845129489898682</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>273</v>
       </c>
@@ -7106,13 +7336,16 @@
         <v>277</v>
       </c>
       <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75" t="s">
+        <v>0.2228412330150604</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>279</v>
       </c>
@@ -7144,13 +7377,16 @@
         <v>283</v>
       </c>
       <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76" s="3" t="s">
+        <v>0.2959442138671875</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>284</v>
       </c>
@@ -7182,13 +7418,16 @@
         <v>288</v>
       </c>
       <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77" t="s">
+        <v>0.2519000768661499</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>289</v>
       </c>
@@ -7220,10 +7459,13 @@
         <v>292</v>
       </c>
       <c r="K78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>0.50906080007553101</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>293</v>
       </c>
@@ -7255,10 +7497,13 @@
         <v>297</v>
       </c>
       <c r="K79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>0.26760679483413702</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>298</v>
       </c>
@@ -7290,13 +7535,16 @@
         <v>302</v>
       </c>
       <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80" t="s">
+        <v>0.21265652775764471</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>304</v>
       </c>
@@ -7328,10 +7576,13 @@
         <v>308</v>
       </c>
       <c r="K81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>0.18982639908790591</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>309</v>
       </c>
@@ -7363,10 +7614,13 @@
         <v>313</v>
       </c>
       <c r="K82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>0.35174447298049932</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>314</v>
       </c>
@@ -7398,10 +7652,13 @@
         <v>318</v>
       </c>
       <c r="K83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>0.34643125534057623</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>319</v>
       </c>
@@ -7433,10 +7690,13 @@
         <v>297</v>
       </c>
       <c r="K84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>0.32974594831466669</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>323</v>
       </c>
@@ -7468,10 +7728,13 @@
         <v>15</v>
       </c>
       <c r="K85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>0.4555286169052124</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>325</v>
       </c>
@@ -7503,10 +7766,13 @@
         <v>15</v>
       </c>
       <c r="K86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>0.59988021850585938</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>327</v>
       </c>
@@ -7538,13 +7804,16 @@
         <v>204</v>
       </c>
       <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87" t="s">
+        <v>0.37380099296569819</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>331</v>
       </c>
@@ -7576,10 +7845,13 @@
         <v>15</v>
       </c>
       <c r="K88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>0.28016451001167297</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>333</v>
       </c>
@@ -7611,10 +7883,13 @@
         <v>91</v>
       </c>
       <c r="K89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>0.14441955089569089</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>336</v>
       </c>
@@ -7646,10 +7921,13 @@
         <v>15</v>
       </c>
       <c r="K90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>0.46049273014068598</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>338</v>
       </c>
@@ -7681,10 +7959,13 @@
         <v>15</v>
       </c>
       <c r="K91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>0.49734410643577581</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>340</v>
       </c>
@@ -7716,10 +7997,13 @@
         <v>15</v>
       </c>
       <c r="K92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>0.32231736183166498</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>342</v>
       </c>
@@ -7751,10 +8035,13 @@
         <v>70</v>
       </c>
       <c r="K93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>0.35707920789718628</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>346</v>
       </c>
@@ -7786,10 +8073,13 @@
         <v>15</v>
       </c>
       <c r="K94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>0.43544423580169678</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>348</v>
       </c>
@@ -7821,10 +8111,13 @@
         <v>15</v>
       </c>
       <c r="K95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>0.30203750729560852</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>350</v>
       </c>
@@ -7856,10 +8149,13 @@
         <v>15</v>
       </c>
       <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>0.26635617017745972</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>352</v>
       </c>
@@ -7891,10 +8187,13 @@
         <v>15</v>
       </c>
       <c r="K97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>0.22044847905635831</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>354</v>
       </c>
@@ -7926,10 +8225,13 @@
         <v>15</v>
       </c>
       <c r="K98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>0.39190226793289179</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>356</v>
       </c>
@@ -7961,10 +8263,13 @@
         <v>15</v>
       </c>
       <c r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>0.18951140344142911</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>358</v>
       </c>
@@ -7996,10 +8301,13 @@
         <v>313</v>
       </c>
       <c r="K100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>0.28771558403968811</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>361</v>
       </c>
@@ -8031,10 +8339,13 @@
         <v>15</v>
       </c>
       <c r="K101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>0.25502127408981318</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>363</v>
       </c>
@@ -8066,10 +8377,13 @@
         <v>15</v>
       </c>
       <c r="K102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>0.23301152884960169</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>365</v>
       </c>
@@ -8101,13 +8415,16 @@
         <v>369</v>
       </c>
       <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103" s="3" t="s">
+        <v>0.22514501214027399</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>370</v>
       </c>
@@ -8139,10 +8456,13 @@
         <v>374</v>
       </c>
       <c r="K104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>0.58961564302444458</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>375</v>
       </c>
@@ -8174,13 +8494,16 @@
         <v>379</v>
       </c>
       <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105" t="s">
+        <v>0.56613332033157349</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>381</v>
       </c>
@@ -8212,10 +8535,13 @@
         <v>385</v>
       </c>
       <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>0.39598274230957031</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>386</v>
       </c>
@@ -8247,10 +8573,13 @@
         <v>390</v>
       </c>
       <c r="K107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>0.66053056716918945</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>391</v>
       </c>
@@ -8282,10 +8611,13 @@
         <v>15</v>
       </c>
       <c r="K108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>0.30692577362060552</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>393</v>
       </c>
@@ -8317,10 +8649,13 @@
         <v>397</v>
       </c>
       <c r="K109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>0.41428864002227778</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>398</v>
       </c>
@@ -8352,10 +8687,13 @@
         <v>402</v>
       </c>
       <c r="K110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>0.58840179443359375</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>403</v>
       </c>
@@ -8387,10 +8725,13 @@
         <v>407</v>
       </c>
       <c r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>0.64104002714157104</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>408</v>
       </c>
@@ -8422,10 +8763,13 @@
         <v>412</v>
       </c>
       <c r="K112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>0.53150427341461182</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>413</v>
       </c>
@@ -8457,10 +8801,13 @@
         <v>15</v>
       </c>
       <c r="K113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>0.61629319190979004</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>415</v>
       </c>
@@ -8492,10 +8839,13 @@
         <v>15</v>
       </c>
       <c r="K114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>0.71033483743667603</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>417</v>
       </c>
@@ -8527,10 +8877,13 @@
         <v>15</v>
       </c>
       <c r="K115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>0.33187955617904658</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -8562,10 +8915,13 @@
         <v>15</v>
       </c>
       <c r="K116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>0.23938570916652679</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -8597,10 +8953,13 @@
         <v>15</v>
       </c>
       <c r="K117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>0.27508819103240972</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>422</v>
       </c>
@@ -8632,13 +8991,16 @@
         <v>426</v>
       </c>
       <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="L118" s="2" t="s">
+        <v>0.7238847017288208</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>427</v>
       </c>
@@ -8670,10 +9032,13 @@
         <v>15</v>
       </c>
       <c r="K119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+        <v>0.42488592863082891</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>429</v>
       </c>
@@ -8705,10 +9070,13 @@
         <v>111</v>
       </c>
       <c r="K120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>0.35060566663742071</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>432</v>
       </c>
@@ -8740,10 +9108,13 @@
         <v>15</v>
       </c>
       <c r="K121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+        <v>0.30472415685653692</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>434</v>
       </c>
@@ -8775,10 +9146,13 @@
         <v>15</v>
       </c>
       <c r="K122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>0.24815197288990021</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>436</v>
       </c>
@@ -8810,10 +9184,13 @@
         <v>440</v>
       </c>
       <c r="K123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>0.51345419883728027</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>441</v>
       </c>
@@ -8845,13 +9222,16 @@
         <v>445</v>
       </c>
       <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124" t="s">
+        <v>0.32395696640014648</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>447</v>
       </c>
@@ -8883,10 +9263,13 @@
         <v>15</v>
       </c>
       <c r="K125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+        <v>0.28199657797813421</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>449</v>
       </c>
@@ -8918,10 +9301,13 @@
         <v>453</v>
       </c>
       <c r="K126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+        <v>0.28789713978767401</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>454</v>
       </c>
@@ -8953,13 +9339,16 @@
         <v>458</v>
       </c>
       <c r="K127">
-        <v>1</v>
-      </c>
-      <c r="L127" s="2" t="s">
+        <v>0.34470587968826288</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>459</v>
       </c>
@@ -8991,10 +9380,13 @@
         <v>463</v>
       </c>
       <c r="K128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>0.25058272480964661</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>464</v>
       </c>
@@ -9026,10 +9418,13 @@
         <v>468</v>
       </c>
       <c r="K129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>0.34775996208190918</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>469</v>
       </c>
@@ -9061,10 +9456,13 @@
         <v>412</v>
       </c>
       <c r="K130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+        <v>0.79552525281906128</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>472</v>
       </c>
@@ -9096,10 +9494,13 @@
         <v>15</v>
       </c>
       <c r="K131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>0.39432424306869512</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>474</v>
       </c>
@@ -9131,10 +9532,13 @@
         <v>15</v>
       </c>
       <c r="K132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+        <v>0.21783062815666199</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>476</v>
       </c>
@@ -9166,10 +9570,13 @@
         <v>15</v>
       </c>
       <c r="K133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>478</v>
       </c>
@@ -9201,10 +9608,13 @@
         <v>15</v>
       </c>
       <c r="K134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+        <v>0.59707546234130859</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>480</v>
       </c>
@@ -9236,10 +9646,13 @@
         <v>484</v>
       </c>
       <c r="K135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>0.27169948816299438</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>485</v>
       </c>
@@ -9271,10 +9684,13 @@
         <v>489</v>
       </c>
       <c r="K136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+        <v>0.53909933567047119</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>490</v>
       </c>
@@ -9306,10 +9722,13 @@
         <v>494</v>
       </c>
       <c r="K137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+        <v>0.27941399812698359</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>495</v>
       </c>
@@ -9341,10 +9760,13 @@
         <v>51</v>
       </c>
       <c r="K138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+        <v>0.55438476800918579</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>499</v>
       </c>
@@ -9376,10 +9798,13 @@
         <v>503</v>
       </c>
       <c r="K139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+        <v>0.99848794937133789</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>504</v>
       </c>
@@ -9411,10 +9836,13 @@
         <v>508</v>
       </c>
       <c r="K140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+        <v>0.67683780193328857</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>509</v>
       </c>
@@ -9446,10 +9874,13 @@
         <v>508</v>
       </c>
       <c r="K141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
+        <v>0.57158774137496948</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>510</v>
       </c>
@@ -9481,13 +9912,16 @@
         <v>514</v>
       </c>
       <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142" t="s">
+        <v>0.38295441865921021</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>516</v>
       </c>
@@ -9519,10 +9953,13 @@
         <v>520</v>
       </c>
       <c r="K143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+        <v>0.65660274028778076</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>521</v>
       </c>
@@ -9554,10 +9991,13 @@
         <v>525</v>
       </c>
       <c r="K144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+        <v>0.56668275594711304</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>526</v>
       </c>
@@ -9589,10 +10029,13 @@
         <v>529</v>
       </c>
       <c r="K145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+        <v>0.67990422248840332</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>530</v>
       </c>
@@ -9624,13 +10067,16 @@
         <v>79</v>
       </c>
       <c r="K146">
-        <v>1</v>
-      </c>
-      <c r="L146" t="s">
+        <v>0.34209173917770391</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>535</v>
       </c>
@@ -9662,10 +10108,13 @@
         <v>70</v>
       </c>
       <c r="K147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+        <v>0.63468754291534424</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>539</v>
       </c>
@@ -9697,10 +10146,13 @@
         <v>543</v>
       </c>
       <c r="K148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+        <v>0.66440081596374512</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>544</v>
       </c>
@@ -9732,10 +10184,13 @@
         <v>195</v>
       </c>
       <c r="K149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
+        <v>0.68762266635894775</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>548</v>
       </c>
@@ -9767,10 +10222,13 @@
         <v>552</v>
       </c>
       <c r="K150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
+        <v>0.71822082996368408</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>553</v>
       </c>
@@ -9802,10 +10260,13 @@
         <v>15</v>
       </c>
       <c r="K151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+        <v>0.45317128300666809</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>555</v>
       </c>
@@ -9837,10 +10298,13 @@
         <v>558</v>
       </c>
       <c r="K152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+        <v>0.4126032292842865</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>559</v>
       </c>
@@ -9872,13 +10336,16 @@
         <v>563</v>
       </c>
       <c r="K153">
-        <v>1</v>
-      </c>
-      <c r="L153" t="s">
+        <v>0.43494850397109991</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>565</v>
       </c>
@@ -9910,10 +10377,13 @@
         <v>204</v>
       </c>
       <c r="K154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+        <v>0.55370330810546875</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>569</v>
       </c>
@@ -9945,13 +10415,16 @@
         <v>573</v>
       </c>
       <c r="K155">
-        <v>1</v>
-      </c>
-      <c r="L155" t="s">
+        <v>0.9745863676071167</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>574</v>
       </c>
@@ -9983,13 +10456,16 @@
         <v>563</v>
       </c>
       <c r="K156">
-        <v>1</v>
-      </c>
-      <c r="L156" t="s">
+        <v>0.32761913537979132</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>578</v>
       </c>
@@ -10021,10 +10497,13 @@
         <v>582</v>
       </c>
       <c r="K157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+        <v>0.49691510200500488</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>583</v>
       </c>
@@ -10056,13 +10535,16 @@
         <v>587</v>
       </c>
       <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="s">
+        <v>0.40985953807830811</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>589</v>
       </c>
@@ -10094,10 +10576,13 @@
         <v>593</v>
       </c>
       <c r="K159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
+        <v>0.22294718027114871</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>594</v>
       </c>
@@ -10129,10 +10614,13 @@
         <v>58</v>
       </c>
       <c r="K160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
+        <v>0.3430296778678894</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>598</v>
       </c>
@@ -10164,10 +10652,13 @@
         <v>15</v>
       </c>
       <c r="K161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
+        <v>0.32069015502929688</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>600</v>
       </c>
@@ -10199,10 +10690,13 @@
         <v>604</v>
       </c>
       <c r="K162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
+        <v>0.87082898616790771</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>605</v>
       </c>
@@ -10234,10 +10728,13 @@
         <v>609</v>
       </c>
       <c r="K163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
+        <v>0.17160139977931979</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>610</v>
       </c>
@@ -10269,13 +10766,16 @@
         <v>614</v>
       </c>
       <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164" s="2" t="s">
+        <v>5.6429523974657059E-2</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>616</v>
       </c>
@@ -10309,8 +10809,11 @@
       <c r="K165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="L165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>618</v>
       </c>
@@ -10342,10 +10845,13 @@
         <v>15</v>
       </c>
       <c r="K166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
+        <v>0.39954859018325811</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>620</v>
       </c>
@@ -10377,10 +10883,13 @@
         <v>15</v>
       </c>
       <c r="K167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
+        <v>0.26636409759521479</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>622</v>
       </c>
@@ -10412,10 +10921,13 @@
         <v>146</v>
       </c>
       <c r="K168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
+        <v>0.46984794735908508</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>626</v>
       </c>
@@ -10447,10 +10959,13 @@
         <v>15</v>
       </c>
       <c r="K169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
+        <v>0.34487032890319819</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>628</v>
       </c>
@@ -10482,10 +10997,13 @@
         <v>15</v>
       </c>
       <c r="K170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
+        <v>0.34223568439483643</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>630</v>
       </c>
@@ -10517,10 +11035,13 @@
         <v>15</v>
       </c>
       <c r="K171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
+        <v>0.2334054708480835</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>632</v>
       </c>
@@ -10552,10 +11073,13 @@
         <v>15</v>
       </c>
       <c r="K172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
+        <v>0.18958061933517459</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>634</v>
       </c>
@@ -10587,10 +11111,13 @@
         <v>15</v>
       </c>
       <c r="K173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
+        <v>0.58801692724227905</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>636</v>
       </c>
@@ -10622,10 +11149,13 @@
         <v>15</v>
       </c>
       <c r="K174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
+        <v>0.93104654550552368</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>638</v>
       </c>
@@ -10657,13 +11187,16 @@
         <v>642</v>
       </c>
       <c r="K175">
-        <v>1</v>
-      </c>
-      <c r="L175" t="s">
+        <v>0.55362939834594727</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>644</v>
       </c>
@@ -10695,10 +11228,13 @@
         <v>15</v>
       </c>
       <c r="K176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
+        <v>0.5234370231628418</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>646</v>
       </c>
@@ -10730,10 +11266,13 @@
         <v>650</v>
       </c>
       <c r="K177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
+        <v>0.3591352105140686</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>651</v>
       </c>
@@ -10765,10 +11304,13 @@
         <v>139</v>
       </c>
       <c r="K178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
+        <v>0.46262907981872559</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>655</v>
       </c>
@@ -10800,10 +11342,13 @@
         <v>15</v>
       </c>
       <c r="K179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
+        <v>0.73796564340591431</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>657</v>
       </c>
@@ -10835,10 +11380,13 @@
         <v>661</v>
       </c>
       <c r="K180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
+        <v>0.4326971173286438</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>662</v>
       </c>
@@ -10870,10 +11418,13 @@
         <v>15</v>
       </c>
       <c r="K181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
+        <v>0.24582481384277341</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>664</v>
       </c>
@@ -10905,10 +11456,13 @@
         <v>15</v>
       </c>
       <c r="K182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
+        <v>0.1263590008020401</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>666</v>
       </c>
@@ -10940,10 +11494,13 @@
         <v>15</v>
       </c>
       <c r="K183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
+        <v>0.55823028087615967</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>668</v>
       </c>
@@ -10975,13 +11532,16 @@
         <v>51</v>
       </c>
       <c r="K184">
-        <v>0</v>
-      </c>
-      <c r="L184" t="s">
+        <v>0.84808218479156494</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>673</v>
       </c>
@@ -11013,13 +11573,16 @@
         <v>51</v>
       </c>
       <c r="K185">
-        <v>0</v>
-      </c>
-      <c r="L185" t="s">
+        <v>0.8584783673286438</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>676</v>
       </c>
@@ -11051,10 +11614,13 @@
         <v>15</v>
       </c>
       <c r="K186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
+        <v>0.64211463928222656</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>678</v>
       </c>
@@ -11086,10 +11652,13 @@
         <v>15</v>
       </c>
       <c r="K187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12">
+        <v>0.67799818515777588</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>680</v>
       </c>
@@ -11121,10 +11690,13 @@
         <v>15</v>
       </c>
       <c r="K188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
+        <v>0.40644437074661249</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>682</v>
       </c>
@@ -11156,10 +11728,13 @@
         <v>15</v>
       </c>
       <c r="K189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
+        <v>0.48064726591110229</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>684</v>
       </c>
@@ -11191,10 +11766,13 @@
         <v>15</v>
       </c>
       <c r="K190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
+        <v>0.28186672925949102</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>686</v>
       </c>
@@ -11226,10 +11804,13 @@
         <v>167</v>
       </c>
       <c r="K191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
+        <v>0.6629793643951416</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>690</v>
       </c>
@@ -11261,10 +11842,13 @@
         <v>15</v>
       </c>
       <c r="K192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
+        <v>0.55261242389678955</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>692</v>
       </c>
@@ -11296,10 +11880,13 @@
         <v>15</v>
       </c>
       <c r="K193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12">
+        <v>0.51050329208374023</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>694</v>
       </c>
@@ -11331,10 +11918,13 @@
         <v>15</v>
       </c>
       <c r="K194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
+        <v>0.54498058557510376</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>696</v>
       </c>
@@ -11366,10 +11956,13 @@
         <v>15</v>
       </c>
       <c r="K195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>698</v>
       </c>
@@ -11401,10 +11994,13 @@
         <v>15</v>
       </c>
       <c r="K196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12">
+        <v>0.61558520793914795</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>700</v>
       </c>
@@ -11436,10 +12032,13 @@
         <v>15</v>
       </c>
       <c r="K197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12">
+        <v>0.52362900972366333</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>702</v>
       </c>
@@ -11471,10 +12070,13 @@
         <v>15</v>
       </c>
       <c r="K198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12">
+        <v>0.26212885975837708</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>704</v>
       </c>
@@ -11506,10 +12108,13 @@
         <v>708</v>
       </c>
       <c r="K199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12">
+        <v>0.56987011432647705</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>709</v>
       </c>
@@ -11541,13 +12146,16 @@
         <v>713</v>
       </c>
       <c r="K200">
-        <v>1</v>
-      </c>
-      <c r="L200" s="4" t="s">
+        <v>0.1967816948890686</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200" s="4" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>715</v>
       </c>
@@ -11579,10 +12187,13 @@
         <v>719</v>
       </c>
       <c r="K201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12">
+        <v>0.5134161114692688</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>720</v>
       </c>
@@ -11614,13 +12225,16 @@
         <v>724</v>
       </c>
       <c r="K202">
-        <v>1</v>
-      </c>
-      <c r="L202" t="s">
+        <v>0.53976380825042725</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>726</v>
       </c>
@@ -11652,10 +12266,13 @@
         <v>730</v>
       </c>
       <c r="K203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12">
+        <v>0.41956955194473272</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>731</v>
       </c>
@@ -11687,10 +12304,13 @@
         <v>734</v>
       </c>
       <c r="K204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12">
+        <v>0.61225628852844238</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>735</v>
       </c>
@@ -11722,13 +12342,16 @@
         <v>739</v>
       </c>
       <c r="K205">
-        <v>1</v>
-      </c>
-      <c r="L205" t="s">
+        <v>0.51548326015472412</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>741</v>
       </c>
@@ -11760,10 +12383,13 @@
         <v>743</v>
       </c>
       <c r="K206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12">
+        <v>0.35583764314651489</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>744</v>
       </c>
@@ -11795,10 +12421,13 @@
         <v>748</v>
       </c>
       <c r="K207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
+        <v>0.51339626312255859</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>749</v>
       </c>
@@ -11830,13 +12459,16 @@
         <v>753</v>
       </c>
       <c r="K208">
-        <v>1</v>
-      </c>
-      <c r="L208" t="s">
+        <v>0.38227164745330811</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>755</v>
       </c>
@@ -11868,13 +12500,16 @@
         <v>759</v>
       </c>
       <c r="K209">
-        <v>1</v>
-      </c>
-      <c r="L209" t="s">
+        <v>0.2263642102479935</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>761</v>
       </c>
@@ -11906,10 +12541,13 @@
         <v>765</v>
       </c>
       <c r="K210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12">
+        <v>0.61333000659942627</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>766</v>
       </c>
@@ -11941,10 +12579,13 @@
         <v>15</v>
       </c>
       <c r="K211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12">
+        <v>0.67938172817230225</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>768</v>
       </c>
@@ -11976,10 +12617,13 @@
         <v>15</v>
       </c>
       <c r="K212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12">
+        <v>0.43922910094261169</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>770</v>
       </c>
@@ -12011,10 +12655,13 @@
         <v>15</v>
       </c>
       <c r="K213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12">
+        <v>0.53288918733596802</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>772</v>
       </c>
@@ -12046,10 +12693,13 @@
         <v>251</v>
       </c>
       <c r="K214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12">
+        <v>0.29099339246749878</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>776</v>
       </c>
@@ -12081,13 +12731,16 @@
         <v>780</v>
       </c>
       <c r="K215">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="s">
+        <v>0.44406664371490479</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>782</v>
       </c>
@@ -12119,13 +12772,16 @@
         <v>786</v>
       </c>
       <c r="K216">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="s">
+        <v>0.7626761794090271</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>787</v>
       </c>
@@ -12157,13 +12813,16 @@
         <v>791</v>
       </c>
       <c r="K217">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="s">
+        <v>0.55253458023071289</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>792</v>
       </c>
@@ -12195,13 +12854,16 @@
         <v>791</v>
       </c>
       <c r="K218">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="s">
+        <v>0.92204481363296509</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>796</v>
       </c>
@@ -12233,13 +12895,16 @@
         <v>791</v>
       </c>
       <c r="K219">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="s">
+        <v>0.43233513832092291</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>800</v>
       </c>
@@ -12271,13 +12936,16 @@
         <v>786</v>
       </c>
       <c r="K220">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="s">
+        <v>0.39333617687225342</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>804</v>
       </c>
@@ -12309,10 +12977,13 @@
         <v>15</v>
       </c>
       <c r="K221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12">
+        <v>0.32763963937759399</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>806</v>
       </c>
@@ -12344,10 +13015,13 @@
         <v>65</v>
       </c>
       <c r="K222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12">
+        <v>0.97753298282623291</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>810</v>
       </c>
@@ -12379,10 +13053,13 @@
         <v>812</v>
       </c>
       <c r="K223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12">
+        <v>0.36844757199287409</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>813</v>
       </c>
@@ -12414,13 +13091,16 @@
         <v>817</v>
       </c>
       <c r="K224">
-        <v>0</v>
-      </c>
-      <c r="L224" t="s">
+        <v>0.37150174379348749</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>819</v>
       </c>
@@ -12452,13 +13132,16 @@
         <v>823</v>
       </c>
       <c r="K225">
-        <v>1</v>
-      </c>
-      <c r="L225" t="s">
+        <v>0.69207143783569336</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>825</v>
       </c>
@@ -12490,13 +13173,16 @@
         <v>829</v>
       </c>
       <c r="K226">
-        <v>0</v>
-      </c>
-      <c r="L226" t="s">
+        <v>0.64717090129852295</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>831</v>
       </c>
@@ -12528,10 +13214,13 @@
         <v>15</v>
       </c>
       <c r="K227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12">
+        <v>0.47415095567703253</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>833</v>
       </c>
@@ -12563,13 +13252,16 @@
         <v>837</v>
       </c>
       <c r="K228">
-        <v>1</v>
-      </c>
-      <c r="L228" t="s">
+        <v>0.47813770174980158</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>839</v>
       </c>
@@ -12601,10 +13293,13 @@
         <v>843</v>
       </c>
       <c r="K229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12">
+        <v>0.64883363246917725</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>844</v>
       </c>
@@ -12636,10 +13331,13 @@
         <v>848</v>
       </c>
       <c r="K230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12">
+        <v>0.66796213388442993</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>849</v>
       </c>
@@ -12671,10 +13369,13 @@
         <v>853</v>
       </c>
       <c r="K231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12">
+        <v>0.45903536677360529</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>854</v>
       </c>
@@ -12706,13 +13407,16 @@
         <v>858</v>
       </c>
       <c r="K232">
-        <v>1</v>
-      </c>
-      <c r="L232" t="s">
+        <v>0.47074827551841741</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>860</v>
       </c>
@@ -12744,13 +13448,16 @@
         <v>864</v>
       </c>
       <c r="K233">
-        <v>0</v>
-      </c>
-      <c r="L233" t="s">
+        <v>0.41645467281341553</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>866</v>
       </c>
@@ -12782,13 +13489,16 @@
         <v>870</v>
       </c>
       <c r="K234">
-        <v>0</v>
-      </c>
-      <c r="L234" t="s">
+        <v>0.40643379092216492</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>871</v>
       </c>
@@ -12820,13 +13530,16 @@
         <v>875</v>
       </c>
       <c r="K235">
-        <v>1</v>
-      </c>
-      <c r="L235" s="2" t="s">
+        <v>0.59868699312210083</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235" s="2" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>877</v>
       </c>
@@ -12858,13 +13571,16 @@
         <v>881</v>
       </c>
       <c r="K236">
-        <v>0</v>
-      </c>
-      <c r="L236" t="s">
+        <v>0.38410216569900513</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>883</v>
       </c>
@@ -12896,10 +13612,13 @@
         <v>887</v>
       </c>
       <c r="K237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12">
+        <v>0.40954941511154169</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>888</v>
       </c>
@@ -12931,13 +13650,16 @@
         <v>892</v>
       </c>
       <c r="K238">
-        <v>1</v>
-      </c>
-      <c r="L238" t="s">
+        <v>0.31044745445251459</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>894</v>
       </c>
@@ -12969,10 +13691,13 @@
         <v>898</v>
       </c>
       <c r="K239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12">
+        <v>0.49671861529350281</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>899</v>
       </c>
@@ -13004,10 +13729,13 @@
         <v>903</v>
       </c>
       <c r="K240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:12">
+        <v>0.42964053153991699</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>904</v>
       </c>
@@ -13039,13 +13767,16 @@
         <v>908</v>
       </c>
       <c r="K241">
-        <v>1</v>
-      </c>
-      <c r="L241" t="s">
+        <v>0.68599855899810791</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>910</v>
       </c>
@@ -13077,13 +13808,16 @@
         <v>914</v>
       </c>
       <c r="K242">
-        <v>1</v>
-      </c>
-      <c r="L242" t="s">
+        <v>0.35614645481109619</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>916</v>
       </c>
@@ -13115,13 +13849,16 @@
         <v>920</v>
       </c>
       <c r="K243">
-        <v>0</v>
-      </c>
-      <c r="L243" t="s">
+        <v>0.59766817092895508</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>922</v>
       </c>
@@ -13153,13 +13890,16 @@
         <v>926</v>
       </c>
       <c r="K244">
-        <v>0</v>
-      </c>
-      <c r="L244" t="s">
+        <v>0.67374008893966675</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>928</v>
       </c>
@@ -13191,13 +13931,16 @@
         <v>932</v>
       </c>
       <c r="K245">
-        <v>0</v>
-      </c>
-      <c r="L245" t="s">
+        <v>0.53555315732955933</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>934</v>
       </c>
@@ -13229,10 +13972,13 @@
         <v>938</v>
       </c>
       <c r="K246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12">
+        <v>0.41764503717422491</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>939</v>
       </c>
@@ -13264,13 +14010,16 @@
         <v>943</v>
       </c>
       <c r="K247">
-        <v>0</v>
-      </c>
-      <c r="L247" t="s">
+        <v>0.31512439250946039</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>945</v>
       </c>
@@ -13302,13 +14051,16 @@
         <v>949</v>
       </c>
       <c r="K248">
-        <v>0</v>
-      </c>
-      <c r="L248" t="s">
+        <v>0.42546975612640381</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>950</v>
       </c>
@@ -13340,13 +14092,16 @@
         <v>954</v>
       </c>
       <c r="K249">
-        <v>1</v>
-      </c>
-      <c r="L249" t="s">
+        <v>0.40975344181060791</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>956</v>
       </c>
@@ -13378,13 +14133,16 @@
         <v>167</v>
       </c>
       <c r="K250">
-        <v>0</v>
-      </c>
-      <c r="L250" t="s">
+        <v>0.36011508107185358</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>961</v>
       </c>
@@ -13416,13 +14174,16 @@
         <v>965</v>
       </c>
       <c r="K251">
-        <v>0</v>
-      </c>
-      <c r="L251" t="s">
+        <v>0.25100380182266241</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>967</v>
       </c>
@@ -13454,13 +14215,16 @@
         <v>971</v>
       </c>
       <c r="K252">
-        <v>0</v>
-      </c>
-      <c r="L252" t="s">
+        <v>0.36726194620132452</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>973</v>
       </c>
@@ -13492,13 +14256,16 @@
         <v>977</v>
       </c>
       <c r="K253">
-        <v>1</v>
-      </c>
-      <c r="L253" t="s">
+        <v>0.64260566234588623</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>979</v>
       </c>
@@ -13530,13 +14297,16 @@
         <v>983</v>
       </c>
       <c r="K254">
-        <v>0</v>
-      </c>
-      <c r="L254" t="s">
+        <v>0.24508339166641241</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>984</v>
       </c>
@@ -13568,13 +14338,16 @@
         <v>988</v>
       </c>
       <c r="K255">
-        <v>1</v>
-      </c>
-      <c r="L255" t="s">
+        <v>0.52885878086090088</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="M255" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>990</v>
       </c>
@@ -13606,10 +14379,13 @@
         <v>256</v>
       </c>
       <c r="K256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12">
+        <v>0.57026016712188721</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>994</v>
       </c>
@@ -13641,13 +14417,16 @@
         <v>998</v>
       </c>
       <c r="K257">
-        <v>1</v>
-      </c>
-      <c r="L257" t="s">
+        <v>0.46859318017959589</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1000</v>
       </c>
@@ -13679,10 +14458,13 @@
         <v>1004</v>
       </c>
       <c r="K258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12">
+        <v>0.42779353260993958</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1005</v>
       </c>
@@ -13714,13 +14496,16 @@
         <v>1009</v>
       </c>
       <c r="K259">
-        <v>0</v>
-      </c>
-      <c r="L259" t="s">
+        <v>0.20599949359893799</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1010</v>
       </c>
@@ -13752,13 +14537,16 @@
         <v>1014</v>
       </c>
       <c r="K260">
-        <v>1</v>
-      </c>
-      <c r="L260" t="s">
+        <v>0.51224881410598755</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1016</v>
       </c>
@@ -13790,10 +14578,13 @@
         <v>1020</v>
       </c>
       <c r="K261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12">
+        <v>0.32489222288131708</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1021</v>
       </c>
@@ -13825,10 +14616,13 @@
         <v>1025</v>
       </c>
       <c r="K262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12">
+        <v>0.40073829889297491</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1026</v>
       </c>
@@ -13860,13 +14654,16 @@
         <v>1030</v>
       </c>
       <c r="K263">
-        <v>1</v>
-      </c>
-      <c r="L263" t="s">
+        <v>0.50709599256515503</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1032</v>
       </c>
@@ -13898,10 +14695,13 @@
         <v>1036</v>
       </c>
       <c r="K264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12">
+        <v>0.37960085272789001</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1037</v>
       </c>
@@ -13933,13 +14733,16 @@
         <v>1041</v>
       </c>
       <c r="K265">
-        <v>0</v>
-      </c>
-      <c r="L265" t="s">
+        <v>0.37084943056106567</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1043</v>
       </c>
@@ -13971,10 +14774,13 @@
         <v>1047</v>
       </c>
       <c r="K266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12">
+        <v>0.36804550886154169</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1048</v>
       </c>
@@ -14006,10 +14812,13 @@
         <v>1052</v>
       </c>
       <c r="K267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12">
+        <v>0.4043332040309906</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1053</v>
       </c>
@@ -14041,10 +14850,13 @@
         <v>1057</v>
       </c>
       <c r="K268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12">
+        <v>0.69023704528808594</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1058</v>
       </c>
@@ -14076,10 +14888,13 @@
         <v>1062</v>
       </c>
       <c r="K269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12">
+        <v>0.47563314437866211</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1063</v>
       </c>
@@ -14111,13 +14926,16 @@
         <v>1067</v>
       </c>
       <c r="K270">
-        <v>1</v>
-      </c>
-      <c r="L270" t="s">
+        <v>0.42990374565124512</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1069</v>
       </c>
@@ -14149,13 +14967,16 @@
         <v>1073</v>
       </c>
       <c r="K271">
-        <v>1</v>
-      </c>
-      <c r="L271" t="s">
+        <v>0.26607242226600653</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1075</v>
       </c>
@@ -14187,13 +15008,16 @@
         <v>1079</v>
       </c>
       <c r="K272">
-        <v>1</v>
-      </c>
-      <c r="L272" t="s">
+        <v>0.46891611814498901</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1081</v>
       </c>
@@ -14225,13 +15049,16 @@
         <v>1085</v>
       </c>
       <c r="K273">
-        <v>0</v>
-      </c>
-      <c r="L273" t="s">
+        <v>0.30573558807373052</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1087</v>
       </c>
@@ -14263,10 +15090,13 @@
         <v>1091</v>
       </c>
       <c r="K274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12">
+        <v>0.72458529472351074</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1092</v>
       </c>
@@ -14298,10 +15128,13 @@
         <v>1096</v>
       </c>
       <c r="K275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12">
+        <v>0.52277183532714844</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1097</v>
       </c>
@@ -14333,13 +15166,16 @@
         <v>1101</v>
       </c>
       <c r="K276">
-        <v>0</v>
-      </c>
-      <c r="L276" t="s">
+        <v>0.57301598787307739</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1103</v>
       </c>
@@ -14371,13 +15207,16 @@
         <v>552</v>
       </c>
       <c r="K277">
-        <v>0</v>
-      </c>
-      <c r="L277" t="s">
+        <v>0.42482191324234009</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1108</v>
       </c>
@@ -14409,13 +15248,16 @@
         <v>1112</v>
       </c>
       <c r="K278">
-        <v>1</v>
-      </c>
-      <c r="L278" t="s">
+        <v>0.46745157241821289</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1113</v>
       </c>
@@ -14447,10 +15289,13 @@
         <v>1117</v>
       </c>
       <c r="K279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12">
+        <v>0.4693024754524231</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1118</v>
       </c>
@@ -14482,10 +15327,13 @@
         <v>1122</v>
       </c>
       <c r="K280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12">
+        <v>0.41893672943115229</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1123</v>
       </c>
@@ -14517,10 +15365,13 @@
         <v>1127</v>
       </c>
       <c r="K281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12">
+        <v>0.33206570148468018</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1128</v>
       </c>
@@ -14552,13 +15403,16 @@
         <v>1132</v>
       </c>
       <c r="K282">
-        <v>0</v>
-      </c>
-      <c r="L282" t="s">
+        <v>0.63531941175460815</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1134</v>
       </c>
@@ -14590,10 +15444,13 @@
         <v>1138</v>
       </c>
       <c r="K283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12">
+        <v>0.16545355319976809</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1139</v>
       </c>
@@ -14625,10 +15482,13 @@
         <v>1143</v>
       </c>
       <c r="K284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12">
+        <v>0.50717425346374512</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1144</v>
       </c>
@@ -14660,10 +15520,13 @@
         <v>132</v>
       </c>
       <c r="K285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12">
+        <v>0.26642894744873052</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1147</v>
       </c>
@@ -14695,10 +15558,13 @@
         <v>1150</v>
       </c>
       <c r="K286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12">
+        <v>0.53540337085723877</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1151</v>
       </c>
@@ -14730,10 +15596,13 @@
         <v>1155</v>
       </c>
       <c r="K287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12">
+        <v>0.56366634368896484</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1156</v>
       </c>
@@ -14765,13 +15634,16 @@
         <v>1160</v>
       </c>
       <c r="K288">
-        <v>0</v>
-      </c>
-      <c r="L288" t="s">
+        <v>0.63615095615386963</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1162</v>
       </c>
@@ -14803,10 +15675,13 @@
         <v>1166</v>
       </c>
       <c r="K289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11">
+        <v>0.64459550380706787</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1167</v>
       </c>
@@ -14838,10 +15713,13 @@
         <v>1171</v>
       </c>
       <c r="K290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11">
+        <v>0.46387717127799988</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1172</v>
       </c>
@@ -14873,10 +15751,13 @@
         <v>543</v>
       </c>
       <c r="K291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11">
+        <v>0.48023903369903559</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1176</v>
       </c>
@@ -14908,10 +15789,13 @@
         <v>1180</v>
       </c>
       <c r="K292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11">
+        <v>0.2638707160949707</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1181</v>
       </c>
@@ -14943,10 +15827,13 @@
         <v>1185</v>
       </c>
       <c r="K293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11">
+        <v>0.36634266376495361</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1186</v>
       </c>
@@ -14978,10 +15865,13 @@
         <v>1190</v>
       </c>
       <c r="K294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11">
+        <v>0.41450417041778559</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1191</v>
       </c>
@@ -15013,10 +15903,13 @@
         <v>1195</v>
       </c>
       <c r="K295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11">
+        <v>0.35638844966888428</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1196</v>
       </c>
@@ -15048,10 +15941,13 @@
         <v>1200</v>
       </c>
       <c r="K296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11">
+        <v>0.53593730926513672</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1201</v>
       </c>
@@ -15083,10 +15979,13 @@
         <v>15</v>
       </c>
       <c r="K297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11">
+        <v>0.54475748538970947</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1203</v>
       </c>
@@ -15118,10 +16017,13 @@
         <v>1207</v>
       </c>
       <c r="K298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11">
+        <v>0.41550582647323608</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1208</v>
       </c>
@@ -15153,10 +16055,13 @@
         <v>1212</v>
       </c>
       <c r="K299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11">
+        <v>0.4547770619392395</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1213</v>
       </c>
@@ -15188,10 +16093,13 @@
         <v>1217</v>
       </c>
       <c r="K300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11">
+        <v>0.54093849658966064</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1218</v>
       </c>
@@ -15223,10 +16131,13 @@
         <v>1222</v>
       </c>
       <c r="K301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11">
+        <v>0.41106522083282471</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1223</v>
       </c>
@@ -15258,10 +16169,13 @@
         <v>1227</v>
       </c>
       <c r="K302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11">
+        <v>0.55657994747161865</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1228</v>
       </c>
@@ -15293,10 +16207,13 @@
         <v>1232</v>
       </c>
       <c r="K303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11">
+        <v>0.59558117389678955</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1233</v>
       </c>
@@ -15328,10 +16245,13 @@
         <v>1237</v>
       </c>
       <c r="K304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12">
+        <v>0.32619491219520569</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1238</v>
       </c>
@@ -15363,10 +16283,13 @@
         <v>1242</v>
       </c>
       <c r="K305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12">
+        <v>0.70495975017547607</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1243</v>
       </c>
@@ -15398,10 +16321,13 @@
         <v>15</v>
       </c>
       <c r="K306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12">
+        <v>0.34176275134086609</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1245</v>
       </c>
@@ -15433,13 +16359,16 @@
         <v>1249</v>
       </c>
       <c r="K307">
-        <v>1</v>
-      </c>
-      <c r="L307" t="s">
+        <v>0.43122172355651861</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+      <c r="M307" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1251</v>
       </c>
@@ -15471,10 +16400,13 @@
         <v>1255</v>
       </c>
       <c r="K308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12">
+        <v>0.21975290775299069</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1256</v>
       </c>
@@ -15506,10 +16438,13 @@
         <v>1260</v>
       </c>
       <c r="K309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12">
+        <v>0.46825143694877619</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1261</v>
       </c>
@@ -15541,10 +16476,13 @@
         <v>15</v>
       </c>
       <c r="K310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12">
+        <v>0.29505056142807012</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1263</v>
       </c>
@@ -15576,10 +16514,13 @@
         <v>1267</v>
       </c>
       <c r="K311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12">
+        <v>0.23381128907203669</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1268</v>
       </c>
@@ -15611,10 +16552,13 @@
         <v>1272</v>
       </c>
       <c r="K312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12">
+        <v>0.62124115228652954</v>
+      </c>
+      <c r="L312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1273</v>
       </c>
@@ -15646,10 +16590,13 @@
         <v>1277</v>
       </c>
       <c r="K313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12">
+        <v>0.46274083852767939</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1278</v>
       </c>
@@ -15681,10 +16628,13 @@
         <v>1282</v>
       </c>
       <c r="K314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12">
+        <v>0.25897783041000372</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1283</v>
       </c>
@@ -15716,13 +16666,16 @@
         <v>79</v>
       </c>
       <c r="K315">
-        <v>1</v>
-      </c>
-      <c r="L315" t="s">
+        <v>0.26355072855949402</v>
+      </c>
+      <c r="L315">
+        <v>1</v>
+      </c>
+      <c r="M315" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1287</v>
       </c>
@@ -15754,10 +16707,13 @@
         <v>1291</v>
       </c>
       <c r="K316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12">
+        <v>0.42026358842849731</v>
+      </c>
+      <c r="L316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1292</v>
       </c>
@@ -15789,10 +16745,13 @@
         <v>1296</v>
       </c>
       <c r="K317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12">
+        <v>0.26753896474838262</v>
+      </c>
+      <c r="L317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1297</v>
       </c>
@@ -15824,10 +16783,13 @@
         <v>1301</v>
       </c>
       <c r="K318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12">
+        <v>0.54466414451599121</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1302</v>
       </c>
@@ -15859,10 +16821,13 @@
         <v>1306</v>
       </c>
       <c r="K319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12">
+        <v>0.5223957896232605</v>
+      </c>
+      <c r="L319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1307</v>
       </c>
@@ -15894,10 +16859,13 @@
         <v>15</v>
       </c>
       <c r="K320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11">
+        <v>0.72649776935577393</v>
+      </c>
+      <c r="L320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1311</v>
       </c>
@@ -15929,10 +16897,13 @@
         <v>15</v>
       </c>
       <c r="K321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11">
+        <v>0.29493856430053711</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1313</v>
       </c>
@@ -15964,10 +16935,13 @@
         <v>1317</v>
       </c>
       <c r="K322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11">
+        <v>0.50330698490142822</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1318</v>
       </c>
@@ -15999,10 +16973,13 @@
         <v>1322</v>
       </c>
       <c r="K323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11">
+        <v>0.53303301334381104</v>
+      </c>
+      <c r="L323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1323</v>
       </c>
@@ -16034,10 +17011,13 @@
         <v>1272</v>
       </c>
       <c r="K324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11">
+        <v>0.49230015277862549</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1327</v>
       </c>
@@ -16069,10 +17049,13 @@
         <v>1331</v>
       </c>
       <c r="K325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11">
+        <v>0.43311083316802979</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1332</v>
       </c>
@@ -16104,10 +17087,13 @@
         <v>1336</v>
       </c>
       <c r="K326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11">
+        <v>0.53538477420806885</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1337</v>
       </c>
@@ -16139,6 +17125,9 @@
         <v>1341</v>
       </c>
       <c r="K327">
+        <v>0.26764363050460821</v>
+      </c>
+      <c r="L327">
         <v>1</v>
       </c>
     </row>

--- a/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
+++ b/HE/W_in_progress/AnalisiClaudeSonnet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D11A307-403C-4366-AE2A-4901798D000E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47E26E2-B6FF-4D5B-A381-7BFF3515C5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1344">
   <si>
     <t>IN</t>
   </si>
@@ -4065,6 +4065,9 @@
   </si>
   <si>
     <t>SBERT_M</t>
+  </si>
+  <si>
+    <t>WMD_M</t>
   </si>
 </sst>
 </file>
@@ -4451,10 +4454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M327"/>
+  <dimension ref="A1:N327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4468,10 +4471,10 @@
     <col min="8" max="8" width="5.88671875" customWidth="1"/>
     <col min="9" max="9" width="4.33203125" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4506,13 +4509,16 @@
         <v>1342</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4549,8 +4555,11 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4585,10 +4594,13 @@
         <v>0.1181859970092773</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.51775214544436099</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4623,10 +4635,13 @@
         <v>0.42357629537582397</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.52233671477182031</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4661,13 +4676,16 @@
         <v>0.86026525497436523</v>
       </c>
       <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+        <v>0.76141771214051479</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4702,10 +4720,13 @@
         <v>0.1885644793510437</v>
       </c>
       <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.43606118563652091</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -4740,13 +4761,16 @@
         <v>0.49385064840316772</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
+        <v>0.6430018723518478</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4781,10 +4805,13 @@
         <v>0.69874262809753418</v>
       </c>
       <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.74719591713467726</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -4819,10 +4846,13 @@
         <v>0.50494146347045898</v>
       </c>
       <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.69331881587238775</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -4857,10 +4887,13 @@
         <v>0.51531517505645752</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.58573032593769248</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -4895,10 +4928,13 @@
         <v>0.39326810836791992</v>
       </c>
       <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.41212756881651419</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -4933,10 +4969,13 @@
         <v>0.70763468742370605</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.7965750591073838</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -4971,10 +5010,13 @@
         <v>0.53479260206222534</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.56787849896122633</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -5009,10 +5051,13 @@
         <v>0.30467879772186279</v>
       </c>
       <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.33590602361746708</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -5047,10 +5092,13 @@
         <v>0.35884374380111689</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.33031602463435661</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -5085,10 +5133,13 @@
         <v>0.34743630886077881</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.14213520289244</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -5123,10 +5174,13 @@
         <v>0.69799304008483887</v>
       </c>
       <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.7238053953042406</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -5161,10 +5215,13 @@
         <v>0.42065954208374018</v>
       </c>
       <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.63522585257893915</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -5199,10 +5256,13 @@
         <v>0.31924861669540411</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.36946442936381713</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -5237,10 +5297,13 @@
         <v>0.66000580787658691</v>
       </c>
       <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.60889333858763184</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -5275,10 +5338,13 @@
         <v>0.38020309805870062</v>
       </c>
       <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.61710924785825938</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -5313,13 +5379,16 @@
         <v>0.2268117964267731</v>
       </c>
       <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3" t="s">
+        <v>0.19327955207351891</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -5354,10 +5423,13 @@
         <v>0.53821885585784912</v>
       </c>
       <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.5728298639822027</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -5392,10 +5464,13 @@
         <v>0.29937303066253662</v>
       </c>
       <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.38735801634808642</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -5430,10 +5505,13 @@
         <v>0.33323538303375239</v>
       </c>
       <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.52820413238332364</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -5468,10 +5546,13 @@
         <v>0.25814715027809138</v>
       </c>
       <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.5509776211852494</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -5506,10 +5587,13 @@
         <v>6.9390140473842621E-2</v>
       </c>
       <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.62242393030483389</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -5544,10 +5628,13 @@
         <v>0.16151383519172671</v>
       </c>
       <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.55786501551602463</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -5582,10 +5669,13 @@
         <v>0.22600704431533811</v>
       </c>
       <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.66539530051737839</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -5620,10 +5710,13 @@
         <v>0.71074235439300537</v>
       </c>
       <c r="L30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.69851097475491541</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -5658,10 +5751,13 @@
         <v>0.59731650352478027</v>
       </c>
       <c r="L31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.56580977432007651</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>126</v>
       </c>
@@ -5696,10 +5792,13 @@
         <v>0.26887422800064092</v>
       </c>
       <c r="L32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.45945310478720219</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -5734,10 +5833,13 @@
         <v>0.2358594536781311</v>
       </c>
       <c r="L33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.29915853973281648</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>133</v>
       </c>
@@ -5772,10 +5874,13 @@
         <v>0.80195629596710205</v>
       </c>
       <c r="L34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.7328579815784988</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -5810,10 +5915,13 @@
         <v>0.78690451383590698</v>
       </c>
       <c r="L35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.64304470329588559</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -5848,10 +5956,13 @@
         <v>0.6789783239364624</v>
       </c>
       <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.59639113758085904</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -5886,10 +5997,13 @@
         <v>0.65600407123565674</v>
       </c>
       <c r="L37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.56130888372596122</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -5924,10 +6038,13 @@
         <v>0.65503072738647461</v>
       </c>
       <c r="L38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.51036655953548371</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -5962,10 +6079,13 @@
         <v>0.77248358726501465</v>
       </c>
       <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.40892199019680442</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -6000,10 +6120,13 @@
         <v>0.60316026210784912</v>
       </c>
       <c r="L40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.66479891011000292</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -6038,10 +6161,13 @@
         <v>0.63804352283477783</v>
       </c>
       <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.49598179026373351</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -6076,10 +6202,13 @@
         <v>0.50734990835189819</v>
       </c>
       <c r="L42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.54402449983205825</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -6114,10 +6243,13 @@
         <v>0.81044650077819824</v>
       </c>
       <c r="L43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.73656675957998197</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -6152,10 +6284,13 @@
         <v>0.4824526309967041</v>
       </c>
       <c r="L44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.51580088353899034</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -6190,10 +6325,13 @@
         <v>0.28054040670394897</v>
       </c>
       <c r="L45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.30911039868315759</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -6228,10 +6366,13 @@
         <v>0.30169868469238281</v>
       </c>
       <c r="L46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.39743879924668518</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -6266,10 +6407,13 @@
         <v>0.71100533008575439</v>
       </c>
       <c r="L47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6385524060320259</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -6304,10 +6448,13 @@
         <v>0.63612484931945801</v>
       </c>
       <c r="L48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.5070896128160971</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -6342,10 +6489,13 @@
         <v>0.68943256139755249</v>
       </c>
       <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.54343311335906286</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -6380,10 +6530,13 @@
         <v>0.32929986715316772</v>
       </c>
       <c r="L50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.2183335220207645</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -6418,10 +6571,13 @@
         <v>0.93475127220153809</v>
       </c>
       <c r="L51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.9147262274868686</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -6456,10 +6612,13 @@
         <v>0.55182969570159912</v>
       </c>
       <c r="L52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.62767151366728091</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>196</v>
       </c>
@@ -6494,10 +6653,13 @@
         <v>0.76998317241668701</v>
       </c>
       <c r="L53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.82861607374295021</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -6532,10 +6694,13 @@
         <v>0.38482099771499628</v>
       </c>
       <c r="L54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.36365601928881491</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>205</v>
       </c>
@@ -6570,10 +6735,13 @@
         <v>0.79122781753540039</v>
       </c>
       <c r="L55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.67251558690121116</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>207</v>
       </c>
@@ -6608,10 +6776,13 @@
         <v>0.37121278047561651</v>
       </c>
       <c r="L56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.51257513108731834</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>209</v>
       </c>
@@ -6646,10 +6817,13 @@
         <v>0.73168468475341797</v>
       </c>
       <c r="L57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.48642866245648081</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -6684,10 +6858,13 @@
         <v>0.67653965950012207</v>
       </c>
       <c r="L58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.56588172544431992</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>214</v>
       </c>
@@ -6722,13 +6899,16 @@
         <v>0.72577261924743652</v>
       </c>
       <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59" t="s">
+        <v>0.66800291609829054</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>220</v>
       </c>
@@ -6763,13 +6943,16 @@
         <v>0.71193772554397583</v>
       </c>
       <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60" t="s">
+        <v>0.36718755521671592</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>225</v>
       </c>
@@ -6804,10 +6987,13 @@
         <v>0.41661351919174189</v>
       </c>
       <c r="L61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.50971031824430835</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>226</v>
       </c>
@@ -6842,10 +7028,13 @@
         <v>0.61373180150985718</v>
       </c>
       <c r="L62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.59286576882047226</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>228</v>
       </c>
@@ -6880,10 +7069,13 @@
         <v>0.45664516091346741</v>
       </c>
       <c r="L63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.36755178999326898</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>230</v>
       </c>
@@ -6918,10 +7110,13 @@
         <v>0.73823696374893188</v>
       </c>
       <c r="L64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.55766352044399659</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>234</v>
       </c>
@@ -6956,10 +7151,13 @@
         <v>0.42069056630134583</v>
       </c>
       <c r="L65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.29932096492305332</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>238</v>
       </c>
@@ -6994,10 +7192,13 @@
         <v>0.43698084354400629</v>
       </c>
       <c r="L66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.63428436624405538</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>240</v>
       </c>
@@ -7032,10 +7233,13 @@
         <v>0.31880208849906921</v>
       </c>
       <c r="L67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+        <v>9.6023005531530314E-2</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>242</v>
       </c>
@@ -7070,10 +7274,13 @@
         <v>0.3268342912197113</v>
       </c>
       <c r="L68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.48798388593985181</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>247</v>
       </c>
@@ -7108,10 +7315,13 @@
         <v>0.25564795732498169</v>
       </c>
       <c r="L69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.186634193019419</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>252</v>
       </c>
@@ -7146,10 +7356,13 @@
         <v>0.13597995042800901</v>
       </c>
       <c r="L70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.56558058906410358</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>257</v>
       </c>
@@ -7184,13 +7397,16 @@
         <v>0.42722398042678827</v>
       </c>
       <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71" t="s">
+        <v>0.60935595223873151</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -7225,10 +7441,13 @@
         <v>0.35542672872543329</v>
       </c>
       <c r="L72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.65189223179123079</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>266</v>
       </c>
@@ -7263,10 +7482,13 @@
         <v>0.49297827482223511</v>
       </c>
       <c r="L73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.55647847777558934</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>268</v>
       </c>
@@ -7301,10 +7523,13 @@
         <v>0.30845129489898682</v>
       </c>
       <c r="L74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.59095246952222324</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>273</v>
       </c>
@@ -7339,13 +7564,16 @@
         <v>0.2228412330150604</v>
       </c>
       <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75" t="s">
+        <v>0.44009529002441522</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>279</v>
       </c>
@@ -7380,13 +7608,16 @@
         <v>0.2959442138671875</v>
       </c>
       <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76" s="3" t="s">
+        <v>0.50100774165073703</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>284</v>
       </c>
@@ -7421,13 +7652,16 @@
         <v>0.2519000768661499</v>
       </c>
       <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77" t="s">
+        <v>0.3531516344300335</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>289</v>
       </c>
@@ -7462,10 +7696,13 @@
         <v>0.50906080007553101</v>
       </c>
       <c r="L78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.56675212454627966</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>293</v>
       </c>
@@ -7500,10 +7737,13 @@
         <v>0.26760679483413702</v>
       </c>
       <c r="L79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.66540600814636242</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>298</v>
       </c>
@@ -7538,13 +7778,16 @@
         <v>0.21265652775764471</v>
       </c>
       <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80" t="s">
+        <v>0.19847292572341391</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>304</v>
       </c>
@@ -7579,10 +7822,13 @@
         <v>0.18982639908790591</v>
       </c>
       <c r="L81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.40855677158814069</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>309</v>
       </c>
@@ -7617,10 +7863,13 @@
         <v>0.35174447298049932</v>
       </c>
       <c r="L82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.442176896306929E-2</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>314</v>
       </c>
@@ -7655,10 +7904,13 @@
         <v>0.34643125534057623</v>
       </c>
       <c r="L83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.35903454232532928</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>319</v>
       </c>
@@ -7693,10 +7945,13 @@
         <v>0.32974594831466669</v>
       </c>
       <c r="L84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.13584381310409119</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>323</v>
       </c>
@@ -7731,10 +7986,13 @@
         <v>0.4555286169052124</v>
       </c>
       <c r="L85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.40137657488960771</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>325</v>
       </c>
@@ -7769,10 +8027,13 @@
         <v>0.59988021850585938</v>
       </c>
       <c r="L86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.73543700605762519</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>327</v>
       </c>
@@ -7807,13 +8068,16 @@
         <v>0.37380099296569819</v>
       </c>
       <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87" t="s">
+        <v>6.5878170807539549E-2</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>331</v>
       </c>
@@ -7848,10 +8112,13 @@
         <v>0.28016451001167297</v>
       </c>
       <c r="L88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.494571867278777</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>333</v>
       </c>
@@ -7886,10 +8153,13 @@
         <v>0.14441955089569089</v>
       </c>
       <c r="L89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.10586458112783351</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>336</v>
       </c>
@@ -7924,10 +8194,13 @@
         <v>0.46049273014068598</v>
       </c>
       <c r="L90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.5214641001414595</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>338</v>
       </c>
@@ -7962,10 +8235,13 @@
         <v>0.49734410643577581</v>
       </c>
       <c r="L91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.34307508337775611</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>340</v>
       </c>
@@ -8000,10 +8276,13 @@
         <v>0.32231736183166498</v>
       </c>
       <c r="L92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.36365729499292349</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>342</v>
       </c>
@@ -8038,10 +8317,13 @@
         <v>0.35707920789718628</v>
       </c>
       <c r="L93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.38340095854082151</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>346</v>
       </c>
@@ -8076,10 +8358,13 @@
         <v>0.43544423580169678</v>
       </c>
       <c r="L94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.47973550080563981</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>348</v>
       </c>
@@ -8114,10 +8399,13 @@
         <v>0.30203750729560852</v>
       </c>
       <c r="L95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.24377275067957499</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>350</v>
       </c>
@@ -8152,10 +8440,13 @@
         <v>0.26635617017745972</v>
       </c>
       <c r="L96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-6.7031721826945168E-2</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>352</v>
       </c>
@@ -8190,10 +8481,13 @@
         <v>0.22044847905635831</v>
       </c>
       <c r="L97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.57047214209032715</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>354</v>
       </c>
@@ -8228,10 +8522,13 @@
         <v>0.39190226793289179</v>
       </c>
       <c r="L98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.6766609324830002E-2</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>356</v>
       </c>
@@ -8266,10 +8563,13 @@
         <v>0.18951140344142911</v>
       </c>
       <c r="L99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.21267324033539159</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>358</v>
       </c>
@@ -8304,10 +8604,13 @@
         <v>0.28771558403968811</v>
       </c>
       <c r="L100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.1039581119624686</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>361</v>
       </c>
@@ -8342,10 +8645,13 @@
         <v>0.25502127408981318</v>
       </c>
       <c r="L101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>3.5241586086095622E-2</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>363</v>
       </c>
@@ -8380,10 +8686,13 @@
         <v>0.23301152884960169</v>
       </c>
       <c r="L102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.48204803007518421</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>365</v>
       </c>
@@ -8418,13 +8727,16 @@
         <v>0.22514501214027399</v>
       </c>
       <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103" s="3" t="s">
+        <v>0.39151787913198938</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>370</v>
       </c>
@@ -8459,10 +8771,13 @@
         <v>0.58961564302444458</v>
       </c>
       <c r="L104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.78040740326269431</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>375</v>
       </c>
@@ -8497,13 +8812,16 @@
         <v>0.56613332033157349</v>
       </c>
       <c r="L105">
-        <v>1</v>
-      </c>
-      <c r="M105" t="s">
+        <v>0.60726003831612263</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>381</v>
       </c>
@@ -8538,10 +8856,13 @@
         <v>0.39598274230957031</v>
       </c>
       <c r="L106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.72124807634713894</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>386</v>
       </c>
@@ -8576,10 +8897,13 @@
         <v>0.66053056716918945</v>
       </c>
       <c r="L107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.67693161069626795</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>391</v>
       </c>
@@ -8614,10 +8938,13 @@
         <v>0.30692577362060552</v>
       </c>
       <c r="L108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.4027582449813657</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>393</v>
       </c>
@@ -8652,10 +8979,13 @@
         <v>0.41428864002227778</v>
       </c>
       <c r="L109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.58664602435157576</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>398</v>
       </c>
@@ -8690,10 +9020,13 @@
         <v>0.58840179443359375</v>
       </c>
       <c r="L110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.85448830499337203</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>403</v>
       </c>
@@ -8728,10 +9061,13 @@
         <v>0.64104002714157104</v>
       </c>
       <c r="L111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.74854188117285547</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>408</v>
       </c>
@@ -8766,10 +9102,13 @@
         <v>0.53150427341461182</v>
       </c>
       <c r="L112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.51153332075295577</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>413</v>
       </c>
@@ -8804,10 +9143,13 @@
         <v>0.61629319190979004</v>
       </c>
       <c r="L113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.56522147335100004</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>415</v>
       </c>
@@ -8842,10 +9184,13 @@
         <v>0.71033483743667603</v>
       </c>
       <c r="L114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.75752724195416643</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>417</v>
       </c>
@@ -8880,10 +9225,13 @@
         <v>0.33187955617904658</v>
       </c>
       <c r="L115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.37753294584433111</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -8918,10 +9266,13 @@
         <v>0.23938570916652679</v>
       </c>
       <c r="L116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.5450243744626565</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -8956,10 +9307,13 @@
         <v>0.27508819103240972</v>
       </c>
       <c r="L117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.54628498167720996</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>422</v>
       </c>
@@ -8994,13 +9348,16 @@
         <v>0.7238847017288208</v>
       </c>
       <c r="L118">
-        <v>1</v>
-      </c>
-      <c r="M118" s="2" t="s">
+        <v>0.59167954072311524</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>427</v>
       </c>
@@ -9035,10 +9392,13 @@
         <v>0.42488592863082891</v>
       </c>
       <c r="L119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.5079366884540395</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>429</v>
       </c>
@@ -9073,10 +9433,13 @@
         <v>0.35060566663742071</v>
       </c>
       <c r="L120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.66275107393913835</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>432</v>
       </c>
@@ -9111,10 +9474,13 @@
         <v>0.30472415685653692</v>
       </c>
       <c r="L121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.48866329079099069</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>434</v>
       </c>
@@ -9149,10 +9515,13 @@
         <v>0.24815197288990021</v>
       </c>
       <c r="L122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.63023159620542546</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>436</v>
       </c>
@@ -9187,10 +9556,13 @@
         <v>0.51345419883728027</v>
       </c>
       <c r="L123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.50154057719891787</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>441</v>
       </c>
@@ -9225,13 +9597,16 @@
         <v>0.32395696640014648</v>
       </c>
       <c r="L124">
-        <v>1</v>
-      </c>
-      <c r="M124" t="s">
+        <v>0.62065184051270272</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>447</v>
       </c>
@@ -9266,10 +9641,13 @@
         <v>0.28199657797813421</v>
       </c>
       <c r="L125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.59136134253906958</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>449</v>
       </c>
@@ -9304,10 +9682,13 @@
         <v>0.28789713978767401</v>
       </c>
       <c r="L126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.49056470334392832</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>454</v>
       </c>
@@ -9342,13 +9723,16 @@
         <v>0.34470587968826288</v>
       </c>
       <c r="L127">
-        <v>1</v>
-      </c>
-      <c r="M127" s="2" t="s">
+        <v>0.38767157966306298</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>459</v>
       </c>
@@ -9383,10 +9767,13 @@
         <v>0.25058272480964661</v>
       </c>
       <c r="L128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.48062473613155787</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>464</v>
       </c>
@@ -9421,10 +9808,13 @@
         <v>0.34775996208190918</v>
       </c>
       <c r="L129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.55013814800264416</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>469</v>
       </c>
@@ -9459,10 +9849,13 @@
         <v>0.79552525281906128</v>
       </c>
       <c r="L130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.58271088973294938</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>472</v>
       </c>
@@ -9497,10 +9890,13 @@
         <v>0.39432424306869512</v>
       </c>
       <c r="L131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.29955489661427948</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>474</v>
       </c>
@@ -9535,10 +9931,13 @@
         <v>0.21783062815666199</v>
       </c>
       <c r="L132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-4.6008218963987442E-2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>476</v>
       </c>
@@ -9575,8 +9974,11 @@
       <c r="L133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>478</v>
       </c>
@@ -9611,10 +10013,13 @@
         <v>0.59707546234130859</v>
       </c>
       <c r="L134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.48074359762299218</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>480</v>
       </c>
@@ -9649,10 +10054,13 @@
         <v>0.27169948816299438</v>
       </c>
       <c r="L135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.70330974756915055</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>485</v>
       </c>
@@ -9687,10 +10095,13 @@
         <v>0.53909933567047119</v>
       </c>
       <c r="L136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.51065563398344316</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>490</v>
       </c>
@@ -9725,10 +10136,13 @@
         <v>0.27941399812698359</v>
       </c>
       <c r="L137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.46023633073614312</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>495</v>
       </c>
@@ -9763,10 +10177,13 @@
         <v>0.55438476800918579</v>
       </c>
       <c r="L138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.77383783718458043</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>499</v>
       </c>
@@ -9801,10 +10218,13 @@
         <v>0.99848794937133789</v>
       </c>
       <c r="L139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.93536463226804145</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>504</v>
       </c>
@@ -9839,10 +10259,13 @@
         <v>0.67683780193328857</v>
       </c>
       <c r="L140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.77861772494950887</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>509</v>
       </c>
@@ -9877,10 +10300,13 @@
         <v>0.57158774137496948</v>
       </c>
       <c r="L141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.39274028500320551</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>510</v>
       </c>
@@ -9915,13 +10341,16 @@
         <v>0.38295441865921021</v>
       </c>
       <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142" t="s">
+        <v>0.66782599475933246</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>516</v>
       </c>
@@ -9956,10 +10385,13 @@
         <v>0.65660274028778076</v>
       </c>
       <c r="L143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.58536842742929684</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>521</v>
       </c>
@@ -9994,10 +10426,13 @@
         <v>0.56668275594711304</v>
       </c>
       <c r="L144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.75885190191450458</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>526</v>
       </c>
@@ -10032,10 +10467,13 @@
         <v>0.67990422248840332</v>
       </c>
       <c r="L145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.77832228070176224</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>530</v>
       </c>
@@ -10070,13 +10508,16 @@
         <v>0.34209173917770391</v>
       </c>
       <c r="L146">
-        <v>1</v>
-      </c>
-      <c r="M146" t="s">
+        <v>0.57632425417757882</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>535</v>
       </c>
@@ -10111,10 +10552,13 @@
         <v>0.63468754291534424</v>
       </c>
       <c r="L147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.78798703982615259</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>539</v>
       </c>
@@ -10149,10 +10593,13 @@
         <v>0.66440081596374512</v>
       </c>
       <c r="L148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.5324517558872075</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>544</v>
       </c>
@@ -10187,10 +10634,13 @@
         <v>0.68762266635894775</v>
       </c>
       <c r="L149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.75887210586753739</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>548</v>
       </c>
@@ -10225,10 +10675,13 @@
         <v>0.71822082996368408</v>
       </c>
       <c r="L150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.7985859844696136</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>553</v>
       </c>
@@ -10263,10 +10716,13 @@
         <v>0.45317128300666809</v>
       </c>
       <c r="L151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.49593315359487372</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>555</v>
       </c>
@@ -10301,10 +10757,13 @@
         <v>0.4126032292842865</v>
       </c>
       <c r="L152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.52489562802390832</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>559</v>
       </c>
@@ -10339,13 +10798,16 @@
         <v>0.43494850397109991</v>
       </c>
       <c r="L153">
-        <v>1</v>
-      </c>
-      <c r="M153" t="s">
+        <v>0.38635842780472363</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>565</v>
       </c>
@@ -10380,10 +10842,13 @@
         <v>0.55370330810546875</v>
       </c>
       <c r="L154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.42547455750069652</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>569</v>
       </c>
@@ -10418,13 +10883,16 @@
         <v>0.9745863676071167</v>
       </c>
       <c r="L155">
-        <v>1</v>
-      </c>
-      <c r="M155" t="s">
+        <v>0.86616666142587018</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>574</v>
       </c>
@@ -10459,13 +10927,16 @@
         <v>0.32761913537979132</v>
       </c>
       <c r="L156">
-        <v>1</v>
-      </c>
-      <c r="M156" t="s">
+        <v>0.60499692585865428</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>578</v>
       </c>
@@ -10500,10 +10971,13 @@
         <v>0.49691510200500488</v>
       </c>
       <c r="L157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.4050150924004754</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>583</v>
       </c>
@@ -10538,13 +11012,16 @@
         <v>0.40985953807830811</v>
       </c>
       <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="M158" s="2" t="s">
+        <v>0.27318945338794121</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>589</v>
       </c>
@@ -10579,10 +11056,13 @@
         <v>0.22294718027114871</v>
       </c>
       <c r="L159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.49235076096826552</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>594</v>
       </c>
@@ -10617,10 +11097,13 @@
         <v>0.3430296778678894</v>
       </c>
       <c r="L160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.33985364778772259</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>598</v>
       </c>
@@ -10655,10 +11138,13 @@
         <v>0.32069015502929688</v>
       </c>
       <c r="L161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.40666761780895699</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>600</v>
       </c>
@@ -10693,10 +11179,13 @@
         <v>0.87082898616790771</v>
       </c>
       <c r="L162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.93897267998009093</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>605</v>
       </c>
@@ -10731,10 +11220,13 @@
         <v>0.17160139977931979</v>
       </c>
       <c r="L163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.4772334118709165</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>610</v>
       </c>
@@ -10769,13 +11261,16 @@
         <v>5.6429523974657059E-2</v>
       </c>
       <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="M164" s="2" t="s">
+        <v>0.41230141355440658</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>616</v>
       </c>
@@ -10812,8 +11307,11 @@
       <c r="L165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>618</v>
       </c>
@@ -10848,10 +11346,13 @@
         <v>0.39954859018325811</v>
       </c>
       <c r="L166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.4320178105794279</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>620</v>
       </c>
@@ -10886,10 +11387,13 @@
         <v>0.26636409759521479</v>
       </c>
       <c r="L167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.61920639184119231</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>622</v>
       </c>
@@ -10924,10 +11428,13 @@
         <v>0.46984794735908508</v>
       </c>
       <c r="L168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.4948759496299272</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>626</v>
       </c>
@@ -10962,10 +11469,13 @@
         <v>0.34487032890319819</v>
       </c>
       <c r="L169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.49850845860204801</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>628</v>
       </c>
@@ -11000,10 +11510,13 @@
         <v>0.34223568439483643</v>
       </c>
       <c r="L170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.61918022840058495</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>630</v>
       </c>
@@ -11038,10 +11551,13 @@
         <v>0.2334054708480835</v>
       </c>
       <c r="L171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.41782750787881417</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>632</v>
       </c>
@@ -11076,10 +11592,13 @@
         <v>0.18958061933517459</v>
       </c>
       <c r="L172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.59797030432013409</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>634</v>
       </c>
@@ -11114,10 +11633,13 @@
         <v>0.58801692724227905</v>
       </c>
       <c r="L173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.71777901379335374</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>636</v>
       </c>
@@ -11152,10 +11674,13 @@
         <v>0.93104654550552368</v>
       </c>
       <c r="L174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.96945675991687996</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>638</v>
       </c>
@@ -11190,13 +11715,16 @@
         <v>0.55362939834594727</v>
       </c>
       <c r="L175">
-        <v>1</v>
-      </c>
-      <c r="M175" t="s">
+        <v>0.38467729840461018</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>644</v>
       </c>
@@ -11231,10 +11759,13 @@
         <v>0.5234370231628418</v>
       </c>
       <c r="L176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.26842722924403067</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>646</v>
       </c>
@@ -11269,10 +11800,13 @@
         <v>0.3591352105140686</v>
       </c>
       <c r="L177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.56215515860640863</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>651</v>
       </c>
@@ -11307,10 +11841,13 @@
         <v>0.46262907981872559</v>
       </c>
       <c r="L178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.69406060883654752</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>655</v>
       </c>
@@ -11345,10 +11882,13 @@
         <v>0.73796564340591431</v>
       </c>
       <c r="L179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.31317516960589892</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>657</v>
       </c>
@@ -11383,10 +11923,13 @@
         <v>0.4326971173286438</v>
       </c>
       <c r="L180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.69829432194498287</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>662</v>
       </c>
@@ -11421,10 +11964,13 @@
         <v>0.24582481384277341</v>
       </c>
       <c r="L181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.48963299065241678</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>664</v>
       </c>
@@ -11459,10 +12005,13 @@
         <v>0.1263590008020401</v>
       </c>
       <c r="L182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-5.1939187639281847E-2</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>666</v>
       </c>
@@ -11497,10 +12046,13 @@
         <v>0.55823028087615967</v>
       </c>
       <c r="L183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.21195612317170029</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>668</v>
       </c>
@@ -11535,13 +12087,16 @@
         <v>0.84808218479156494</v>
       </c>
       <c r="L184">
-        <v>0</v>
-      </c>
-      <c r="M184" t="s">
+        <v>0.87309668900127146</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>673</v>
       </c>
@@ -11576,13 +12131,16 @@
         <v>0.8584783673286438</v>
       </c>
       <c r="L185">
-        <v>0</v>
-      </c>
-      <c r="M185" t="s">
+        <v>0.87315741756955001</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>676</v>
       </c>
@@ -11617,10 +12175,13 @@
         <v>0.64211463928222656</v>
       </c>
       <c r="L186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.69388099401243053</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>678</v>
       </c>
@@ -11655,10 +12216,13 @@
         <v>0.67799818515777588</v>
       </c>
       <c r="L187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.69626522395396417</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>680</v>
       </c>
@@ -11693,10 +12257,13 @@
         <v>0.40644437074661249</v>
       </c>
       <c r="L188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.6332913864032832</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>682</v>
       </c>
@@ -11731,10 +12298,13 @@
         <v>0.48064726591110229</v>
       </c>
       <c r="L189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.52937417996135594</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>684</v>
       </c>
@@ -11769,10 +12339,13 @@
         <v>0.28186672925949102</v>
       </c>
       <c r="L190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.67932386656533361</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>686</v>
       </c>
@@ -11807,10 +12380,13 @@
         <v>0.6629793643951416</v>
       </c>
       <c r="L191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.76443553166321065</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>690</v>
       </c>
@@ -11845,10 +12421,13 @@
         <v>0.55261242389678955</v>
       </c>
       <c r="L192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.49807055637247261</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>692</v>
       </c>
@@ -11883,10 +12462,13 @@
         <v>0.51050329208374023</v>
       </c>
       <c r="L193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7.3090920860685138E-2</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>694</v>
       </c>
@@ -11921,10 +12503,13 @@
         <v>0.54498058557510376</v>
       </c>
       <c r="L194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.56663629911481195</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>696</v>
       </c>
@@ -11961,8 +12546,11 @@
       <c r="L195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>698</v>
       </c>
@@ -11997,10 +12585,13 @@
         <v>0.61558520793914795</v>
       </c>
       <c r="L196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.66763562437301316</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>700</v>
       </c>
@@ -12035,10 +12626,13 @@
         <v>0.52362900972366333</v>
       </c>
       <c r="L197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.39336792901998918</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>702</v>
       </c>
@@ -12073,10 +12667,13 @@
         <v>0.26212885975837708</v>
       </c>
       <c r="L198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.32694000699268821</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>704</v>
       </c>
@@ -12111,10 +12708,13 @@
         <v>0.56987011432647705</v>
       </c>
       <c r="L199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.59048489703059459</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>709</v>
       </c>
@@ -12149,13 +12749,16 @@
         <v>0.1967816948890686</v>
       </c>
       <c r="L200">
-        <v>1</v>
-      </c>
-      <c r="M200" s="4" t="s">
+        <v>0.6003344408663166</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200" s="4" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>715</v>
       </c>
@@ -12190,10 +12793,13 @@
         <v>0.5134161114692688</v>
       </c>
       <c r="L201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.58895813353906346</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>720</v>
       </c>
@@ -12228,13 +12834,16 @@
         <v>0.53976380825042725</v>
       </c>
       <c r="L202">
-        <v>1</v>
-      </c>
-      <c r="M202" t="s">
+        <v>0.65697955763320404</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>726</v>
       </c>
@@ -12269,10 +12878,13 @@
         <v>0.41956955194473272</v>
       </c>
       <c r="L203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.63078754171356377</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>731</v>
       </c>
@@ -12307,10 +12919,13 @@
         <v>0.61225628852844238</v>
       </c>
       <c r="L204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.63300398525087498</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>735</v>
       </c>
@@ -12345,13 +12960,16 @@
         <v>0.51548326015472412</v>
       </c>
       <c r="L205">
-        <v>1</v>
-      </c>
-      <c r="M205" t="s">
+        <v>0.61819961932823109</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>741</v>
       </c>
@@ -12386,10 +13004,13 @@
         <v>0.35583764314651489</v>
       </c>
       <c r="L206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.56124965003923744</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>744</v>
       </c>
@@ -12424,10 +13045,13 @@
         <v>0.51339626312255859</v>
       </c>
       <c r="L207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.70941028889502333</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>749</v>
       </c>
@@ -12462,13 +13086,16 @@
         <v>0.38227164745330811</v>
       </c>
       <c r="L208">
-        <v>1</v>
-      </c>
-      <c r="M208" t="s">
+        <v>0.29428814703513262</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>755</v>
       </c>
@@ -12503,13 +13130,16 @@
         <v>0.2263642102479935</v>
       </c>
       <c r="L209">
-        <v>1</v>
-      </c>
-      <c r="M209" t="s">
+        <v>0.37987333706677612</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>761</v>
       </c>
@@ -12544,10 +13174,13 @@
         <v>0.61333000659942627</v>
       </c>
       <c r="L210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.63332532862418622</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>766</v>
       </c>
@@ -12582,10 +13215,13 @@
         <v>0.67938172817230225</v>
       </c>
       <c r="L211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.82682989654012695</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>768</v>
       </c>
@@ -12620,10 +13256,13 @@
         <v>0.43922910094261169</v>
       </c>
       <c r="L212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.71545726215590111</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>770</v>
       </c>
@@ -12658,10 +13297,13 @@
         <v>0.53288918733596802</v>
       </c>
       <c r="L213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.55968315671004509</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>772</v>
       </c>
@@ -12696,10 +13338,13 @@
         <v>0.29099339246749878</v>
       </c>
       <c r="L214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.54491887495417424</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>776</v>
       </c>
@@ -12734,13 +13379,16 @@
         <v>0.44406664371490479</v>
       </c>
       <c r="L215">
-        <v>0</v>
-      </c>
-      <c r="M215" s="2" t="s">
+        <v>0.45456931148062663</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>782</v>
       </c>
@@ -12775,13 +13423,16 @@
         <v>0.7626761794090271</v>
       </c>
       <c r="L216">
-        <v>0</v>
-      </c>
-      <c r="M216" s="2" t="s">
+        <v>0.74728276453055575</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>787</v>
       </c>
@@ -12816,13 +13467,16 @@
         <v>0.55253458023071289</v>
       </c>
       <c r="L217">
-        <v>0</v>
-      </c>
-      <c r="M217" s="2" t="s">
+        <v>0.56584374298303064</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>792</v>
       </c>
@@ -12857,13 +13511,16 @@
         <v>0.92204481363296509</v>
       </c>
       <c r="L218">
-        <v>0</v>
-      </c>
-      <c r="M218" s="2" t="s">
+        <v>0.88551142182728038</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>796</v>
       </c>
@@ -12898,13 +13555,16 @@
         <v>0.43233513832092291</v>
       </c>
       <c r="L219">
-        <v>0</v>
-      </c>
-      <c r="M219" s="2" t="s">
+        <v>0.48349685283763749</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>800</v>
       </c>
@@ -12939,13 +13599,16 @@
         <v>0.39333617687225342</v>
       </c>
       <c r="L220">
-        <v>0</v>
-      </c>
-      <c r="M220" s="2" t="s">
+        <v>0.46524481713785992</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>804</v>
       </c>
@@ -12980,10 +13643,13 @@
         <v>0.32763963937759399</v>
       </c>
       <c r="L221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.1187944228550355</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>806</v>
       </c>
@@ -13020,8 +13686,11 @@
       <c r="L222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>810</v>
       </c>
@@ -13056,10 +13725,13 @@
         <v>0.36844757199287409</v>
       </c>
       <c r="L223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.23711757860024821</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>813</v>
       </c>
@@ -13094,13 +13766,16 @@
         <v>0.37150174379348749</v>
       </c>
       <c r="L224">
-        <v>0</v>
-      </c>
-      <c r="M224" t="s">
+        <v>0.50214902271758866</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>819</v>
       </c>
@@ -13135,13 +13810,16 @@
         <v>0.69207143783569336</v>
       </c>
       <c r="L225">
-        <v>1</v>
-      </c>
-      <c r="M225" t="s">
+        <v>0.69872946414964243</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>825</v>
       </c>
@@ -13176,13 +13854,16 @@
         <v>0.64717090129852295</v>
       </c>
       <c r="L226">
-        <v>0</v>
-      </c>
-      <c r="M226" t="s">
+        <v>0.67902335992076279</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>831</v>
       </c>
@@ -13217,10 +13898,13 @@
         <v>0.47415095567703253</v>
       </c>
       <c r="L227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.49649480996538919</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>833</v>
       </c>
@@ -13255,13 +13939,16 @@
         <v>0.47813770174980158</v>
       </c>
       <c r="L228">
-        <v>1</v>
-      </c>
-      <c r="M228" t="s">
+        <v>0.57225024046726047</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>839</v>
       </c>
@@ -13296,10 +13983,13 @@
         <v>0.64883363246917725</v>
       </c>
       <c r="L229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.75140799864534924</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>844</v>
       </c>
@@ -13334,10 +14024,13 @@
         <v>0.66796213388442993</v>
       </c>
       <c r="L230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.8070426370144903</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>849</v>
       </c>
@@ -13372,10 +14065,13 @@
         <v>0.45903536677360529</v>
       </c>
       <c r="L231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.74758457238333786</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>854</v>
       </c>
@@ -13410,13 +14106,16 @@
         <v>0.47074827551841741</v>
       </c>
       <c r="L232">
-        <v>1</v>
-      </c>
-      <c r="M232" t="s">
+        <v>0.76305146215538688</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>860</v>
       </c>
@@ -13451,13 +14150,16 @@
         <v>0.41645467281341553</v>
       </c>
       <c r="L233">
-        <v>0</v>
-      </c>
-      <c r="M233" t="s">
+        <v>0.62721235453053381</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>866</v>
       </c>
@@ -13492,13 +14194,16 @@
         <v>0.40643379092216492</v>
       </c>
       <c r="L234">
-        <v>0</v>
-      </c>
-      <c r="M234" t="s">
+        <v>0.60507725861592121</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>871</v>
       </c>
@@ -13533,13 +14238,16 @@
         <v>0.59868699312210083</v>
       </c>
       <c r="L235">
-        <v>1</v>
-      </c>
-      <c r="M235" s="2" t="s">
+        <v>0.74268833292739622</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235" s="2" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>877</v>
       </c>
@@ -13574,13 +14282,16 @@
         <v>0.38410216569900513</v>
       </c>
       <c r="L236">
-        <v>0</v>
-      </c>
-      <c r="M236" t="s">
+        <v>0.5143883889884926</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>883</v>
       </c>
@@ -13615,10 +14326,13 @@
         <v>0.40954941511154169</v>
       </c>
       <c r="L237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.64542400881212747</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>888</v>
       </c>
@@ -13653,13 +14367,16 @@
         <v>0.31044745445251459</v>
       </c>
       <c r="L238">
-        <v>1</v>
-      </c>
-      <c r="M238" t="s">
+        <v>0.68358412643774136</v>
+      </c>
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>894</v>
       </c>
@@ -13694,10 +14411,13 @@
         <v>0.49671861529350281</v>
       </c>
       <c r="L239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.65086942326973563</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>899</v>
       </c>
@@ -13732,10 +14452,13 @@
         <v>0.42964053153991699</v>
       </c>
       <c r="L240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.60489964782180294</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>904</v>
       </c>
@@ -13770,13 +14493,16 @@
         <v>0.68599855899810791</v>
       </c>
       <c r="L241">
-        <v>1</v>
-      </c>
-      <c r="M241" t="s">
+        <v>0.70485852767657375</v>
+      </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>910</v>
       </c>
@@ -13811,13 +14537,16 @@
         <v>0.35614645481109619</v>
       </c>
       <c r="L242">
-        <v>1</v>
-      </c>
-      <c r="M242" t="s">
+        <v>0.6541476115333501</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>916</v>
       </c>
@@ -13852,13 +14581,16 @@
         <v>0.59766817092895508</v>
       </c>
       <c r="L243">
-        <v>0</v>
-      </c>
-      <c r="M243" t="s">
+        <v>0.62509400189676767</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>922</v>
       </c>
@@ -13893,13 +14625,16 @@
         <v>0.67374008893966675</v>
       </c>
       <c r="L244">
-        <v>0</v>
-      </c>
-      <c r="M244" t="s">
+        <v>0.6982044789888413</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>928</v>
       </c>
@@ -13934,13 +14669,16 @@
         <v>0.53555315732955933</v>
       </c>
       <c r="L245">
-        <v>0</v>
-      </c>
-      <c r="M245" t="s">
+        <v>0.54140455537816468</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>934</v>
       </c>
@@ -13975,10 +14713,13 @@
         <v>0.41764503717422491</v>
       </c>
       <c r="L246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.73880256401118749</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>939</v>
       </c>
@@ -14013,13 +14754,16 @@
         <v>0.31512439250946039</v>
       </c>
       <c r="L247">
-        <v>0</v>
-      </c>
-      <c r="M247" t="s">
+        <v>0.63394274374213588</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>945</v>
       </c>
@@ -14054,13 +14798,16 @@
         <v>0.42546975612640381</v>
       </c>
       <c r="L248">
-        <v>0</v>
-      </c>
-      <c r="M248" t="s">
+        <v>0.62774980999549435</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>950</v>
       </c>
@@ -14095,13 +14842,16 @@
         <v>0.40975344181060791</v>
       </c>
       <c r="L249">
-        <v>1</v>
-      </c>
-      <c r="M249" t="s">
+        <v>0.67439931188825897</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>956</v>
       </c>
@@ -14136,13 +14886,16 @@
         <v>0.36011508107185358</v>
       </c>
       <c r="L250">
-        <v>0</v>
-      </c>
-      <c r="M250" t="s">
+        <v>0.68151857577805086</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>961</v>
       </c>
@@ -14177,13 +14930,16 @@
         <v>0.25100380182266241</v>
       </c>
       <c r="L251">
-        <v>0</v>
-      </c>
-      <c r="M251" t="s">
+        <v>0.45190241287828581</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>967</v>
       </c>
@@ -14218,13 +14974,16 @@
         <v>0.36726194620132452</v>
       </c>
       <c r="L252">
-        <v>0</v>
-      </c>
-      <c r="M252" t="s">
+        <v>0.55481418359188117</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>973</v>
       </c>
@@ -14259,13 +15018,16 @@
         <v>0.64260566234588623</v>
       </c>
       <c r="L253">
-        <v>1</v>
-      </c>
-      <c r="M253" t="s">
+        <v>0.6425102184511291</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>979</v>
       </c>
@@ -14300,13 +15062,16 @@
         <v>0.24508339166641241</v>
       </c>
       <c r="L254">
-        <v>0</v>
-      </c>
-      <c r="M254" t="s">
+        <v>0.35488557642551871</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>984</v>
       </c>
@@ -14341,13 +15106,16 @@
         <v>0.52885878086090088</v>
       </c>
       <c r="L255">
-        <v>1</v>
-      </c>
-      <c r="M255" t="s">
+        <v>0.58711431516846879</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>990</v>
       </c>
@@ -14382,10 +15150,13 @@
         <v>0.57026016712188721</v>
       </c>
       <c r="L256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.49348495733023767</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>994</v>
       </c>
@@ -14420,13 +15191,16 @@
         <v>0.46859318017959589</v>
       </c>
       <c r="L257">
-        <v>1</v>
-      </c>
-      <c r="M257" t="s">
+        <v>0.67842380804550917</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+      <c r="N257" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1000</v>
       </c>
@@ -14461,10 +15235,13 @@
         <v>0.42779353260993958</v>
       </c>
       <c r="L258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.66164936911284622</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1005</v>
       </c>
@@ -14499,13 +15276,16 @@
         <v>0.20599949359893799</v>
       </c>
       <c r="L259">
-        <v>0</v>
-      </c>
-      <c r="M259" t="s">
+        <v>0.37775888513561151</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1010</v>
       </c>
@@ -14540,13 +15320,16 @@
         <v>0.51224881410598755</v>
       </c>
       <c r="L260">
-        <v>1</v>
-      </c>
-      <c r="M260" t="s">
+        <v>0.61059842078929238</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+      <c r="N260" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1016</v>
       </c>
@@ -14581,10 +15364,13 @@
         <v>0.32489222288131708</v>
       </c>
       <c r="L261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.46900044352323089</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1021</v>
       </c>
@@ -14619,10 +15405,13 @@
         <v>0.40073829889297491</v>
       </c>
       <c r="L262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.6983458382344272</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1026</v>
       </c>
@@ -14657,13 +15446,16 @@
         <v>0.50709599256515503</v>
       </c>
       <c r="L263">
-        <v>1</v>
-      </c>
-      <c r="M263" t="s">
+        <v>0.70697636784275586</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1032</v>
       </c>
@@ -14698,10 +15490,13 @@
         <v>0.37960085272789001</v>
       </c>
       <c r="L264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.77649725554566917</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1037</v>
       </c>
@@ -14736,13 +15531,16 @@
         <v>0.37084943056106567</v>
       </c>
       <c r="L265">
-        <v>0</v>
-      </c>
-      <c r="M265" t="s">
+        <v>0.49929487693956298</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1043</v>
       </c>
@@ -14777,10 +15575,13 @@
         <v>0.36804550886154169</v>
       </c>
       <c r="L266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.70753139572866153</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1048</v>
       </c>
@@ -14815,10 +15616,13 @@
         <v>0.4043332040309906</v>
       </c>
       <c r="L267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.58839869197074912</v>
+      </c>
+      <c r="M267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1053</v>
       </c>
@@ -14853,10 +15657,13 @@
         <v>0.69023704528808594</v>
       </c>
       <c r="L268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.71166772726106475</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1058</v>
       </c>
@@ -14891,10 +15698,13 @@
         <v>0.47563314437866211</v>
       </c>
       <c r="L269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.68266538241377184</v>
+      </c>
+      <c r="M269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1063</v>
       </c>
@@ -14929,13 +15739,16 @@
         <v>0.42990374565124512</v>
       </c>
       <c r="L270">
-        <v>1</v>
-      </c>
-      <c r="M270" t="s">
+        <v>0.68076436863312295</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1069</v>
       </c>
@@ -14970,13 +15783,16 @@
         <v>0.26607242226600653</v>
       </c>
       <c r="L271">
-        <v>1</v>
-      </c>
-      <c r="M271" t="s">
+        <v>0.18637966794358959</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1075</v>
       </c>
@@ -15011,13 +15827,16 @@
         <v>0.46891611814498901</v>
       </c>
       <c r="L272">
-        <v>1</v>
-      </c>
-      <c r="M272" t="s">
+        <v>0.59854456498127151</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1081</v>
       </c>
@@ -15052,13 +15871,16 @@
         <v>0.30573558807373052</v>
       </c>
       <c r="L273">
-        <v>0</v>
-      </c>
-      <c r="M273" t="s">
+        <v>0.57274309667848056</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1087</v>
       </c>
@@ -15093,10 +15915,13 @@
         <v>0.72458529472351074</v>
       </c>
       <c r="L274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.60406951306641177</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1092</v>
       </c>
@@ -15131,10 +15956,13 @@
         <v>0.52277183532714844</v>
       </c>
       <c r="L275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.72638542553815633</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1097</v>
       </c>
@@ -15169,13 +15997,16 @@
         <v>0.57301598787307739</v>
       </c>
       <c r="L276">
-        <v>0</v>
-      </c>
-      <c r="M276" t="s">
+        <v>0.44950533213795207</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1103</v>
       </c>
@@ -15210,13 +16041,16 @@
         <v>0.42482191324234009</v>
       </c>
       <c r="L277">
-        <v>0</v>
-      </c>
-      <c r="M277" t="s">
+        <v>0.60077904423190631</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1108</v>
       </c>
@@ -15251,13 +16085,16 @@
         <v>0.46745157241821289</v>
       </c>
       <c r="L278">
-        <v>1</v>
-      </c>
-      <c r="M278" t="s">
+        <v>0.43134730925104231</v>
+      </c>
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1113</v>
       </c>
@@ -15292,10 +16129,13 @@
         <v>0.4693024754524231</v>
       </c>
       <c r="L279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.79855813055315994</v>
+      </c>
+      <c r="M279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1118</v>
       </c>
@@ -15330,10 +16170,13 @@
         <v>0.41893672943115229</v>
       </c>
       <c r="L280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.52231832148769664</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1123</v>
       </c>
@@ -15368,10 +16211,13 @@
         <v>0.33206570148468018</v>
       </c>
       <c r="L281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.58229597706653191</v>
+      </c>
+      <c r="M281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1128</v>
       </c>
@@ -15406,13 +16252,16 @@
         <v>0.63531941175460815</v>
       </c>
       <c r="L282">
-        <v>0</v>
-      </c>
-      <c r="M282" t="s">
+        <v>0.65222396070961397</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1134</v>
       </c>
@@ -15447,10 +16296,13 @@
         <v>0.16545355319976809</v>
       </c>
       <c r="L283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.44348972513752499</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1139</v>
       </c>
@@ -15485,10 +16337,13 @@
         <v>0.50717425346374512</v>
       </c>
       <c r="L284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.56965128734131754</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1144</v>
       </c>
@@ -15523,10 +16378,13 @@
         <v>0.26642894744873052</v>
       </c>
       <c r="L285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.49395567638560739</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1147</v>
       </c>
@@ -15561,10 +16419,13 @@
         <v>0.53540337085723877</v>
       </c>
       <c r="L286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.66169959741999829</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1151</v>
       </c>
@@ -15599,10 +16460,13 @@
         <v>0.56366634368896484</v>
       </c>
       <c r="L287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.49445436807779253</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1156</v>
       </c>
@@ -15637,13 +16501,16 @@
         <v>0.63615095615386963</v>
       </c>
       <c r="L288">
-        <v>0</v>
-      </c>
-      <c r="M288" t="s">
+        <v>0.5602590913774832</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1162</v>
       </c>
@@ -15678,10 +16545,13 @@
         <v>0.64459550380706787</v>
       </c>
       <c r="L289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.62755429529823548</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1167</v>
       </c>
@@ -15716,10 +16586,13 @@
         <v>0.46387717127799988</v>
       </c>
       <c r="L290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.51846249565904201</v>
+      </c>
+      <c r="M290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1172</v>
       </c>
@@ -15754,10 +16627,13 @@
         <v>0.48023903369903559</v>
       </c>
       <c r="L291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5760984280702719</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1176</v>
       </c>
@@ -15792,10 +16668,13 @@
         <v>0.2638707160949707</v>
       </c>
       <c r="L292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.58319448719547129</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1181</v>
       </c>
@@ -15830,10 +16709,13 @@
         <v>0.36634266376495361</v>
       </c>
       <c r="L293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.5852610389763494</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1186</v>
       </c>
@@ -15868,10 +16750,13 @@
         <v>0.41450417041778559</v>
       </c>
       <c r="L294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.36826360952767517</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1191</v>
       </c>
@@ -15906,10 +16791,13 @@
         <v>0.35638844966888428</v>
       </c>
       <c r="L295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.66828569998013687</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1196</v>
       </c>
@@ -15944,10 +16832,13 @@
         <v>0.53593730926513672</v>
       </c>
       <c r="L296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.67612718097199087</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1201</v>
       </c>
@@ -15982,10 +16873,13 @@
         <v>0.54475748538970947</v>
       </c>
       <c r="L297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.50700868043204672</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1203</v>
       </c>
@@ -16020,10 +16914,13 @@
         <v>0.41550582647323608</v>
       </c>
       <c r="L298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.54745152830615118</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1208</v>
       </c>
@@ -16058,10 +16955,13 @@
         <v>0.4547770619392395</v>
       </c>
       <c r="L299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6613213934429758</v>
+      </c>
+      <c r="M299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1213</v>
       </c>
@@ -16096,10 +16996,13 @@
         <v>0.54093849658966064</v>
       </c>
       <c r="L300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.6419292565905157</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1218</v>
       </c>
@@ -16134,10 +17037,13 @@
         <v>0.41106522083282471</v>
       </c>
       <c r="L301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.50813070082063683</v>
+      </c>
+      <c r="M301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1223</v>
       </c>
@@ -16172,10 +17078,13 @@
         <v>0.55657994747161865</v>
       </c>
       <c r="L302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.74108575934999665</v>
+      </c>
+      <c r="M302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1228</v>
       </c>
@@ -16210,10 +17119,13 @@
         <v>0.59558117389678955</v>
       </c>
       <c r="L303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.63612840584792618</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1233</v>
       </c>
@@ -16248,10 +17160,13 @@
         <v>0.32619491219520569</v>
       </c>
       <c r="L304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.63397200638198115</v>
+      </c>
+      <c r="M304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1238</v>
       </c>
@@ -16286,10 +17201,13 @@
         <v>0.70495975017547607</v>
       </c>
       <c r="L305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.65545709293835563</v>
+      </c>
+      <c r="M305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1243</v>
       </c>
@@ -16324,10 +17242,13 @@
         <v>0.34176275134086609</v>
       </c>
       <c r="L306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.53428335270892757</v>
+      </c>
+      <c r="M306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1245</v>
       </c>
@@ -16362,13 +17283,16 @@
         <v>0.43122172355651861</v>
       </c>
       <c r="L307">
-        <v>1</v>
-      </c>
-      <c r="M307" t="s">
+        <v>0.55281731214978458</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1251</v>
       </c>
@@ -16403,10 +17327,13 @@
         <v>0.21975290775299069</v>
       </c>
       <c r="L308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.61683522127696633</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1256</v>
       </c>
@@ -16441,10 +17368,13 @@
         <v>0.46825143694877619</v>
       </c>
       <c r="L309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.69344551492960294</v>
+      </c>
+      <c r="M309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1261</v>
       </c>
@@ -16479,10 +17409,13 @@
         <v>0.29505056142807012</v>
       </c>
       <c r="L310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.5849531536757604</v>
+      </c>
+      <c r="M310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1263</v>
       </c>
@@ -16517,10 +17450,13 @@
         <v>0.23381128907203669</v>
       </c>
       <c r="L311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.49767978512779648</v>
+      </c>
+      <c r="M311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1268</v>
       </c>
@@ -16555,10 +17491,13 @@
         <v>0.62124115228652954</v>
       </c>
       <c r="L312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.51155844474723633</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1273</v>
       </c>
@@ -16593,10 +17532,13 @@
         <v>0.46274083852767939</v>
       </c>
       <c r="L313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.63401166410399412</v>
+      </c>
+      <c r="M313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1278</v>
       </c>
@@ -16631,10 +17573,13 @@
         <v>0.25897783041000372</v>
       </c>
       <c r="L314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.37289384520566599</v>
+      </c>
+      <c r="M314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1283</v>
       </c>
@@ -16669,13 +17614,16 @@
         <v>0.26355072855949402</v>
       </c>
       <c r="L315">
-        <v>1</v>
-      </c>
-      <c r="M315" t="s">
+        <v>0.63155562984706282</v>
+      </c>
+      <c r="M315">
+        <v>1</v>
+      </c>
+      <c r="N315" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1287</v>
       </c>
@@ -16710,10 +17658,13 @@
         <v>0.42026358842849731</v>
       </c>
       <c r="L316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.65728226117836264</v>
+      </c>
+      <c r="M316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1292</v>
       </c>
@@ -16748,10 +17699,13 @@
         <v>0.26753896474838262</v>
       </c>
       <c r="L317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.65815194659400966</v>
+      </c>
+      <c r="M317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1297</v>
       </c>
@@ -16786,10 +17740,13 @@
         <v>0.54466414451599121</v>
       </c>
       <c r="L318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.54613302160479427</v>
+      </c>
+      <c r="M318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1302</v>
       </c>
@@ -16824,10 +17781,13 @@
         <v>0.5223957896232605</v>
       </c>
       <c r="L319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.62711818464085123</v>
+      </c>
+      <c r="M319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1307</v>
       </c>
@@ -16862,10 +17822,13 @@
         <v>0.72649776935577393</v>
       </c>
       <c r="L320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.75360387821180752</v>
+      </c>
+      <c r="M320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1311</v>
       </c>
@@ -16900,10 +17863,13 @@
         <v>0.29493856430053711</v>
       </c>
       <c r="L321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.52782106318560618</v>
+      </c>
+      <c r="M321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1313</v>
       </c>
@@ -16938,10 +17904,13 @@
         <v>0.50330698490142822</v>
       </c>
       <c r="L322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.60518905270200407</v>
+      </c>
+      <c r="M322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1318</v>
       </c>
@@ -16976,10 +17945,13 @@
         <v>0.53303301334381104</v>
       </c>
       <c r="L323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.53562318569041478</v>
+      </c>
+      <c r="M323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1323</v>
       </c>
@@ -17014,10 +17986,13 @@
         <v>0.49230015277862549</v>
       </c>
       <c r="L324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.62534683985948281</v>
+      </c>
+      <c r="M324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1327</v>
       </c>
@@ -17052,10 +18027,13 @@
         <v>0.43311083316802979</v>
       </c>
       <c r="L325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.51890204297553533</v>
+      </c>
+      <c r="M325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1332</v>
       </c>
@@ -17090,10 +18068,13 @@
         <v>0.53538477420806885</v>
       </c>
       <c r="L326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.68965915611297002</v>
+      </c>
+      <c r="M326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1337</v>
       </c>
@@ -17128,6 +18109,9 @@
         <v>0.26764363050460821</v>
       </c>
       <c r="L327">
+        <v>0.4594071480167754</v>
+      </c>
+      <c r="M327">
         <v>1</v>
       </c>
     </row>
